--- a/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
+++ b/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirja\Documents\Southbridge-Public-Schools-Tasks\Troubleshooting-Data-Task\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A38D727-C7FD-4A81-9577-B54C0327A089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Instructions" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Data Layout" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Example Class Data" sheetId="3" r:id="rId6"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Layout" sheetId="2" r:id="rId2"/>
+    <sheet name="Example Class Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -192,43 +201,48 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -239,11 +253,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -257,6 +277,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -265,17 +286,22 @@
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -284,9 +310,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -301,8 +329,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -312,6 +342,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -326,94 +357,84 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -603,82 +624,88 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="89.0"/>
+    <col min="1" max="1" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A6"/>
-    <hyperlink r:id="rId2" ref="A8"/>
-    <hyperlink r:id="rId3" ref="A9"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="51.0"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -712,7 +739,7 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -746,7 +773,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -780,7 +807,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
@@ -814,7 +841,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -848,7 +875,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -882,7 +909,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -916,7 +943,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
@@ -950,7 +977,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -984,7 +1011,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="15"/>
       <c r="C10" s="8"/>
@@ -1012,7 +1039,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="8"/>
@@ -1040,7 +1067,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="15"/>
       <c r="C12" s="8"/>
@@ -1068,7 +1095,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="8"/>
@@ -1096,7 +1123,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="8"/>
@@ -1124,7 +1151,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="15"/>
       <c r="C15" s="8"/>
@@ -1152,7 +1179,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="15"/>
       <c r="C16" s="8"/>
@@ -1180,7 +1207,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="15"/>
       <c r="C17" s="8"/>
@@ -1208,7 +1235,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="15"/>
       <c r="C18" s="8"/>
@@ -1236,7 +1263,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
@@ -1264,7 +1291,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="8"/>
@@ -1292,7 +1319,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="15"/>
       <c r="C21" s="8"/>
@@ -1320,7 +1347,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="15"/>
       <c r="C22" s="8"/>
@@ -1348,7 +1375,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="15"/>
       <c r="C23" s="8"/>
@@ -1376,7 +1403,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="15"/>
       <c r="C24" s="8"/>
@@ -1404,7 +1431,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="15"/>
       <c r="C25" s="8"/>
@@ -1432,7 +1459,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="15"/>
       <c r="C26" s="8"/>
@@ -1460,7 +1487,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="15"/>
       <c r="C27" s="8"/>
@@ -1488,7 +1515,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="15"/>
       <c r="C28" s="8"/>
@@ -1516,7 +1543,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="15"/>
       <c r="C29" s="8"/>
@@ -1544,7 +1571,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="15"/>
       <c r="C30" s="8"/>
@@ -1572,7 +1599,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="15"/>
       <c r="C31" s="8"/>
@@ -1600,7 +1627,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="15"/>
       <c r="C32" s="8"/>
@@ -1628,7 +1655,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="15"/>
       <c r="C33" s="8"/>
@@ -1656,7 +1683,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="15"/>
       <c r="C34" s="8"/>
@@ -1684,7 +1711,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="15"/>
       <c r="C35" s="8"/>
@@ -1712,7 +1739,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="15"/>
       <c r="C36" s="8"/>
@@ -1740,7 +1767,7 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="15"/>
       <c r="C37" s="8"/>
@@ -1768,7 +1795,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="15"/>
       <c r="C38" s="8"/>
@@ -1796,7 +1823,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="15"/>
       <c r="C39" s="8"/>
@@ -1824,7 +1851,7 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="15"/>
       <c r="C40" s="8"/>
@@ -1852,7 +1879,7 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="15"/>
       <c r="C41" s="8"/>
@@ -1880,7 +1907,7 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
@@ -1908,7 +1935,7 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="15"/>
       <c r="C43" s="8"/>
@@ -1936,7 +1963,7 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="15"/>
       <c r="C44" s="8"/>
@@ -1964,7 +1991,7 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="15"/>
       <c r="C45" s="8"/>
@@ -1992,7 +2019,7 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="15"/>
       <c r="C46" s="8"/>
@@ -2020,7 +2047,7 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="15"/>
       <c r="C47" s="8"/>
@@ -2048,7 +2075,7 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="15"/>
       <c r="C48" s="8"/>
@@ -2076,7 +2103,7 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="15"/>
       <c r="C49" s="8"/>
@@ -2104,7 +2131,7 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="15"/>
       <c r="C50" s="8"/>
@@ -2132,7 +2159,7 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="15"/>
       <c r="C51" s="8"/>
@@ -2160,7 +2187,7 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="15"/>
       <c r="C52" s="8"/>
@@ -2188,7 +2215,7 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="15"/>
       <c r="C53" s="8"/>
@@ -2216,7 +2243,7 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="15"/>
       <c r="C54" s="8"/>
@@ -2244,7 +2271,7 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="15"/>
       <c r="C55" s="8"/>
@@ -2272,7 +2299,7 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="15"/>
       <c r="C56" s="8"/>
@@ -2300,7 +2327,7 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="15"/>
       <c r="C57" s="8"/>
@@ -2328,7 +2355,7 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="15"/>
       <c r="C58" s="8"/>
@@ -2356,7 +2383,7 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="15"/>
       <c r="C59" s="8"/>
@@ -2384,7 +2411,7 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="15"/>
       <c r="C60" s="8"/>
@@ -2412,7 +2439,7 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="15"/>
       <c r="C61" s="8"/>
@@ -2440,7 +2467,7 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="15"/>
       <c r="C62" s="8"/>
@@ -2468,7 +2495,7 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="15"/>
       <c r="C63" s="8"/>
@@ -2496,7 +2523,7 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="15"/>
       <c r="C64" s="8"/>
@@ -2524,7 +2551,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="15"/>
       <c r="C65" s="8"/>
@@ -2552,7 +2579,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="15"/>
       <c r="C66" s="8"/>
@@ -2580,7 +2607,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="15"/>
       <c r="C67" s="8"/>
@@ -2608,7 +2635,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="15"/>
       <c r="C68" s="8"/>
@@ -2636,7 +2663,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="15"/>
       <c r="C69" s="8"/>
@@ -2664,7 +2691,7 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="15"/>
       <c r="C70" s="8"/>
@@ -2692,7 +2719,7 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="15"/>
       <c r="C71" s="8"/>
@@ -2720,7 +2747,7 @@
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="15"/>
       <c r="C72" s="8"/>
@@ -2748,7 +2775,7 @@
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="15"/>
       <c r="C73" s="8"/>
@@ -2776,7 +2803,7 @@
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="15"/>
       <c r="C74" s="8"/>
@@ -2804,7 +2831,7 @@
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="15"/>
       <c r="C75" s="8"/>
@@ -2832,7 +2859,7 @@
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="15"/>
       <c r="C76" s="8"/>
@@ -2860,7 +2887,7 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="15"/>
       <c r="C77" s="8"/>
@@ -2888,7 +2915,7 @@
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="15"/>
       <c r="C78" s="8"/>
@@ -2916,7 +2943,7 @@
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="15"/>
       <c r="C79" s="8"/>
@@ -2944,7 +2971,7 @@
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="15"/>
       <c r="C80" s="8"/>
@@ -2972,7 +2999,7 @@
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="15"/>
       <c r="C81" s="8"/>
@@ -3000,7 +3027,7 @@
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="15"/>
       <c r="C82" s="8"/>
@@ -3028,7 +3055,7 @@
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="15"/>
       <c r="C83" s="8"/>
@@ -3056,7 +3083,7 @@
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="15"/>
       <c r="C84" s="8"/>
@@ -3084,7 +3111,7 @@
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="15"/>
       <c r="C85" s="8"/>
@@ -3112,7 +3139,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="15"/>
       <c r="C86" s="8"/>
@@ -3140,7 +3167,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="15"/>
       <c r="C87" s="8"/>
@@ -3168,7 +3195,7 @@
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="15"/>
       <c r="C88" s="8"/>
@@ -3196,7 +3223,7 @@
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="15"/>
       <c r="C89" s="8"/>
@@ -3224,7 +3251,7 @@
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="15"/>
       <c r="C90" s="8"/>
@@ -3252,7 +3279,7 @@
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="15"/>
       <c r="C91" s="8"/>
@@ -3280,7 +3307,7 @@
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="15"/>
       <c r="C92" s="8"/>
@@ -3308,7 +3335,7 @@
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="15"/>
       <c r="C93" s="8"/>
@@ -3336,7 +3363,7 @@
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="15"/>
       <c r="C94" s="8"/>
@@ -3364,7 +3391,7 @@
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="15"/>
       <c r="C95" s="8"/>
@@ -3392,7 +3419,7 @@
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="15"/>
       <c r="C96" s="8"/>
@@ -3420,7 +3447,7 @@
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="15"/>
       <c r="C97" s="8"/>
@@ -3448,7 +3475,7 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="15"/>
       <c r="C98" s="8"/>
@@ -3476,7 +3503,7 @@
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="15"/>
       <c r="C99" s="8"/>
@@ -3504,7 +3531,7 @@
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="15"/>
       <c r="C100" s="8"/>
@@ -3532,7 +3559,7 @@
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="15"/>
       <c r="C101" s="8"/>
@@ -3560,7 +3587,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="15"/>
       <c r="C102" s="8"/>
@@ -3588,7 +3615,7 @@
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="15"/>
       <c r="C103" s="8"/>
@@ -3616,7 +3643,7 @@
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="15"/>
       <c r="C104" s="8"/>
@@ -3644,7 +3671,7 @@
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="15"/>
       <c r="C105" s="8"/>
@@ -3672,7 +3699,7 @@
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="15"/>
       <c r="C106" s="8"/>
@@ -3700,7 +3727,7 @@
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="15"/>
       <c r="C107" s="8"/>
@@ -3728,7 +3755,7 @@
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="15"/>
       <c r="C108" s="8"/>
@@ -3756,7 +3783,7 @@
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="15"/>
       <c r="C109" s="8"/>
@@ -3784,7 +3811,7 @@
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="15"/>
       <c r="C110" s="8"/>
@@ -3812,7 +3839,7 @@
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="15"/>
       <c r="C111" s="8"/>
@@ -3840,7 +3867,7 @@
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="15"/>
       <c r="C112" s="8"/>
@@ -3868,7 +3895,7 @@
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="15"/>
       <c r="C113" s="8"/>
@@ -3896,7 +3923,7 @@
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="15"/>
       <c r="C114" s="8"/>
@@ -3924,7 +3951,7 @@
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="15"/>
       <c r="C115" s="8"/>
@@ -3952,7 +3979,7 @@
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="15"/>
       <c r="C116" s="8"/>
@@ -3980,7 +4007,7 @@
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="15"/>
       <c r="C117" s="8"/>
@@ -4008,7 +4035,7 @@
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="15"/>
       <c r="C118" s="8"/>
@@ -4036,7 +4063,7 @@
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="15"/>
       <c r="C119" s="8"/>
@@ -4064,7 +4091,7 @@
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="15"/>
       <c r="C120" s="8"/>
@@ -4092,7 +4119,7 @@
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="15"/>
       <c r="C121" s="8"/>
@@ -4120,7 +4147,7 @@
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="15"/>
       <c r="C122" s="8"/>
@@ -4148,7 +4175,7 @@
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="15"/>
       <c r="C123" s="8"/>
@@ -4176,7 +4203,7 @@
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="15"/>
       <c r="C124" s="8"/>
@@ -4204,7 +4231,7 @@
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="15"/>
       <c r="C125" s="8"/>
@@ -4232,7 +4259,7 @@
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="15"/>
       <c r="C126" s="8"/>
@@ -4260,7 +4287,7 @@
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="15"/>
       <c r="C127" s="8"/>
@@ -4288,7 +4315,7 @@
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="15"/>
       <c r="C128" s="8"/>
@@ -4316,7 +4343,7 @@
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="15"/>
       <c r="C129" s="8"/>
@@ -4344,7 +4371,7 @@
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="15"/>
       <c r="C130" s="8"/>
@@ -4372,7 +4399,7 @@
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="15"/>
       <c r="C131" s="8"/>
@@ -4400,7 +4427,7 @@
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="15"/>
       <c r="C132" s="8"/>
@@ -4428,7 +4455,7 @@
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="15"/>
       <c r="C133" s="8"/>
@@ -4456,7 +4483,7 @@
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="15"/>
       <c r="C134" s="8"/>
@@ -4484,7 +4511,7 @@
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="15"/>
       <c r="C135" s="8"/>
@@ -4512,7 +4539,7 @@
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="15"/>
       <c r="C136" s="8"/>
@@ -4540,7 +4567,7 @@
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="15"/>
       <c r="C137" s="8"/>
@@ -4568,7 +4595,7 @@
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="15"/>
       <c r="C138" s="8"/>
@@ -4596,7 +4623,7 @@
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="15"/>
       <c r="C139" s="8"/>
@@ -4624,7 +4651,7 @@
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="15"/>
       <c r="C140" s="8"/>
@@ -4652,7 +4679,7 @@
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="15"/>
       <c r="C141" s="8"/>
@@ -4680,7 +4707,7 @@
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="15"/>
       <c r="C142" s="8"/>
@@ -4708,7 +4735,7 @@
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="15"/>
       <c r="C143" s="8"/>
@@ -4736,7 +4763,7 @@
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="15"/>
       <c r="C144" s="8"/>
@@ -4764,7 +4791,7 @@
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="15"/>
       <c r="C145" s="8"/>
@@ -4792,7 +4819,7 @@
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="15"/>
       <c r="C146" s="8"/>
@@ -4820,7 +4847,7 @@
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="15"/>
       <c r="C147" s="8"/>
@@ -4848,7 +4875,7 @@
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="15"/>
       <c r="C148" s="8"/>
@@ -4876,7 +4903,7 @@
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="15"/>
       <c r="C149" s="8"/>
@@ -4904,7 +4931,7 @@
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="15"/>
       <c r="C150" s="8"/>
@@ -4932,7 +4959,7 @@
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="15"/>
       <c r="C151" s="8"/>
@@ -4960,7 +4987,7 @@
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="15"/>
       <c r="C152" s="8"/>
@@ -4988,7 +5015,7 @@
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="15"/>
       <c r="C153" s="8"/>
@@ -5016,7 +5043,7 @@
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="15"/>
       <c r="C154" s="8"/>
@@ -5044,7 +5071,7 @@
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="15"/>
       <c r="C155" s="8"/>
@@ -5072,7 +5099,7 @@
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="15"/>
       <c r="C156" s="8"/>
@@ -5100,7 +5127,7 @@
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="15"/>
       <c r="C157" s="8"/>
@@ -5128,7 +5155,7 @@
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="15"/>
       <c r="C158" s="8"/>
@@ -5156,7 +5183,7 @@
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="15"/>
       <c r="C159" s="8"/>
@@ -5184,7 +5211,7 @@
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="15"/>
       <c r="C160" s="8"/>
@@ -5212,7 +5239,7 @@
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="15"/>
       <c r="C161" s="8"/>
@@ -5240,7 +5267,7 @@
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="15"/>
       <c r="C162" s="8"/>
@@ -5268,7 +5295,7 @@
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="15"/>
       <c r="C163" s="8"/>
@@ -5296,7 +5323,7 @@
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="15"/>
       <c r="C164" s="8"/>
@@ -5324,7 +5351,7 @@
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="15"/>
       <c r="C165" s="8"/>
@@ -5352,7 +5379,7 @@
       <c r="Y165" s="8"/>
       <c r="Z165" s="8"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="15"/>
       <c r="C166" s="8"/>
@@ -5380,7 +5407,7 @@
       <c r="Y166" s="8"/>
       <c r="Z166" s="8"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="15"/>
       <c r="C167" s="8"/>
@@ -5408,7 +5435,7 @@
       <c r="Y167" s="8"/>
       <c r="Z167" s="8"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="15"/>
       <c r="C168" s="8"/>
@@ -5436,7 +5463,7 @@
       <c r="Y168" s="8"/>
       <c r="Z168" s="8"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="15"/>
       <c r="C169" s="8"/>
@@ -5464,7 +5491,7 @@
       <c r="Y169" s="8"/>
       <c r="Z169" s="8"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="15"/>
       <c r="C170" s="8"/>
@@ -5492,7 +5519,7 @@
       <c r="Y170" s="8"/>
       <c r="Z170" s="8"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="15"/>
       <c r="C171" s="8"/>
@@ -5520,7 +5547,7 @@
       <c r="Y171" s="8"/>
       <c r="Z171" s="8"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="15"/>
       <c r="C172" s="8"/>
@@ -5548,7 +5575,7 @@
       <c r="Y172" s="8"/>
       <c r="Z172" s="8"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="15"/>
       <c r="C173" s="8"/>
@@ -5576,7 +5603,7 @@
       <c r="Y173" s="8"/>
       <c r="Z173" s="8"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="15"/>
       <c r="C174" s="8"/>
@@ -5604,7 +5631,7 @@
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="15"/>
       <c r="C175" s="8"/>
@@ -5632,7 +5659,7 @@
       <c r="Y175" s="8"/>
       <c r="Z175" s="8"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="15"/>
       <c r="C176" s="8"/>
@@ -5660,7 +5687,7 @@
       <c r="Y176" s="8"/>
       <c r="Z176" s="8"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="B177" s="15"/>
       <c r="C177" s="8"/>
@@ -5688,7 +5715,7 @@
       <c r="Y177" s="8"/>
       <c r="Z177" s="8"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="15"/>
       <c r="C178" s="8"/>
@@ -5716,7 +5743,7 @@
       <c r="Y178" s="8"/>
       <c r="Z178" s="8"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="15"/>
       <c r="C179" s="8"/>
@@ -5744,7 +5771,7 @@
       <c r="Y179" s="8"/>
       <c r="Z179" s="8"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="15"/>
       <c r="C180" s="8"/>
@@ -5772,7 +5799,7 @@
       <c r="Y180" s="8"/>
       <c r="Z180" s="8"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" s="8"/>
       <c r="B181" s="15"/>
       <c r="C181" s="8"/>
@@ -5800,7 +5827,7 @@
       <c r="Y181" s="8"/>
       <c r="Z181" s="8"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" s="8"/>
       <c r="B182" s="15"/>
       <c r="C182" s="8"/>
@@ -5828,7 +5855,7 @@
       <c r="Y182" s="8"/>
       <c r="Z182" s="8"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="15"/>
       <c r="C183" s="8"/>
@@ -5856,7 +5883,7 @@
       <c r="Y183" s="8"/>
       <c r="Z183" s="8"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
       <c r="B184" s="15"/>
       <c r="C184" s="8"/>
@@ -5884,7 +5911,7 @@
       <c r="Y184" s="8"/>
       <c r="Z184" s="8"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
       <c r="B185" s="15"/>
       <c r="C185" s="8"/>
@@ -5912,7 +5939,7 @@
       <c r="Y185" s="8"/>
       <c r="Z185" s="8"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
       <c r="B186" s="15"/>
       <c r="C186" s="8"/>
@@ -5940,7 +5967,7 @@
       <c r="Y186" s="8"/>
       <c r="Z186" s="8"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="15"/>
       <c r="C187" s="8"/>
@@ -5968,7 +5995,7 @@
       <c r="Y187" s="8"/>
       <c r="Z187" s="8"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
       <c r="B188" s="15"/>
       <c r="C188" s="8"/>
@@ -5996,7 +6023,7 @@
       <c r="Y188" s="8"/>
       <c r="Z188" s="8"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="B189" s="15"/>
       <c r="C189" s="8"/>
@@ -6024,7 +6051,7 @@
       <c r="Y189" s="8"/>
       <c r="Z189" s="8"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="15"/>
       <c r="C190" s="8"/>
@@ -6052,7 +6079,7 @@
       <c r="Y190" s="8"/>
       <c r="Z190" s="8"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
       <c r="B191" s="15"/>
       <c r="C191" s="8"/>
@@ -6080,7 +6107,7 @@
       <c r="Y191" s="8"/>
       <c r="Z191" s="8"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
       <c r="B192" s="15"/>
       <c r="C192" s="8"/>
@@ -6108,7 +6135,7 @@
       <c r="Y192" s="8"/>
       <c r="Z192" s="8"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
       <c r="B193" s="15"/>
       <c r="C193" s="8"/>
@@ -6136,7 +6163,7 @@
       <c r="Y193" s="8"/>
       <c r="Z193" s="8"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" s="8"/>
       <c r="B194" s="15"/>
       <c r="C194" s="8"/>
@@ -6164,7 +6191,7 @@
       <c r="Y194" s="8"/>
       <c r="Z194" s="8"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="15"/>
       <c r="C195" s="8"/>
@@ -6192,7 +6219,7 @@
       <c r="Y195" s="8"/>
       <c r="Z195" s="8"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="15"/>
       <c r="C196" s="8"/>
@@ -6220,7 +6247,7 @@
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="15"/>
       <c r="C197" s="8"/>
@@ -6248,7 +6275,7 @@
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="15"/>
       <c r="C198" s="8"/>
@@ -6276,7 +6303,7 @@
       <c r="Y198" s="8"/>
       <c r="Z198" s="8"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="15"/>
       <c r="C199" s="8"/>
@@ -6304,7 +6331,7 @@
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="15"/>
       <c r="C200" s="8"/>
@@ -6332,7 +6359,7 @@
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="15"/>
       <c r="C201" s="8"/>
@@ -6360,7 +6387,7 @@
       <c r="Y201" s="8"/>
       <c r="Z201" s="8"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="15"/>
       <c r="C202" s="8"/>
@@ -6388,7 +6415,7 @@
       <c r="Y202" s="8"/>
       <c r="Z202" s="8"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="15"/>
       <c r="C203" s="8"/>
@@ -6416,7 +6443,7 @@
       <c r="Y203" s="8"/>
       <c r="Z203" s="8"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="15"/>
       <c r="C204" s="8"/>
@@ -6444,7 +6471,7 @@
       <c r="Y204" s="8"/>
       <c r="Z204" s="8"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="15"/>
       <c r="C205" s="8"/>
@@ -6472,7 +6499,7 @@
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="15"/>
       <c r="C206" s="8"/>
@@ -6500,7 +6527,7 @@
       <c r="Y206" s="8"/>
       <c r="Z206" s="8"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="15"/>
       <c r="C207" s="8"/>
@@ -6528,7 +6555,7 @@
       <c r="Y207" s="8"/>
       <c r="Z207" s="8"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="15"/>
       <c r="C208" s="8"/>
@@ -6556,7 +6583,7 @@
       <c r="Y208" s="8"/>
       <c r="Z208" s="8"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="15"/>
       <c r="C209" s="8"/>
@@ -6584,7 +6611,7 @@
       <c r="Y209" s="8"/>
       <c r="Z209" s="8"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="15"/>
       <c r="C210" s="8"/>
@@ -6612,7 +6639,7 @@
       <c r="Y210" s="8"/>
       <c r="Z210" s="8"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="15"/>
       <c r="C211" s="8"/>
@@ -6640,7 +6667,7 @@
       <c r="Y211" s="8"/>
       <c r="Z211" s="8"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="15"/>
       <c r="C212" s="8"/>
@@ -6668,7 +6695,7 @@
       <c r="Y212" s="8"/>
       <c r="Z212" s="8"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
       <c r="B213" s="15"/>
       <c r="C213" s="8"/>
@@ -6696,7 +6723,7 @@
       <c r="Y213" s="8"/>
       <c r="Z213" s="8"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" s="8"/>
       <c r="B214" s="15"/>
       <c r="C214" s="8"/>
@@ -6724,7 +6751,7 @@
       <c r="Y214" s="8"/>
       <c r="Z214" s="8"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
       <c r="B215" s="15"/>
       <c r="C215" s="8"/>
@@ -6752,7 +6779,7 @@
       <c r="Y215" s="8"/>
       <c r="Z215" s="8"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
       <c r="B216" s="15"/>
       <c r="C216" s="8"/>
@@ -6780,7 +6807,7 @@
       <c r="Y216" s="8"/>
       <c r="Z216" s="8"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
       <c r="B217" s="15"/>
       <c r="C217" s="8"/>
@@ -6808,7 +6835,7 @@
       <c r="Y217" s="8"/>
       <c r="Z217" s="8"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" s="8"/>
       <c r="B218" s="15"/>
       <c r="C218" s="8"/>
@@ -6836,7 +6863,7 @@
       <c r="Y218" s="8"/>
       <c r="Z218" s="8"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
       <c r="B219" s="15"/>
       <c r="C219" s="8"/>
@@ -6864,7 +6891,7 @@
       <c r="Y219" s="8"/>
       <c r="Z219" s="8"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="15"/>
       <c r="C220" s="8"/>
@@ -6892,7 +6919,7 @@
       <c r="Y220" s="8"/>
       <c r="Z220" s="8"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="15"/>
       <c r="C221" s="8"/>
@@ -6920,7 +6947,7 @@
       <c r="Y221" s="8"/>
       <c r="Z221" s="8"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="15"/>
       <c r="C222" s="8"/>
@@ -6948,7 +6975,7 @@
       <c r="Y222" s="8"/>
       <c r="Z222" s="8"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
       <c r="B223" s="15"/>
       <c r="C223" s="8"/>
@@ -6976,7 +7003,7 @@
       <c r="Y223" s="8"/>
       <c r="Z223" s="8"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
       <c r="B224" s="15"/>
       <c r="C224" s="8"/>
@@ -7004,7 +7031,7 @@
       <c r="Y224" s="8"/>
       <c r="Z224" s="8"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="15"/>
       <c r="C225" s="8"/>
@@ -7032,7 +7059,7 @@
       <c r="Y225" s="8"/>
       <c r="Z225" s="8"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="15"/>
       <c r="C226" s="8"/>
@@ -7060,7 +7087,7 @@
       <c r="Y226" s="8"/>
       <c r="Z226" s="8"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
       <c r="B227" s="15"/>
       <c r="C227" s="8"/>
@@ -7088,7 +7115,7 @@
       <c r="Y227" s="8"/>
       <c r="Z227" s="8"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="15"/>
       <c r="C228" s="8"/>
@@ -7116,7 +7143,7 @@
       <c r="Y228" s="8"/>
       <c r="Z228" s="8"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
       <c r="B229" s="15"/>
       <c r="C229" s="8"/>
@@ -7144,7 +7171,7 @@
       <c r="Y229" s="8"/>
       <c r="Z229" s="8"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230" s="15"/>
       <c r="C230" s="8"/>
@@ -7172,7 +7199,7 @@
       <c r="Y230" s="8"/>
       <c r="Z230" s="8"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="15"/>
       <c r="C231" s="8"/>
@@ -7200,7 +7227,7 @@
       <c r="Y231" s="8"/>
       <c r="Z231" s="8"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="15"/>
       <c r="C232" s="8"/>
@@ -7228,7 +7255,7 @@
       <c r="Y232" s="8"/>
       <c r="Z232" s="8"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
       <c r="B233" s="15"/>
       <c r="C233" s="8"/>
@@ -7256,7 +7283,7 @@
       <c r="Y233" s="8"/>
       <c r="Z233" s="8"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="15"/>
       <c r="C234" s="8"/>
@@ -7284,7 +7311,7 @@
       <c r="Y234" s="8"/>
       <c r="Z234" s="8"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
       <c r="B235" s="15"/>
       <c r="C235" s="8"/>
@@ -7312,7 +7339,7 @@
       <c r="Y235" s="8"/>
       <c r="Z235" s="8"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
       <c r="B236" s="15"/>
       <c r="C236" s="8"/>
@@ -7340,7 +7367,7 @@
       <c r="Y236" s="8"/>
       <c r="Z236" s="8"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
       <c r="B237" s="15"/>
       <c r="C237" s="8"/>
@@ -7368,7 +7395,7 @@
       <c r="Y237" s="8"/>
       <c r="Z237" s="8"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
       <c r="B238" s="15"/>
       <c r="C238" s="8"/>
@@ -7396,7 +7423,7 @@
       <c r="Y238" s="8"/>
       <c r="Z238" s="8"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" s="8"/>
       <c r="B239" s="15"/>
       <c r="C239" s="8"/>
@@ -7424,7 +7451,7 @@
       <c r="Y239" s="8"/>
       <c r="Z239" s="8"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" s="8"/>
       <c r="B240" s="15"/>
       <c r="C240" s="8"/>
@@ -7452,7 +7479,7 @@
       <c r="Y240" s="8"/>
       <c r="Z240" s="8"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" s="8"/>
       <c r="B241" s="15"/>
       <c r="C241" s="8"/>
@@ -7480,7 +7507,7 @@
       <c r="Y241" s="8"/>
       <c r="Z241" s="8"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" s="8"/>
       <c r="B242" s="15"/>
       <c r="C242" s="8"/>
@@ -7508,7 +7535,7 @@
       <c r="Y242" s="8"/>
       <c r="Z242" s="8"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" s="8"/>
       <c r="B243" s="15"/>
       <c r="C243" s="8"/>
@@ -7536,7 +7563,7 @@
       <c r="Y243" s="8"/>
       <c r="Z243" s="8"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" s="8"/>
       <c r="B244" s="15"/>
       <c r="C244" s="8"/>
@@ -7564,7 +7591,7 @@
       <c r="Y244" s="8"/>
       <c r="Z244" s="8"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" s="8"/>
       <c r="B245" s="15"/>
       <c r="C245" s="8"/>
@@ -7592,7 +7619,7 @@
       <c r="Y245" s="8"/>
       <c r="Z245" s="8"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" s="8"/>
       <c r="B246" s="15"/>
       <c r="C246" s="8"/>
@@ -7620,7 +7647,7 @@
       <c r="Y246" s="8"/>
       <c r="Z246" s="8"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" s="8"/>
       <c r="B247" s="15"/>
       <c r="C247" s="8"/>
@@ -7648,7 +7675,7 @@
       <c r="Y247" s="8"/>
       <c r="Z247" s="8"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" s="8"/>
       <c r="B248" s="15"/>
       <c r="C248" s="8"/>
@@ -7676,7 +7703,7 @@
       <c r="Y248" s="8"/>
       <c r="Z248" s="8"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" s="8"/>
       <c r="B249" s="15"/>
       <c r="C249" s="8"/>
@@ -7704,7 +7731,7 @@
       <c r="Y249" s="8"/>
       <c r="Z249" s="8"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" s="8"/>
       <c r="B250" s="15"/>
       <c r="C250" s="8"/>
@@ -7732,7 +7759,7 @@
       <c r="Y250" s="8"/>
       <c r="Z250" s="8"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" s="8"/>
       <c r="B251" s="15"/>
       <c r="C251" s="8"/>
@@ -7760,7 +7787,7 @@
       <c r="Y251" s="8"/>
       <c r="Z251" s="8"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" s="8"/>
       <c r="B252" s="15"/>
       <c r="C252" s="8"/>
@@ -7788,7 +7815,7 @@
       <c r="Y252" s="8"/>
       <c r="Z252" s="8"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" s="8"/>
       <c r="B253" s="15"/>
       <c r="C253" s="8"/>
@@ -7816,7 +7843,7 @@
       <c r="Y253" s="8"/>
       <c r="Z253" s="8"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" s="8"/>
       <c r="B254" s="15"/>
       <c r="C254" s="8"/>
@@ -7844,7 +7871,7 @@
       <c r="Y254" s="8"/>
       <c r="Z254" s="8"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" s="8"/>
       <c r="B255" s="15"/>
       <c r="C255" s="8"/>
@@ -7872,7 +7899,7 @@
       <c r="Y255" s="8"/>
       <c r="Z255" s="8"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" s="8"/>
       <c r="B256" s="15"/>
       <c r="C256" s="8"/>
@@ -7900,7 +7927,7 @@
       <c r="Y256" s="8"/>
       <c r="Z256" s="8"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" s="8"/>
       <c r="B257" s="15"/>
       <c r="C257" s="8"/>
@@ -7928,7 +7955,7 @@
       <c r="Y257" s="8"/>
       <c r="Z257" s="8"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" s="8"/>
       <c r="B258" s="15"/>
       <c r="C258" s="8"/>
@@ -7956,7 +7983,7 @@
       <c r="Y258" s="8"/>
       <c r="Z258" s="8"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" s="8"/>
       <c r="B259" s="15"/>
       <c r="C259" s="8"/>
@@ -7984,7 +8011,7 @@
       <c r="Y259" s="8"/>
       <c r="Z259" s="8"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" s="8"/>
       <c r="B260" s="15"/>
       <c r="C260" s="8"/>
@@ -8012,7 +8039,7 @@
       <c r="Y260" s="8"/>
       <c r="Z260" s="8"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" s="8"/>
       <c r="B261" s="15"/>
       <c r="C261" s="8"/>
@@ -8040,7 +8067,7 @@
       <c r="Y261" s="8"/>
       <c r="Z261" s="8"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" s="8"/>
       <c r="B262" s="15"/>
       <c r="C262" s="8"/>
@@ -8068,7 +8095,7 @@
       <c r="Y262" s="8"/>
       <c r="Z262" s="8"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" s="8"/>
       <c r="B263" s="15"/>
       <c r="C263" s="8"/>
@@ -8096,7 +8123,7 @@
       <c r="Y263" s="8"/>
       <c r="Z263" s="8"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" s="8"/>
       <c r="B264" s="15"/>
       <c r="C264" s="8"/>
@@ -8124,7 +8151,7 @@
       <c r="Y264" s="8"/>
       <c r="Z264" s="8"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" s="8"/>
       <c r="B265" s="15"/>
       <c r="C265" s="8"/>
@@ -8152,7 +8179,7 @@
       <c r="Y265" s="8"/>
       <c r="Z265" s="8"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A266" s="8"/>
       <c r="B266" s="15"/>
       <c r="C266" s="8"/>
@@ -8180,7 +8207,7 @@
       <c r="Y266" s="8"/>
       <c r="Z266" s="8"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A267" s="8"/>
       <c r="B267" s="15"/>
       <c r="C267" s="8"/>
@@ -8208,7 +8235,7 @@
       <c r="Y267" s="8"/>
       <c r="Z267" s="8"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A268" s="8"/>
       <c r="B268" s="15"/>
       <c r="C268" s="8"/>
@@ -8236,7 +8263,7 @@
       <c r="Y268" s="8"/>
       <c r="Z268" s="8"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A269" s="8"/>
       <c r="B269" s="15"/>
       <c r="C269" s="8"/>
@@ -8264,7 +8291,7 @@
       <c r="Y269" s="8"/>
       <c r="Z269" s="8"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A270" s="8"/>
       <c r="B270" s="15"/>
       <c r="C270" s="8"/>
@@ -8292,7 +8319,7 @@
       <c r="Y270" s="8"/>
       <c r="Z270" s="8"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A271" s="8"/>
       <c r="B271" s="15"/>
       <c r="C271" s="8"/>
@@ -8320,7 +8347,7 @@
       <c r="Y271" s="8"/>
       <c r="Z271" s="8"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A272" s="8"/>
       <c r="B272" s="15"/>
       <c r="C272" s="8"/>
@@ -8348,7 +8375,7 @@
       <c r="Y272" s="8"/>
       <c r="Z272" s="8"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A273" s="8"/>
       <c r="B273" s="15"/>
       <c r="C273" s="8"/>
@@ -8376,7 +8403,7 @@
       <c r="Y273" s="8"/>
       <c r="Z273" s="8"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A274" s="8"/>
       <c r="B274" s="15"/>
       <c r="C274" s="8"/>
@@ -8404,7 +8431,7 @@
       <c r="Y274" s="8"/>
       <c r="Z274" s="8"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A275" s="8"/>
       <c r="B275" s="15"/>
       <c r="C275" s="8"/>
@@ -8432,7 +8459,7 @@
       <c r="Y275" s="8"/>
       <c r="Z275" s="8"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A276" s="8"/>
       <c r="B276" s="15"/>
       <c r="C276" s="8"/>
@@ -8460,7 +8487,7 @@
       <c r="Y276" s="8"/>
       <c r="Z276" s="8"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A277" s="8"/>
       <c r="B277" s="15"/>
       <c r="C277" s="8"/>
@@ -8488,7 +8515,7 @@
       <c r="Y277" s="8"/>
       <c r="Z277" s="8"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A278" s="8"/>
       <c r="B278" s="15"/>
       <c r="C278" s="8"/>
@@ -8516,7 +8543,7 @@
       <c r="Y278" s="8"/>
       <c r="Z278" s="8"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A279" s="8"/>
       <c r="B279" s="15"/>
       <c r="C279" s="8"/>
@@ -8544,7 +8571,7 @@
       <c r="Y279" s="8"/>
       <c r="Z279" s="8"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A280" s="8"/>
       <c r="B280" s="15"/>
       <c r="C280" s="8"/>
@@ -8572,7 +8599,7 @@
       <c r="Y280" s="8"/>
       <c r="Z280" s="8"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A281" s="8"/>
       <c r="B281" s="15"/>
       <c r="C281" s="8"/>
@@ -8600,7 +8627,7 @@
       <c r="Y281" s="8"/>
       <c r="Z281" s="8"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A282" s="8"/>
       <c r="B282" s="15"/>
       <c r="C282" s="8"/>
@@ -8628,7 +8655,7 @@
       <c r="Y282" s="8"/>
       <c r="Z282" s="8"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A283" s="8"/>
       <c r="B283" s="15"/>
       <c r="C283" s="8"/>
@@ -8656,7 +8683,7 @@
       <c r="Y283" s="8"/>
       <c r="Z283" s="8"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A284" s="8"/>
       <c r="B284" s="15"/>
       <c r="C284" s="8"/>
@@ -8684,7 +8711,7 @@
       <c r="Y284" s="8"/>
       <c r="Z284" s="8"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A285" s="8"/>
       <c r="B285" s="15"/>
       <c r="C285" s="8"/>
@@ -8712,7 +8739,7 @@
       <c r="Y285" s="8"/>
       <c r="Z285" s="8"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A286" s="8"/>
       <c r="B286" s="15"/>
       <c r="C286" s="8"/>
@@ -8740,7 +8767,7 @@
       <c r="Y286" s="8"/>
       <c r="Z286" s="8"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A287" s="8"/>
       <c r="B287" s="15"/>
       <c r="C287" s="8"/>
@@ -8768,7 +8795,7 @@
       <c r="Y287" s="8"/>
       <c r="Z287" s="8"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A288" s="8"/>
       <c r="B288" s="15"/>
       <c r="C288" s="8"/>
@@ -8796,7 +8823,7 @@
       <c r="Y288" s="8"/>
       <c r="Z288" s="8"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A289" s="8"/>
       <c r="B289" s="15"/>
       <c r="C289" s="8"/>
@@ -8824,7 +8851,7 @@
       <c r="Y289" s="8"/>
       <c r="Z289" s="8"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A290" s="8"/>
       <c r="B290" s="15"/>
       <c r="C290" s="8"/>
@@ -8852,7 +8879,7 @@
       <c r="Y290" s="8"/>
       <c r="Z290" s="8"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A291" s="8"/>
       <c r="B291" s="15"/>
       <c r="C291" s="8"/>
@@ -8880,7 +8907,7 @@
       <c r="Y291" s="8"/>
       <c r="Z291" s="8"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A292" s="8"/>
       <c r="B292" s="15"/>
       <c r="C292" s="8"/>
@@ -8908,7 +8935,7 @@
       <c r="Y292" s="8"/>
       <c r="Z292" s="8"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A293" s="8"/>
       <c r="B293" s="15"/>
       <c r="C293" s="8"/>
@@ -8936,7 +8963,7 @@
       <c r="Y293" s="8"/>
       <c r="Z293" s="8"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A294" s="8"/>
       <c r="B294" s="15"/>
       <c r="C294" s="8"/>
@@ -8964,7 +8991,7 @@
       <c r="Y294" s="8"/>
       <c r="Z294" s="8"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A295" s="8"/>
       <c r="B295" s="15"/>
       <c r="C295" s="8"/>
@@ -8992,7 +9019,7 @@
       <c r="Y295" s="8"/>
       <c r="Z295" s="8"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A296" s="8"/>
       <c r="B296" s="15"/>
       <c r="C296" s="8"/>
@@ -9020,7 +9047,7 @@
       <c r="Y296" s="8"/>
       <c r="Z296" s="8"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A297" s="8"/>
       <c r="B297" s="15"/>
       <c r="C297" s="8"/>
@@ -9048,7 +9075,7 @@
       <c r="Y297" s="8"/>
       <c r="Z297" s="8"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A298" s="8"/>
       <c r="B298" s="15"/>
       <c r="C298" s="8"/>
@@ -9076,7 +9103,7 @@
       <c r="Y298" s="8"/>
       <c r="Z298" s="8"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A299" s="8"/>
       <c r="B299" s="15"/>
       <c r="C299" s="8"/>
@@ -9104,7 +9131,7 @@
       <c r="Y299" s="8"/>
       <c r="Z299" s="8"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A300" s="8"/>
       <c r="B300" s="15"/>
       <c r="C300" s="8"/>
@@ -9132,7 +9159,7 @@
       <c r="Y300" s="8"/>
       <c r="Z300" s="8"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A301" s="8"/>
       <c r="B301" s="15"/>
       <c r="C301" s="8"/>
@@ -9160,7 +9187,7 @@
       <c r="Y301" s="8"/>
       <c r="Z301" s="8"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A302" s="8"/>
       <c r="B302" s="15"/>
       <c r="C302" s="8"/>
@@ -9188,7 +9215,7 @@
       <c r="Y302" s="8"/>
       <c r="Z302" s="8"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A303" s="8"/>
       <c r="B303" s="15"/>
       <c r="C303" s="8"/>
@@ -9216,7 +9243,7 @@
       <c r="Y303" s="8"/>
       <c r="Z303" s="8"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A304" s="8"/>
       <c r="B304" s="15"/>
       <c r="C304" s="8"/>
@@ -9244,7 +9271,7 @@
       <c r="Y304" s="8"/>
       <c r="Z304" s="8"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A305" s="8"/>
       <c r="B305" s="15"/>
       <c r="C305" s="8"/>
@@ -9272,7 +9299,7 @@
       <c r="Y305" s="8"/>
       <c r="Z305" s="8"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A306" s="8"/>
       <c r="B306" s="15"/>
       <c r="C306" s="8"/>
@@ -9300,7 +9327,7 @@
       <c r="Y306" s="8"/>
       <c r="Z306" s="8"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A307" s="8"/>
       <c r="B307" s="15"/>
       <c r="C307" s="8"/>
@@ -9328,7 +9355,7 @@
       <c r="Y307" s="8"/>
       <c r="Z307" s="8"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A308" s="8"/>
       <c r="B308" s="15"/>
       <c r="C308" s="8"/>
@@ -9356,7 +9383,7 @@
       <c r="Y308" s="8"/>
       <c r="Z308" s="8"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A309" s="8"/>
       <c r="B309" s="15"/>
       <c r="C309" s="8"/>
@@ -9384,7 +9411,7 @@
       <c r="Y309" s="8"/>
       <c r="Z309" s="8"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A310" s="8"/>
       <c r="B310" s="15"/>
       <c r="C310" s="8"/>
@@ -9412,7 +9439,7 @@
       <c r="Y310" s="8"/>
       <c r="Z310" s="8"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A311" s="8"/>
       <c r="B311" s="15"/>
       <c r="C311" s="8"/>
@@ -9440,7 +9467,7 @@
       <c r="Y311" s="8"/>
       <c r="Z311" s="8"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A312" s="8"/>
       <c r="B312" s="15"/>
       <c r="C312" s="8"/>
@@ -9468,7 +9495,7 @@
       <c r="Y312" s="8"/>
       <c r="Z312" s="8"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A313" s="8"/>
       <c r="B313" s="15"/>
       <c r="C313" s="8"/>
@@ -9496,7 +9523,7 @@
       <c r="Y313" s="8"/>
       <c r="Z313" s="8"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A314" s="8"/>
       <c r="B314" s="15"/>
       <c r="C314" s="8"/>
@@ -9524,7 +9551,7 @@
       <c r="Y314" s="8"/>
       <c r="Z314" s="8"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A315" s="8"/>
       <c r="B315" s="15"/>
       <c r="C315" s="8"/>
@@ -9552,7 +9579,7 @@
       <c r="Y315" s="8"/>
       <c r="Z315" s="8"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A316" s="8"/>
       <c r="B316" s="15"/>
       <c r="C316" s="8"/>
@@ -9580,7 +9607,7 @@
       <c r="Y316" s="8"/>
       <c r="Z316" s="8"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A317" s="8"/>
       <c r="B317" s="15"/>
       <c r="C317" s="8"/>
@@ -9608,7 +9635,7 @@
       <c r="Y317" s="8"/>
       <c r="Z317" s="8"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A318" s="8"/>
       <c r="B318" s="15"/>
       <c r="C318" s="8"/>
@@ -9636,7 +9663,7 @@
       <c r="Y318" s="8"/>
       <c r="Z318" s="8"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A319" s="8"/>
       <c r="B319" s="15"/>
       <c r="C319" s="8"/>
@@ -9664,7 +9691,7 @@
       <c r="Y319" s="8"/>
       <c r="Z319" s="8"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A320" s="8"/>
       <c r="B320" s="15"/>
       <c r="C320" s="8"/>
@@ -9692,7 +9719,7 @@
       <c r="Y320" s="8"/>
       <c r="Z320" s="8"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A321" s="8"/>
       <c r="B321" s="15"/>
       <c r="C321" s="8"/>
@@ -9720,7 +9747,7 @@
       <c r="Y321" s="8"/>
       <c r="Z321" s="8"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A322" s="8"/>
       <c r="B322" s="15"/>
       <c r="C322" s="8"/>
@@ -9748,7 +9775,7 @@
       <c r="Y322" s="8"/>
       <c r="Z322" s="8"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A323" s="8"/>
       <c r="B323" s="15"/>
       <c r="C323" s="8"/>
@@ -9776,7 +9803,7 @@
       <c r="Y323" s="8"/>
       <c r="Z323" s="8"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A324" s="8"/>
       <c r="B324" s="15"/>
       <c r="C324" s="8"/>
@@ -9804,7 +9831,7 @@
       <c r="Y324" s="8"/>
       <c r="Z324" s="8"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A325" s="8"/>
       <c r="B325" s="15"/>
       <c r="C325" s="8"/>
@@ -9832,7 +9859,7 @@
       <c r="Y325" s="8"/>
       <c r="Z325" s="8"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A326" s="8"/>
       <c r="B326" s="15"/>
       <c r="C326" s="8"/>
@@ -9860,7 +9887,7 @@
       <c r="Y326" s="8"/>
       <c r="Z326" s="8"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A327" s="8"/>
       <c r="B327" s="15"/>
       <c r="C327" s="8"/>
@@ -9888,7 +9915,7 @@
       <c r="Y327" s="8"/>
       <c r="Z327" s="8"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A328" s="8"/>
       <c r="B328" s="15"/>
       <c r="C328" s="8"/>
@@ -9916,7 +9943,7 @@
       <c r="Y328" s="8"/>
       <c r="Z328" s="8"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A329" s="8"/>
       <c r="B329" s="15"/>
       <c r="C329" s="8"/>
@@ -9944,7 +9971,7 @@
       <c r="Y329" s="8"/>
       <c r="Z329" s="8"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A330" s="8"/>
       <c r="B330" s="15"/>
       <c r="C330" s="8"/>
@@ -9972,7 +9999,7 @@
       <c r="Y330" s="8"/>
       <c r="Z330" s="8"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A331" s="8"/>
       <c r="B331" s="15"/>
       <c r="C331" s="8"/>
@@ -10000,7 +10027,7 @@
       <c r="Y331" s="8"/>
       <c r="Z331" s="8"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A332" s="8"/>
       <c r="B332" s="15"/>
       <c r="C332" s="8"/>
@@ -10028,7 +10055,7 @@
       <c r="Y332" s="8"/>
       <c r="Z332" s="8"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A333" s="8"/>
       <c r="B333" s="15"/>
       <c r="C333" s="8"/>
@@ -10056,7 +10083,7 @@
       <c r="Y333" s="8"/>
       <c r="Z333" s="8"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A334" s="8"/>
       <c r="B334" s="15"/>
       <c r="C334" s="8"/>
@@ -10084,7 +10111,7 @@
       <c r="Y334" s="8"/>
       <c r="Z334" s="8"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A335" s="8"/>
       <c r="B335" s="15"/>
       <c r="C335" s="8"/>
@@ -10112,7 +10139,7 @@
       <c r="Y335" s="8"/>
       <c r="Z335" s="8"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A336" s="8"/>
       <c r="B336" s="15"/>
       <c r="C336" s="8"/>
@@ -10140,7 +10167,7 @@
       <c r="Y336" s="8"/>
       <c r="Z336" s="8"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A337" s="8"/>
       <c r="B337" s="15"/>
       <c r="C337" s="8"/>
@@ -10168,7 +10195,7 @@
       <c r="Y337" s="8"/>
       <c r="Z337" s="8"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A338" s="8"/>
       <c r="B338" s="15"/>
       <c r="C338" s="8"/>
@@ -10196,7 +10223,7 @@
       <c r="Y338" s="8"/>
       <c r="Z338" s="8"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A339" s="8"/>
       <c r="B339" s="15"/>
       <c r="C339" s="8"/>
@@ -10224,7 +10251,7 @@
       <c r="Y339" s="8"/>
       <c r="Z339" s="8"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A340" s="8"/>
       <c r="B340" s="15"/>
       <c r="C340" s="8"/>
@@ -10252,7 +10279,7 @@
       <c r="Y340" s="8"/>
       <c r="Z340" s="8"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A341" s="8"/>
       <c r="B341" s="15"/>
       <c r="C341" s="8"/>
@@ -10280,7 +10307,7 @@
       <c r="Y341" s="8"/>
       <c r="Z341" s="8"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A342" s="8"/>
       <c r="B342" s="15"/>
       <c r="C342" s="8"/>
@@ -10308,7 +10335,7 @@
       <c r="Y342" s="8"/>
       <c r="Z342" s="8"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A343" s="8"/>
       <c r="B343" s="15"/>
       <c r="C343" s="8"/>
@@ -10336,7 +10363,7 @@
       <c r="Y343" s="8"/>
       <c r="Z343" s="8"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A344" s="8"/>
       <c r="B344" s="15"/>
       <c r="C344" s="8"/>
@@ -10364,7 +10391,7 @@
       <c r="Y344" s="8"/>
       <c r="Z344" s="8"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A345" s="8"/>
       <c r="B345" s="15"/>
       <c r="C345" s="8"/>
@@ -10392,7 +10419,7 @@
       <c r="Y345" s="8"/>
       <c r="Z345" s="8"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A346" s="8"/>
       <c r="B346" s="15"/>
       <c r="C346" s="8"/>
@@ -10420,7 +10447,7 @@
       <c r="Y346" s="8"/>
       <c r="Z346" s="8"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A347" s="8"/>
       <c r="B347" s="15"/>
       <c r="C347" s="8"/>
@@ -10448,7 +10475,7 @@
       <c r="Y347" s="8"/>
       <c r="Z347" s="8"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A348" s="8"/>
       <c r="B348" s="15"/>
       <c r="C348" s="8"/>
@@ -10476,7 +10503,7 @@
       <c r="Y348" s="8"/>
       <c r="Z348" s="8"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A349" s="8"/>
       <c r="B349" s="15"/>
       <c r="C349" s="8"/>
@@ -10504,7 +10531,7 @@
       <c r="Y349" s="8"/>
       <c r="Z349" s="8"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A350" s="8"/>
       <c r="B350" s="15"/>
       <c r="C350" s="8"/>
@@ -10532,7 +10559,7 @@
       <c r="Y350" s="8"/>
       <c r="Z350" s="8"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A351" s="8"/>
       <c r="B351" s="15"/>
       <c r="C351" s="8"/>
@@ -10560,7 +10587,7 @@
       <c r="Y351" s="8"/>
       <c r="Z351" s="8"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A352" s="8"/>
       <c r="B352" s="15"/>
       <c r="C352" s="8"/>
@@ -10588,7 +10615,7 @@
       <c r="Y352" s="8"/>
       <c r="Z352" s="8"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A353" s="8"/>
       <c r="B353" s="15"/>
       <c r="C353" s="8"/>
@@ -10616,7 +10643,7 @@
       <c r="Y353" s="8"/>
       <c r="Z353" s="8"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A354" s="8"/>
       <c r="B354" s="15"/>
       <c r="C354" s="8"/>
@@ -10644,7 +10671,7 @@
       <c r="Y354" s="8"/>
       <c r="Z354" s="8"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A355" s="8"/>
       <c r="B355" s="15"/>
       <c r="C355" s="8"/>
@@ -10672,7 +10699,7 @@
       <c r="Y355" s="8"/>
       <c r="Z355" s="8"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A356" s="8"/>
       <c r="B356" s="15"/>
       <c r="C356" s="8"/>
@@ -10700,7 +10727,7 @@
       <c r="Y356" s="8"/>
       <c r="Z356" s="8"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A357" s="8"/>
       <c r="B357" s="15"/>
       <c r="C357" s="8"/>
@@ -10728,7 +10755,7 @@
       <c r="Y357" s="8"/>
       <c r="Z357" s="8"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A358" s="8"/>
       <c r="B358" s="15"/>
       <c r="C358" s="8"/>
@@ -10756,7 +10783,7 @@
       <c r="Y358" s="8"/>
       <c r="Z358" s="8"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A359" s="8"/>
       <c r="B359" s="15"/>
       <c r="C359" s="8"/>
@@ -10784,7 +10811,7 @@
       <c r="Y359" s="8"/>
       <c r="Z359" s="8"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A360" s="8"/>
       <c r="B360" s="15"/>
       <c r="C360" s="8"/>
@@ -10812,7 +10839,7 @@
       <c r="Y360" s="8"/>
       <c r="Z360" s="8"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A361" s="8"/>
       <c r="B361" s="15"/>
       <c r="C361" s="8"/>
@@ -10840,7 +10867,7 @@
       <c r="Y361" s="8"/>
       <c r="Z361" s="8"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A362" s="8"/>
       <c r="B362" s="15"/>
       <c r="C362" s="8"/>
@@ -10868,7 +10895,7 @@
       <c r="Y362" s="8"/>
       <c r="Z362" s="8"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A363" s="8"/>
       <c r="B363" s="15"/>
       <c r="C363" s="8"/>
@@ -10896,7 +10923,7 @@
       <c r="Y363" s="8"/>
       <c r="Z363" s="8"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A364" s="8"/>
       <c r="B364" s="15"/>
       <c r="C364" s="8"/>
@@ -10924,7 +10951,7 @@
       <c r="Y364" s="8"/>
       <c r="Z364" s="8"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A365" s="8"/>
       <c r="B365" s="15"/>
       <c r="C365" s="8"/>
@@ -10952,7 +10979,7 @@
       <c r="Y365" s="8"/>
       <c r="Z365" s="8"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A366" s="8"/>
       <c r="B366" s="15"/>
       <c r="C366" s="8"/>
@@ -10980,7 +11007,7 @@
       <c r="Y366" s="8"/>
       <c r="Z366" s="8"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A367" s="8"/>
       <c r="B367" s="15"/>
       <c r="C367" s="8"/>
@@ -11008,7 +11035,7 @@
       <c r="Y367" s="8"/>
       <c r="Z367" s="8"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A368" s="8"/>
       <c r="B368" s="15"/>
       <c r="C368" s="8"/>
@@ -11036,7 +11063,7 @@
       <c r="Y368" s="8"/>
       <c r="Z368" s="8"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A369" s="8"/>
       <c r="B369" s="15"/>
       <c r="C369" s="8"/>
@@ -11064,7 +11091,7 @@
       <c r="Y369" s="8"/>
       <c r="Z369" s="8"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A370" s="8"/>
       <c r="B370" s="15"/>
       <c r="C370" s="8"/>
@@ -11092,7 +11119,7 @@
       <c r="Y370" s="8"/>
       <c r="Z370" s="8"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A371" s="8"/>
       <c r="B371" s="15"/>
       <c r="C371" s="8"/>
@@ -11120,7 +11147,7 @@
       <c r="Y371" s="8"/>
       <c r="Z371" s="8"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A372" s="8"/>
       <c r="B372" s="15"/>
       <c r="C372" s="8"/>
@@ -11148,7 +11175,7 @@
       <c r="Y372" s="8"/>
       <c r="Z372" s="8"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A373" s="8"/>
       <c r="B373" s="15"/>
       <c r="C373" s="8"/>
@@ -11176,7 +11203,7 @@
       <c r="Y373" s="8"/>
       <c r="Z373" s="8"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A374" s="8"/>
       <c r="B374" s="15"/>
       <c r="C374" s="8"/>
@@ -11204,7 +11231,7 @@
       <c r="Y374" s="8"/>
       <c r="Z374" s="8"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A375" s="8"/>
       <c r="B375" s="15"/>
       <c r="C375" s="8"/>
@@ -11232,7 +11259,7 @@
       <c r="Y375" s="8"/>
       <c r="Z375" s="8"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A376" s="8"/>
       <c r="B376" s="15"/>
       <c r="C376" s="8"/>
@@ -11260,7 +11287,7 @@
       <c r="Y376" s="8"/>
       <c r="Z376" s="8"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A377" s="8"/>
       <c r="B377" s="15"/>
       <c r="C377" s="8"/>
@@ -11288,7 +11315,7 @@
       <c r="Y377" s="8"/>
       <c r="Z377" s="8"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A378" s="8"/>
       <c r="B378" s="15"/>
       <c r="C378" s="8"/>
@@ -11316,7 +11343,7 @@
       <c r="Y378" s="8"/>
       <c r="Z378" s="8"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A379" s="8"/>
       <c r="B379" s="15"/>
       <c r="C379" s="8"/>
@@ -11344,7 +11371,7 @@
       <c r="Y379" s="8"/>
       <c r="Z379" s="8"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A380" s="8"/>
       <c r="B380" s="15"/>
       <c r="C380" s="8"/>
@@ -11372,7 +11399,7 @@
       <c r="Y380" s="8"/>
       <c r="Z380" s="8"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A381" s="8"/>
       <c r="B381" s="15"/>
       <c r="C381" s="8"/>
@@ -11400,7 +11427,7 @@
       <c r="Y381" s="8"/>
       <c r="Z381" s="8"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A382" s="8"/>
       <c r="B382" s="15"/>
       <c r="C382" s="8"/>
@@ -11428,7 +11455,7 @@
       <c r="Y382" s="8"/>
       <c r="Z382" s="8"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A383" s="8"/>
       <c r="B383" s="15"/>
       <c r="C383" s="8"/>
@@ -11456,7 +11483,7 @@
       <c r="Y383" s="8"/>
       <c r="Z383" s="8"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A384" s="8"/>
       <c r="B384" s="15"/>
       <c r="C384" s="8"/>
@@ -11484,7 +11511,7 @@
       <c r="Y384" s="8"/>
       <c r="Z384" s="8"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A385" s="8"/>
       <c r="B385" s="15"/>
       <c r="C385" s="8"/>
@@ -11512,7 +11539,7 @@
       <c r="Y385" s="8"/>
       <c r="Z385" s="8"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A386" s="8"/>
       <c r="B386" s="15"/>
       <c r="C386" s="8"/>
@@ -11540,7 +11567,7 @@
       <c r="Y386" s="8"/>
       <c r="Z386" s="8"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A387" s="8"/>
       <c r="B387" s="15"/>
       <c r="C387" s="8"/>
@@ -11568,7 +11595,7 @@
       <c r="Y387" s="8"/>
       <c r="Z387" s="8"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A388" s="8"/>
       <c r="B388" s="15"/>
       <c r="C388" s="8"/>
@@ -11596,7 +11623,7 @@
       <c r="Y388" s="8"/>
       <c r="Z388" s="8"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A389" s="8"/>
       <c r="B389" s="15"/>
       <c r="C389" s="8"/>
@@ -11624,7 +11651,7 @@
       <c r="Y389" s="8"/>
       <c r="Z389" s="8"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A390" s="8"/>
       <c r="B390" s="15"/>
       <c r="C390" s="8"/>
@@ -11652,7 +11679,7 @@
       <c r="Y390" s="8"/>
       <c r="Z390" s="8"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A391" s="8"/>
       <c r="B391" s="15"/>
       <c r="C391" s="8"/>
@@ -11680,7 +11707,7 @@
       <c r="Y391" s="8"/>
       <c r="Z391" s="8"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A392" s="8"/>
       <c r="B392" s="15"/>
       <c r="C392" s="8"/>
@@ -11708,7 +11735,7 @@
       <c r="Y392" s="8"/>
       <c r="Z392" s="8"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A393" s="8"/>
       <c r="B393" s="15"/>
       <c r="C393" s="8"/>
@@ -11736,7 +11763,7 @@
       <c r="Y393" s="8"/>
       <c r="Z393" s="8"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A394" s="8"/>
       <c r="B394" s="15"/>
       <c r="C394" s="8"/>
@@ -11764,7 +11791,7 @@
       <c r="Y394" s="8"/>
       <c r="Z394" s="8"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A395" s="8"/>
       <c r="B395" s="15"/>
       <c r="C395" s="8"/>
@@ -11792,7 +11819,7 @@
       <c r="Y395" s="8"/>
       <c r="Z395" s="8"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A396" s="8"/>
       <c r="B396" s="15"/>
       <c r="C396" s="8"/>
@@ -11820,7 +11847,7 @@
       <c r="Y396" s="8"/>
       <c r="Z396" s="8"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A397" s="8"/>
       <c r="B397" s="15"/>
       <c r="C397" s="8"/>
@@ -11848,7 +11875,7 @@
       <c r="Y397" s="8"/>
       <c r="Z397" s="8"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A398" s="8"/>
       <c r="B398" s="15"/>
       <c r="C398" s="8"/>
@@ -11876,7 +11903,7 @@
       <c r="Y398" s="8"/>
       <c r="Z398" s="8"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A399" s="8"/>
       <c r="B399" s="15"/>
       <c r="C399" s="8"/>
@@ -11904,7 +11931,7 @@
       <c r="Y399" s="8"/>
       <c r="Z399" s="8"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A400" s="8"/>
       <c r="B400" s="15"/>
       <c r="C400" s="8"/>
@@ -11932,7 +11959,7 @@
       <c r="Y400" s="8"/>
       <c r="Z400" s="8"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A401" s="8"/>
       <c r="B401" s="15"/>
       <c r="C401" s="8"/>
@@ -11960,7 +11987,7 @@
       <c r="Y401" s="8"/>
       <c r="Z401" s="8"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A402" s="8"/>
       <c r="B402" s="15"/>
       <c r="C402" s="8"/>
@@ -11988,7 +12015,7 @@
       <c r="Y402" s="8"/>
       <c r="Z402" s="8"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A403" s="8"/>
       <c r="B403" s="15"/>
       <c r="C403" s="8"/>
@@ -12016,7 +12043,7 @@
       <c r="Y403" s="8"/>
       <c r="Z403" s="8"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A404" s="8"/>
       <c r="B404" s="15"/>
       <c r="C404" s="8"/>
@@ -12044,7 +12071,7 @@
       <c r="Y404" s="8"/>
       <c r="Z404" s="8"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A405" s="8"/>
       <c r="B405" s="15"/>
       <c r="C405" s="8"/>
@@ -12072,7 +12099,7 @@
       <c r="Y405" s="8"/>
       <c r="Z405" s="8"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A406" s="8"/>
       <c r="B406" s="15"/>
       <c r="C406" s="8"/>
@@ -12100,7 +12127,7 @@
       <c r="Y406" s="8"/>
       <c r="Z406" s="8"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A407" s="8"/>
       <c r="B407" s="15"/>
       <c r="C407" s="8"/>
@@ -12128,7 +12155,7 @@
       <c r="Y407" s="8"/>
       <c r="Z407" s="8"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A408" s="8"/>
       <c r="B408" s="15"/>
       <c r="C408" s="8"/>
@@ -12156,7 +12183,7 @@
       <c r="Y408" s="8"/>
       <c r="Z408" s="8"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A409" s="8"/>
       <c r="B409" s="15"/>
       <c r="C409" s="8"/>
@@ -12184,7 +12211,7 @@
       <c r="Y409" s="8"/>
       <c r="Z409" s="8"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A410" s="8"/>
       <c r="B410" s="15"/>
       <c r="C410" s="8"/>
@@ -12212,7 +12239,7 @@
       <c r="Y410" s="8"/>
       <c r="Z410" s="8"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A411" s="8"/>
       <c r="B411" s="15"/>
       <c r="C411" s="8"/>
@@ -12240,7 +12267,7 @@
       <c r="Y411" s="8"/>
       <c r="Z411" s="8"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A412" s="8"/>
       <c r="B412" s="15"/>
       <c r="C412" s="8"/>
@@ -12268,7 +12295,7 @@
       <c r="Y412" s="8"/>
       <c r="Z412" s="8"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A413" s="8"/>
       <c r="B413" s="15"/>
       <c r="C413" s="8"/>
@@ -12296,7 +12323,7 @@
       <c r="Y413" s="8"/>
       <c r="Z413" s="8"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A414" s="8"/>
       <c r="B414" s="15"/>
       <c r="C414" s="8"/>
@@ -12324,7 +12351,7 @@
       <c r="Y414" s="8"/>
       <c r="Z414" s="8"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A415" s="8"/>
       <c r="B415" s="15"/>
       <c r="C415" s="8"/>
@@ -12352,7 +12379,7 @@
       <c r="Y415" s="8"/>
       <c r="Z415" s="8"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A416" s="8"/>
       <c r="B416" s="15"/>
       <c r="C416" s="8"/>
@@ -12380,7 +12407,7 @@
       <c r="Y416" s="8"/>
       <c r="Z416" s="8"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A417" s="8"/>
       <c r="B417" s="15"/>
       <c r="C417" s="8"/>
@@ -12408,7 +12435,7 @@
       <c r="Y417" s="8"/>
       <c r="Z417" s="8"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A418" s="8"/>
       <c r="B418" s="15"/>
       <c r="C418" s="8"/>
@@ -12436,7 +12463,7 @@
       <c r="Y418" s="8"/>
       <c r="Z418" s="8"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A419" s="8"/>
       <c r="B419" s="15"/>
       <c r="C419" s="8"/>
@@ -12464,7 +12491,7 @@
       <c r="Y419" s="8"/>
       <c r="Z419" s="8"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A420" s="8"/>
       <c r="B420" s="15"/>
       <c r="C420" s="8"/>
@@ -12492,7 +12519,7 @@
       <c r="Y420" s="8"/>
       <c r="Z420" s="8"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A421" s="8"/>
       <c r="B421" s="15"/>
       <c r="C421" s="8"/>
@@ -12520,7 +12547,7 @@
       <c r="Y421" s="8"/>
       <c r="Z421" s="8"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A422" s="8"/>
       <c r="B422" s="15"/>
       <c r="C422" s="8"/>
@@ -12548,7 +12575,7 @@
       <c r="Y422" s="8"/>
       <c r="Z422" s="8"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A423" s="8"/>
       <c r="B423" s="15"/>
       <c r="C423" s="8"/>
@@ -12576,7 +12603,7 @@
       <c r="Y423" s="8"/>
       <c r="Z423" s="8"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A424" s="8"/>
       <c r="B424" s="15"/>
       <c r="C424" s="8"/>
@@ -12604,7 +12631,7 @@
       <c r="Y424" s="8"/>
       <c r="Z424" s="8"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A425" s="8"/>
       <c r="B425" s="15"/>
       <c r="C425" s="8"/>
@@ -12632,7 +12659,7 @@
       <c r="Y425" s="8"/>
       <c r="Z425" s="8"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A426" s="8"/>
       <c r="B426" s="15"/>
       <c r="C426" s="8"/>
@@ -12660,7 +12687,7 @@
       <c r="Y426" s="8"/>
       <c r="Z426" s="8"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A427" s="8"/>
       <c r="B427" s="15"/>
       <c r="C427" s="8"/>
@@ -12688,7 +12715,7 @@
       <c r="Y427" s="8"/>
       <c r="Z427" s="8"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A428" s="8"/>
       <c r="B428" s="15"/>
       <c r="C428" s="8"/>
@@ -12716,7 +12743,7 @@
       <c r="Y428" s="8"/>
       <c r="Z428" s="8"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A429" s="8"/>
       <c r="B429" s="15"/>
       <c r="C429" s="8"/>
@@ -12744,7 +12771,7 @@
       <c r="Y429" s="8"/>
       <c r="Z429" s="8"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A430" s="8"/>
       <c r="B430" s="15"/>
       <c r="C430" s="8"/>
@@ -12772,7 +12799,7 @@
       <c r="Y430" s="8"/>
       <c r="Z430" s="8"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A431" s="8"/>
       <c r="B431" s="15"/>
       <c r="C431" s="8"/>
@@ -12800,7 +12827,7 @@
       <c r="Y431" s="8"/>
       <c r="Z431" s="8"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A432" s="8"/>
       <c r="B432" s="15"/>
       <c r="C432" s="8"/>
@@ -12828,7 +12855,7 @@
       <c r="Y432" s="8"/>
       <c r="Z432" s="8"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A433" s="8"/>
       <c r="B433" s="15"/>
       <c r="C433" s="8"/>
@@ -12856,7 +12883,7 @@
       <c r="Y433" s="8"/>
       <c r="Z433" s="8"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A434" s="8"/>
       <c r="B434" s="15"/>
       <c r="C434" s="8"/>
@@ -12884,7 +12911,7 @@
       <c r="Y434" s="8"/>
       <c r="Z434" s="8"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A435" s="8"/>
       <c r="B435" s="15"/>
       <c r="C435" s="8"/>
@@ -12912,7 +12939,7 @@
       <c r="Y435" s="8"/>
       <c r="Z435" s="8"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A436" s="8"/>
       <c r="B436" s="15"/>
       <c r="C436" s="8"/>
@@ -12940,7 +12967,7 @@
       <c r="Y436" s="8"/>
       <c r="Z436" s="8"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A437" s="8"/>
       <c r="B437" s="15"/>
       <c r="C437" s="8"/>
@@ -12968,7 +12995,7 @@
       <c r="Y437" s="8"/>
       <c r="Z437" s="8"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A438" s="8"/>
       <c r="B438" s="15"/>
       <c r="C438" s="8"/>
@@ -12996,7 +13023,7 @@
       <c r="Y438" s="8"/>
       <c r="Z438" s="8"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A439" s="8"/>
       <c r="B439" s="15"/>
       <c r="C439" s="8"/>
@@ -13024,7 +13051,7 @@
       <c r="Y439" s="8"/>
       <c r="Z439" s="8"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A440" s="8"/>
       <c r="B440" s="15"/>
       <c r="C440" s="8"/>
@@ -13052,7 +13079,7 @@
       <c r="Y440" s="8"/>
       <c r="Z440" s="8"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A441" s="8"/>
       <c r="B441" s="15"/>
       <c r="C441" s="8"/>
@@ -13080,7 +13107,7 @@
       <c r="Y441" s="8"/>
       <c r="Z441" s="8"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A442" s="8"/>
       <c r="B442" s="15"/>
       <c r="C442" s="8"/>
@@ -13108,7 +13135,7 @@
       <c r="Y442" s="8"/>
       <c r="Z442" s="8"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A443" s="8"/>
       <c r="B443" s="15"/>
       <c r="C443" s="8"/>
@@ -13136,7 +13163,7 @@
       <c r="Y443" s="8"/>
       <c r="Z443" s="8"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A444" s="8"/>
       <c r="B444" s="15"/>
       <c r="C444" s="8"/>
@@ -13164,7 +13191,7 @@
       <c r="Y444" s="8"/>
       <c r="Z444" s="8"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A445" s="8"/>
       <c r="B445" s="15"/>
       <c r="C445" s="8"/>
@@ -13192,7 +13219,7 @@
       <c r="Y445" s="8"/>
       <c r="Z445" s="8"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A446" s="8"/>
       <c r="B446" s="15"/>
       <c r="C446" s="8"/>
@@ -13220,7 +13247,7 @@
       <c r="Y446" s="8"/>
       <c r="Z446" s="8"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A447" s="8"/>
       <c r="B447" s="15"/>
       <c r="C447" s="8"/>
@@ -13248,7 +13275,7 @@
       <c r="Y447" s="8"/>
       <c r="Z447" s="8"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A448" s="8"/>
       <c r="B448" s="15"/>
       <c r="C448" s="8"/>
@@ -13276,7 +13303,7 @@
       <c r="Y448" s="8"/>
       <c r="Z448" s="8"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A449" s="8"/>
       <c r="B449" s="15"/>
       <c r="C449" s="8"/>
@@ -13304,7 +13331,7 @@
       <c r="Y449" s="8"/>
       <c r="Z449" s="8"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A450" s="8"/>
       <c r="B450" s="15"/>
       <c r="C450" s="8"/>
@@ -13332,7 +13359,7 @@
       <c r="Y450" s="8"/>
       <c r="Z450" s="8"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A451" s="8"/>
       <c r="B451" s="15"/>
       <c r="C451" s="8"/>
@@ -13360,7 +13387,7 @@
       <c r="Y451" s="8"/>
       <c r="Z451" s="8"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A452" s="8"/>
       <c r="B452" s="15"/>
       <c r="C452" s="8"/>
@@ -13388,7 +13415,7 @@
       <c r="Y452" s="8"/>
       <c r="Z452" s="8"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A453" s="8"/>
       <c r="B453" s="15"/>
       <c r="C453" s="8"/>
@@ -13416,7 +13443,7 @@
       <c r="Y453" s="8"/>
       <c r="Z453" s="8"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A454" s="8"/>
       <c r="B454" s="15"/>
       <c r="C454" s="8"/>
@@ -13444,7 +13471,7 @@
       <c r="Y454" s="8"/>
       <c r="Z454" s="8"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A455" s="8"/>
       <c r="B455" s="15"/>
       <c r="C455" s="8"/>
@@ -13472,7 +13499,7 @@
       <c r="Y455" s="8"/>
       <c r="Z455" s="8"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A456" s="8"/>
       <c r="B456" s="15"/>
       <c r="C456" s="8"/>
@@ -13500,7 +13527,7 @@
       <c r="Y456" s="8"/>
       <c r="Z456" s="8"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A457" s="8"/>
       <c r="B457" s="15"/>
       <c r="C457" s="8"/>
@@ -13528,7 +13555,7 @@
       <c r="Y457" s="8"/>
       <c r="Z457" s="8"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A458" s="8"/>
       <c r="B458" s="15"/>
       <c r="C458" s="8"/>
@@ -13556,7 +13583,7 @@
       <c r="Y458" s="8"/>
       <c r="Z458" s="8"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A459" s="8"/>
       <c r="B459" s="15"/>
       <c r="C459" s="8"/>
@@ -13584,7 +13611,7 @@
       <c r="Y459" s="8"/>
       <c r="Z459" s="8"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A460" s="8"/>
       <c r="B460" s="15"/>
       <c r="C460" s="8"/>
@@ -13612,7 +13639,7 @@
       <c r="Y460" s="8"/>
       <c r="Z460" s="8"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A461" s="8"/>
       <c r="B461" s="15"/>
       <c r="C461" s="8"/>
@@ -13640,7 +13667,7 @@
       <c r="Y461" s="8"/>
       <c r="Z461" s="8"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A462" s="8"/>
       <c r="B462" s="15"/>
       <c r="C462" s="8"/>
@@ -13668,7 +13695,7 @@
       <c r="Y462" s="8"/>
       <c r="Z462" s="8"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A463" s="8"/>
       <c r="B463" s="15"/>
       <c r="C463" s="8"/>
@@ -13696,7 +13723,7 @@
       <c r="Y463" s="8"/>
       <c r="Z463" s="8"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A464" s="8"/>
       <c r="B464" s="15"/>
       <c r="C464" s="8"/>
@@ -13724,7 +13751,7 @@
       <c r="Y464" s="8"/>
       <c r="Z464" s="8"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A465" s="8"/>
       <c r="B465" s="15"/>
       <c r="C465" s="8"/>
@@ -13752,7 +13779,7 @@
       <c r="Y465" s="8"/>
       <c r="Z465" s="8"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A466" s="8"/>
       <c r="B466" s="15"/>
       <c r="C466" s="8"/>
@@ -13780,7 +13807,7 @@
       <c r="Y466" s="8"/>
       <c r="Z466" s="8"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A467" s="8"/>
       <c r="B467" s="15"/>
       <c r="C467" s="8"/>
@@ -13808,7 +13835,7 @@
       <c r="Y467" s="8"/>
       <c r="Z467" s="8"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A468" s="8"/>
       <c r="B468" s="15"/>
       <c r="C468" s="8"/>
@@ -13836,7 +13863,7 @@
       <c r="Y468" s="8"/>
       <c r="Z468" s="8"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A469" s="8"/>
       <c r="B469" s="15"/>
       <c r="C469" s="8"/>
@@ -13864,7 +13891,7 @@
       <c r="Y469" s="8"/>
       <c r="Z469" s="8"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A470" s="8"/>
       <c r="B470" s="15"/>
       <c r="C470" s="8"/>
@@ -13892,7 +13919,7 @@
       <c r="Y470" s="8"/>
       <c r="Z470" s="8"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A471" s="8"/>
       <c r="B471" s="15"/>
       <c r="C471" s="8"/>
@@ -13920,7 +13947,7 @@
       <c r="Y471" s="8"/>
       <c r="Z471" s="8"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A472" s="8"/>
       <c r="B472" s="15"/>
       <c r="C472" s="8"/>
@@ -13948,7 +13975,7 @@
       <c r="Y472" s="8"/>
       <c r="Z472" s="8"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A473" s="8"/>
       <c r="B473" s="15"/>
       <c r="C473" s="8"/>
@@ -13976,7 +14003,7 @@
       <c r="Y473" s="8"/>
       <c r="Z473" s="8"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A474" s="8"/>
       <c r="B474" s="15"/>
       <c r="C474" s="8"/>
@@ -14004,7 +14031,7 @@
       <c r="Y474" s="8"/>
       <c r="Z474" s="8"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A475" s="8"/>
       <c r="B475" s="15"/>
       <c r="C475" s="8"/>
@@ -14032,7 +14059,7 @@
       <c r="Y475" s="8"/>
       <c r="Z475" s="8"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A476" s="8"/>
       <c r="B476" s="15"/>
       <c r="C476" s="8"/>
@@ -14060,7 +14087,7 @@
       <c r="Y476" s="8"/>
       <c r="Z476" s="8"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A477" s="8"/>
       <c r="B477" s="15"/>
       <c r="C477" s="8"/>
@@ -14088,7 +14115,7 @@
       <c r="Y477" s="8"/>
       <c r="Z477" s="8"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A478" s="8"/>
       <c r="B478" s="15"/>
       <c r="C478" s="8"/>
@@ -14116,7 +14143,7 @@
       <c r="Y478" s="8"/>
       <c r="Z478" s="8"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A479" s="8"/>
       <c r="B479" s="15"/>
       <c r="C479" s="8"/>
@@ -14144,7 +14171,7 @@
       <c r="Y479" s="8"/>
       <c r="Z479" s="8"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A480" s="8"/>
       <c r="B480" s="15"/>
       <c r="C480" s="8"/>
@@ -14172,7 +14199,7 @@
       <c r="Y480" s="8"/>
       <c r="Z480" s="8"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A481" s="8"/>
       <c r="B481" s="15"/>
       <c r="C481" s="8"/>
@@ -14200,7 +14227,7 @@
       <c r="Y481" s="8"/>
       <c r="Z481" s="8"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A482" s="8"/>
       <c r="B482" s="15"/>
       <c r="C482" s="8"/>
@@ -14228,7 +14255,7 @@
       <c r="Y482" s="8"/>
       <c r="Z482" s="8"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A483" s="8"/>
       <c r="B483" s="15"/>
       <c r="C483" s="8"/>
@@ -14256,7 +14283,7 @@
       <c r="Y483" s="8"/>
       <c r="Z483" s="8"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A484" s="8"/>
       <c r="B484" s="15"/>
       <c r="C484" s="8"/>
@@ -14284,7 +14311,7 @@
       <c r="Y484" s="8"/>
       <c r="Z484" s="8"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A485" s="8"/>
       <c r="B485" s="15"/>
       <c r="C485" s="8"/>
@@ -14312,7 +14339,7 @@
       <c r="Y485" s="8"/>
       <c r="Z485" s="8"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A486" s="8"/>
       <c r="B486" s="15"/>
       <c r="C486" s="8"/>
@@ -14340,7 +14367,7 @@
       <c r="Y486" s="8"/>
       <c r="Z486" s="8"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A487" s="8"/>
       <c r="B487" s="15"/>
       <c r="C487" s="8"/>
@@ -14368,7 +14395,7 @@
       <c r="Y487" s="8"/>
       <c r="Z487" s="8"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A488" s="8"/>
       <c r="B488" s="15"/>
       <c r="C488" s="8"/>
@@ -14396,7 +14423,7 @@
       <c r="Y488" s="8"/>
       <c r="Z488" s="8"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A489" s="8"/>
       <c r="B489" s="15"/>
       <c r="C489" s="8"/>
@@ -14424,7 +14451,7 @@
       <c r="Y489" s="8"/>
       <c r="Z489" s="8"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A490" s="8"/>
       <c r="B490" s="15"/>
       <c r="C490" s="8"/>
@@ -14452,7 +14479,7 @@
       <c r="Y490" s="8"/>
       <c r="Z490" s="8"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A491" s="8"/>
       <c r="B491" s="15"/>
       <c r="C491" s="8"/>
@@ -14480,7 +14507,7 @@
       <c r="Y491" s="8"/>
       <c r="Z491" s="8"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A492" s="8"/>
       <c r="B492" s="15"/>
       <c r="C492" s="8"/>
@@ -14508,7 +14535,7 @@
       <c r="Y492" s="8"/>
       <c r="Z492" s="8"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A493" s="8"/>
       <c r="B493" s="15"/>
       <c r="C493" s="8"/>
@@ -14536,7 +14563,7 @@
       <c r="Y493" s="8"/>
       <c r="Z493" s="8"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A494" s="8"/>
       <c r="B494" s="15"/>
       <c r="C494" s="8"/>
@@ -14564,7 +14591,7 @@
       <c r="Y494" s="8"/>
       <c r="Z494" s="8"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A495" s="8"/>
       <c r="B495" s="15"/>
       <c r="C495" s="8"/>
@@ -14592,7 +14619,7 @@
       <c r="Y495" s="8"/>
       <c r="Z495" s="8"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A496" s="8"/>
       <c r="B496" s="15"/>
       <c r="C496" s="8"/>
@@ -14620,7 +14647,7 @@
       <c r="Y496" s="8"/>
       <c r="Z496" s="8"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A497" s="8"/>
       <c r="B497" s="15"/>
       <c r="C497" s="8"/>
@@ -14648,7 +14675,7 @@
       <c r="Y497" s="8"/>
       <c r="Z497" s="8"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A498" s="8"/>
       <c r="B498" s="15"/>
       <c r="C498" s="8"/>
@@ -14676,7 +14703,7 @@
       <c r="Y498" s="8"/>
       <c r="Z498" s="8"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A499" s="8"/>
       <c r="B499" s="15"/>
       <c r="C499" s="8"/>
@@ -14704,7 +14731,7 @@
       <c r="Y499" s="8"/>
       <c r="Z499" s="8"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A500" s="8"/>
       <c r="B500" s="15"/>
       <c r="C500" s="8"/>
@@ -14732,7 +14759,7 @@
       <c r="Y500" s="8"/>
       <c r="Z500" s="8"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A501" s="8"/>
       <c r="B501" s="15"/>
       <c r="C501" s="8"/>
@@ -14760,7 +14787,7 @@
       <c r="Y501" s="8"/>
       <c r="Z501" s="8"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A502" s="8"/>
       <c r="B502" s="15"/>
       <c r="C502" s="8"/>
@@ -14788,7 +14815,7 @@
       <c r="Y502" s="8"/>
       <c r="Z502" s="8"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A503" s="8"/>
       <c r="B503" s="15"/>
       <c r="C503" s="8"/>
@@ -14816,7 +14843,7 @@
       <c r="Y503" s="8"/>
       <c r="Z503" s="8"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A504" s="8"/>
       <c r="B504" s="15"/>
       <c r="C504" s="8"/>
@@ -14844,7 +14871,7 @@
       <c r="Y504" s="8"/>
       <c r="Z504" s="8"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A505" s="8"/>
       <c r="B505" s="15"/>
       <c r="C505" s="8"/>
@@ -14872,7 +14899,7 @@
       <c r="Y505" s="8"/>
       <c r="Z505" s="8"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A506" s="8"/>
       <c r="B506" s="15"/>
       <c r="C506" s="8"/>
@@ -14900,7 +14927,7 @@
       <c r="Y506" s="8"/>
       <c r="Z506" s="8"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A507" s="8"/>
       <c r="B507" s="15"/>
       <c r="C507" s="8"/>
@@ -14928,7 +14955,7 @@
       <c r="Y507" s="8"/>
       <c r="Z507" s="8"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A508" s="8"/>
       <c r="B508" s="15"/>
       <c r="C508" s="8"/>
@@ -14956,7 +14983,7 @@
       <c r="Y508" s="8"/>
       <c r="Z508" s="8"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A509" s="8"/>
       <c r="B509" s="15"/>
       <c r="C509" s="8"/>
@@ -14984,7 +15011,7 @@
       <c r="Y509" s="8"/>
       <c r="Z509" s="8"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A510" s="8"/>
       <c r="B510" s="15"/>
       <c r="C510" s="8"/>
@@ -15012,7 +15039,7 @@
       <c r="Y510" s="8"/>
       <c r="Z510" s="8"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A511" s="8"/>
       <c r="B511" s="15"/>
       <c r="C511" s="8"/>
@@ -15040,7 +15067,7 @@
       <c r="Y511" s="8"/>
       <c r="Z511" s="8"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A512" s="8"/>
       <c r="B512" s="15"/>
       <c r="C512" s="8"/>
@@ -15068,7 +15095,7 @@
       <c r="Y512" s="8"/>
       <c r="Z512" s="8"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A513" s="8"/>
       <c r="B513" s="15"/>
       <c r="C513" s="8"/>
@@ -15096,7 +15123,7 @@
       <c r="Y513" s="8"/>
       <c r="Z513" s="8"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A514" s="8"/>
       <c r="B514" s="15"/>
       <c r="C514" s="8"/>
@@ -15124,7 +15151,7 @@
       <c r="Y514" s="8"/>
       <c r="Z514" s="8"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A515" s="8"/>
       <c r="B515" s="15"/>
       <c r="C515" s="8"/>
@@ -15152,7 +15179,7 @@
       <c r="Y515" s="8"/>
       <c r="Z515" s="8"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A516" s="8"/>
       <c r="B516" s="15"/>
       <c r="C516" s="8"/>
@@ -15180,7 +15207,7 @@
       <c r="Y516" s="8"/>
       <c r="Z516" s="8"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A517" s="8"/>
       <c r="B517" s="15"/>
       <c r="C517" s="8"/>
@@ -15208,7 +15235,7 @@
       <c r="Y517" s="8"/>
       <c r="Z517" s="8"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A518" s="8"/>
       <c r="B518" s="15"/>
       <c r="C518" s="8"/>
@@ -15236,7 +15263,7 @@
       <c r="Y518" s="8"/>
       <c r="Z518" s="8"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A519" s="8"/>
       <c r="B519" s="15"/>
       <c r="C519" s="8"/>
@@ -15264,7 +15291,7 @@
       <c r="Y519" s="8"/>
       <c r="Z519" s="8"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A520" s="8"/>
       <c r="B520" s="15"/>
       <c r="C520" s="8"/>
@@ -15292,7 +15319,7 @@
       <c r="Y520" s="8"/>
       <c r="Z520" s="8"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A521" s="8"/>
       <c r="B521" s="15"/>
       <c r="C521" s="8"/>
@@ -15320,7 +15347,7 @@
       <c r="Y521" s="8"/>
       <c r="Z521" s="8"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A522" s="8"/>
       <c r="B522" s="15"/>
       <c r="C522" s="8"/>
@@ -15348,7 +15375,7 @@
       <c r="Y522" s="8"/>
       <c r="Z522" s="8"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A523" s="8"/>
       <c r="B523" s="15"/>
       <c r="C523" s="8"/>
@@ -15376,7 +15403,7 @@
       <c r="Y523" s="8"/>
       <c r="Z523" s="8"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A524" s="8"/>
       <c r="B524" s="15"/>
       <c r="C524" s="8"/>
@@ -15404,7 +15431,7 @@
       <c r="Y524" s="8"/>
       <c r="Z524" s="8"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A525" s="8"/>
       <c r="B525" s="15"/>
       <c r="C525" s="8"/>
@@ -15432,7 +15459,7 @@
       <c r="Y525" s="8"/>
       <c r="Z525" s="8"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A526" s="8"/>
       <c r="B526" s="15"/>
       <c r="C526" s="8"/>
@@ -15460,7 +15487,7 @@
       <c r="Y526" s="8"/>
       <c r="Z526" s="8"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A527" s="8"/>
       <c r="B527" s="15"/>
       <c r="C527" s="8"/>
@@ -15488,7 +15515,7 @@
       <c r="Y527" s="8"/>
       <c r="Z527" s="8"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A528" s="8"/>
       <c r="B528" s="15"/>
       <c r="C528" s="8"/>
@@ -15516,7 +15543,7 @@
       <c r="Y528" s="8"/>
       <c r="Z528" s="8"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A529" s="8"/>
       <c r="B529" s="15"/>
       <c r="C529" s="8"/>
@@ -15544,7 +15571,7 @@
       <c r="Y529" s="8"/>
       <c r="Z529" s="8"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A530" s="8"/>
       <c r="B530" s="15"/>
       <c r="C530" s="8"/>
@@ -15572,7 +15599,7 @@
       <c r="Y530" s="8"/>
       <c r="Z530" s="8"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A531" s="8"/>
       <c r="B531" s="15"/>
       <c r="C531" s="8"/>
@@ -15600,7 +15627,7 @@
       <c r="Y531" s="8"/>
       <c r="Z531" s="8"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A532" s="8"/>
       <c r="B532" s="15"/>
       <c r="C532" s="8"/>
@@ -15628,7 +15655,7 @@
       <c r="Y532" s="8"/>
       <c r="Z532" s="8"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A533" s="8"/>
       <c r="B533" s="15"/>
       <c r="C533" s="8"/>
@@ -15656,7 +15683,7 @@
       <c r="Y533" s="8"/>
       <c r="Z533" s="8"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A534" s="8"/>
       <c r="B534" s="15"/>
       <c r="C534" s="8"/>
@@ -15684,7 +15711,7 @@
       <c r="Y534" s="8"/>
       <c r="Z534" s="8"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A535" s="8"/>
       <c r="B535" s="15"/>
       <c r="C535" s="8"/>
@@ -15712,7 +15739,7 @@
       <c r="Y535" s="8"/>
       <c r="Z535" s="8"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A536" s="8"/>
       <c r="B536" s="15"/>
       <c r="C536" s="8"/>
@@ -15740,7 +15767,7 @@
       <c r="Y536" s="8"/>
       <c r="Z536" s="8"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A537" s="8"/>
       <c r="B537" s="15"/>
       <c r="C537" s="8"/>
@@ -15768,7 +15795,7 @@
       <c r="Y537" s="8"/>
       <c r="Z537" s="8"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A538" s="8"/>
       <c r="B538" s="15"/>
       <c r="C538" s="8"/>
@@ -15796,7 +15823,7 @@
       <c r="Y538" s="8"/>
       <c r="Z538" s="8"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A539" s="8"/>
       <c r="B539" s="15"/>
       <c r="C539" s="8"/>
@@ -15824,7 +15851,7 @@
       <c r="Y539" s="8"/>
       <c r="Z539" s="8"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A540" s="8"/>
       <c r="B540" s="15"/>
       <c r="C540" s="8"/>
@@ -15852,7 +15879,7 @@
       <c r="Y540" s="8"/>
       <c r="Z540" s="8"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A541" s="8"/>
       <c r="B541" s="15"/>
       <c r="C541" s="8"/>
@@ -15880,7 +15907,7 @@
       <c r="Y541" s="8"/>
       <c r="Z541" s="8"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A542" s="8"/>
       <c r="B542" s="15"/>
       <c r="C542" s="8"/>
@@ -15908,7 +15935,7 @@
       <c r="Y542" s="8"/>
       <c r="Z542" s="8"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A543" s="8"/>
       <c r="B543" s="15"/>
       <c r="C543" s="8"/>
@@ -15936,7 +15963,7 @@
       <c r="Y543" s="8"/>
       <c r="Z543" s="8"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A544" s="8"/>
       <c r="B544" s="15"/>
       <c r="C544" s="8"/>
@@ -15964,7 +15991,7 @@
       <c r="Y544" s="8"/>
       <c r="Z544" s="8"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A545" s="8"/>
       <c r="B545" s="15"/>
       <c r="C545" s="8"/>
@@ -15992,7 +16019,7 @@
       <c r="Y545" s="8"/>
       <c r="Z545" s="8"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A546" s="8"/>
       <c r="B546" s="15"/>
       <c r="C546" s="8"/>
@@ -16020,7 +16047,7 @@
       <c r="Y546" s="8"/>
       <c r="Z546" s="8"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A547" s="8"/>
       <c r="B547" s="15"/>
       <c r="C547" s="8"/>
@@ -16048,7 +16075,7 @@
       <c r="Y547" s="8"/>
       <c r="Z547" s="8"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A548" s="8"/>
       <c r="B548" s="15"/>
       <c r="C548" s="8"/>
@@ -16076,7 +16103,7 @@
       <c r="Y548" s="8"/>
       <c r="Z548" s="8"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A549" s="8"/>
       <c r="B549" s="15"/>
       <c r="C549" s="8"/>
@@ -16104,7 +16131,7 @@
       <c r="Y549" s="8"/>
       <c r="Z549" s="8"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A550" s="8"/>
       <c r="B550" s="15"/>
       <c r="C550" s="8"/>
@@ -16132,7 +16159,7 @@
       <c r="Y550" s="8"/>
       <c r="Z550" s="8"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A551" s="8"/>
       <c r="B551" s="15"/>
       <c r="C551" s="8"/>
@@ -16160,7 +16187,7 @@
       <c r="Y551" s="8"/>
       <c r="Z551" s="8"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A552" s="8"/>
       <c r="B552" s="15"/>
       <c r="C552" s="8"/>
@@ -16188,7 +16215,7 @@
       <c r="Y552" s="8"/>
       <c r="Z552" s="8"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A553" s="8"/>
       <c r="B553" s="15"/>
       <c r="C553" s="8"/>
@@ -16216,7 +16243,7 @@
       <c r="Y553" s="8"/>
       <c r="Z553" s="8"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A554" s="8"/>
       <c r="B554" s="15"/>
       <c r="C554" s="8"/>
@@ -16244,7 +16271,7 @@
       <c r="Y554" s="8"/>
       <c r="Z554" s="8"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A555" s="8"/>
       <c r="B555" s="15"/>
       <c r="C555" s="8"/>
@@ -16272,7 +16299,7 @@
       <c r="Y555" s="8"/>
       <c r="Z555" s="8"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A556" s="8"/>
       <c r="B556" s="15"/>
       <c r="C556" s="8"/>
@@ -16300,7 +16327,7 @@
       <c r="Y556" s="8"/>
       <c r="Z556" s="8"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A557" s="8"/>
       <c r="B557" s="15"/>
       <c r="C557" s="8"/>
@@ -16328,7 +16355,7 @@
       <c r="Y557" s="8"/>
       <c r="Z557" s="8"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A558" s="8"/>
       <c r="B558" s="15"/>
       <c r="C558" s="8"/>
@@ -16356,7 +16383,7 @@
       <c r="Y558" s="8"/>
       <c r="Z558" s="8"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A559" s="8"/>
       <c r="B559" s="15"/>
       <c r="C559" s="8"/>
@@ -16384,7 +16411,7 @@
       <c r="Y559" s="8"/>
       <c r="Z559" s="8"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A560" s="8"/>
       <c r="B560" s="15"/>
       <c r="C560" s="8"/>
@@ -16412,7 +16439,7 @@
       <c r="Y560" s="8"/>
       <c r="Z560" s="8"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A561" s="8"/>
       <c r="B561" s="15"/>
       <c r="C561" s="8"/>
@@ -16440,7 +16467,7 @@
       <c r="Y561" s="8"/>
       <c r="Z561" s="8"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A562" s="8"/>
       <c r="B562" s="15"/>
       <c r="C562" s="8"/>
@@ -16468,7 +16495,7 @@
       <c r="Y562" s="8"/>
       <c r="Z562" s="8"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A563" s="8"/>
       <c r="B563" s="15"/>
       <c r="C563" s="8"/>
@@ -16496,7 +16523,7 @@
       <c r="Y563" s="8"/>
       <c r="Z563" s="8"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A564" s="8"/>
       <c r="B564" s="15"/>
       <c r="C564" s="8"/>
@@ -16524,7 +16551,7 @@
       <c r="Y564" s="8"/>
       <c r="Z564" s="8"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A565" s="8"/>
       <c r="B565" s="15"/>
       <c r="C565" s="8"/>
@@ -16552,7 +16579,7 @@
       <c r="Y565" s="8"/>
       <c r="Z565" s="8"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A566" s="8"/>
       <c r="B566" s="15"/>
       <c r="C566" s="8"/>
@@ -16580,7 +16607,7 @@
       <c r="Y566" s="8"/>
       <c r="Z566" s="8"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A567" s="8"/>
       <c r="B567" s="15"/>
       <c r="C567" s="8"/>
@@ -16608,7 +16635,7 @@
       <c r="Y567" s="8"/>
       <c r="Z567" s="8"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A568" s="8"/>
       <c r="B568" s="15"/>
       <c r="C568" s="8"/>
@@ -16636,7 +16663,7 @@
       <c r="Y568" s="8"/>
       <c r="Z568" s="8"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A569" s="8"/>
       <c r="B569" s="15"/>
       <c r="C569" s="8"/>
@@ -16664,7 +16691,7 @@
       <c r="Y569" s="8"/>
       <c r="Z569" s="8"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A570" s="8"/>
       <c r="B570" s="15"/>
       <c r="C570" s="8"/>
@@ -16692,7 +16719,7 @@
       <c r="Y570" s="8"/>
       <c r="Z570" s="8"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A571" s="8"/>
       <c r="B571" s="15"/>
       <c r="C571" s="8"/>
@@ -16720,7 +16747,7 @@
       <c r="Y571" s="8"/>
       <c r="Z571" s="8"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A572" s="8"/>
       <c r="B572" s="15"/>
       <c r="C572" s="8"/>
@@ -16748,7 +16775,7 @@
       <c r="Y572" s="8"/>
       <c r="Z572" s="8"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A573" s="8"/>
       <c r="B573" s="15"/>
       <c r="C573" s="8"/>
@@ -16776,7 +16803,7 @@
       <c r="Y573" s="8"/>
       <c r="Z573" s="8"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A574" s="8"/>
       <c r="B574" s="15"/>
       <c r="C574" s="8"/>
@@ -16804,7 +16831,7 @@
       <c r="Y574" s="8"/>
       <c r="Z574" s="8"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A575" s="8"/>
       <c r="B575" s="15"/>
       <c r="C575" s="8"/>
@@ -16832,7 +16859,7 @@
       <c r="Y575" s="8"/>
       <c r="Z575" s="8"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A576" s="8"/>
       <c r="B576" s="15"/>
       <c r="C576" s="8"/>
@@ -16860,7 +16887,7 @@
       <c r="Y576" s="8"/>
       <c r="Z576" s="8"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A577" s="8"/>
       <c r="B577" s="15"/>
       <c r="C577" s="8"/>
@@ -16888,7 +16915,7 @@
       <c r="Y577" s="8"/>
       <c r="Z577" s="8"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A578" s="8"/>
       <c r="B578" s="15"/>
       <c r="C578" s="8"/>
@@ -16916,7 +16943,7 @@
       <c r="Y578" s="8"/>
       <c r="Z578" s="8"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A579" s="8"/>
       <c r="B579" s="15"/>
       <c r="C579" s="8"/>
@@ -16944,7 +16971,7 @@
       <c r="Y579" s="8"/>
       <c r="Z579" s="8"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A580" s="8"/>
       <c r="B580" s="15"/>
       <c r="C580" s="8"/>
@@ -16972,7 +16999,7 @@
       <c r="Y580" s="8"/>
       <c r="Z580" s="8"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A581" s="8"/>
       <c r="B581" s="15"/>
       <c r="C581" s="8"/>
@@ -17000,7 +17027,7 @@
       <c r="Y581" s="8"/>
       <c r="Z581" s="8"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A582" s="8"/>
       <c r="B582" s="15"/>
       <c r="C582" s="8"/>
@@ -17028,7 +17055,7 @@
       <c r="Y582" s="8"/>
       <c r="Z582" s="8"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A583" s="8"/>
       <c r="B583" s="15"/>
       <c r="C583" s="8"/>
@@ -17056,7 +17083,7 @@
       <c r="Y583" s="8"/>
       <c r="Z583" s="8"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A584" s="8"/>
       <c r="B584" s="15"/>
       <c r="C584" s="8"/>
@@ -17084,7 +17111,7 @@
       <c r="Y584" s="8"/>
       <c r="Z584" s="8"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A585" s="8"/>
       <c r="B585" s="15"/>
       <c r="C585" s="8"/>
@@ -17112,7 +17139,7 @@
       <c r="Y585" s="8"/>
       <c r="Z585" s="8"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A586" s="8"/>
       <c r="B586" s="15"/>
       <c r="C586" s="8"/>
@@ -17140,7 +17167,7 @@
       <c r="Y586" s="8"/>
       <c r="Z586" s="8"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A587" s="8"/>
       <c r="B587" s="15"/>
       <c r="C587" s="8"/>
@@ -17168,7 +17195,7 @@
       <c r="Y587" s="8"/>
       <c r="Z587" s="8"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A588" s="8"/>
       <c r="B588" s="15"/>
       <c r="C588" s="8"/>
@@ -17196,7 +17223,7 @@
       <c r="Y588" s="8"/>
       <c r="Z588" s="8"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A589" s="8"/>
       <c r="B589" s="15"/>
       <c r="C589" s="8"/>
@@ -17224,7 +17251,7 @@
       <c r="Y589" s="8"/>
       <c r="Z589" s="8"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A590" s="8"/>
       <c r="B590" s="15"/>
       <c r="C590" s="8"/>
@@ -17252,7 +17279,7 @@
       <c r="Y590" s="8"/>
       <c r="Z590" s="8"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A591" s="8"/>
       <c r="B591" s="15"/>
       <c r="C591" s="8"/>
@@ -17280,7 +17307,7 @@
       <c r="Y591" s="8"/>
       <c r="Z591" s="8"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A592" s="8"/>
       <c r="B592" s="15"/>
       <c r="C592" s="8"/>
@@ -17308,7 +17335,7 @@
       <c r="Y592" s="8"/>
       <c r="Z592" s="8"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A593" s="8"/>
       <c r="B593" s="15"/>
       <c r="C593" s="8"/>
@@ -17336,7 +17363,7 @@
       <c r="Y593" s="8"/>
       <c r="Z593" s="8"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A594" s="8"/>
       <c r="B594" s="15"/>
       <c r="C594" s="8"/>
@@ -17364,7 +17391,7 @@
       <c r="Y594" s="8"/>
       <c r="Z594" s="8"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A595" s="8"/>
       <c r="B595" s="15"/>
       <c r="C595" s="8"/>
@@ -17392,7 +17419,7 @@
       <c r="Y595" s="8"/>
       <c r="Z595" s="8"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A596" s="8"/>
       <c r="B596" s="15"/>
       <c r="C596" s="8"/>
@@ -17420,7 +17447,7 @@
       <c r="Y596" s="8"/>
       <c r="Z596" s="8"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A597" s="8"/>
       <c r="B597" s="15"/>
       <c r="C597" s="8"/>
@@ -17448,7 +17475,7 @@
       <c r="Y597" s="8"/>
       <c r="Z597" s="8"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A598" s="8"/>
       <c r="B598" s="15"/>
       <c r="C598" s="8"/>
@@ -17476,7 +17503,7 @@
       <c r="Y598" s="8"/>
       <c r="Z598" s="8"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A599" s="8"/>
       <c r="B599" s="15"/>
       <c r="C599" s="8"/>
@@ -17504,7 +17531,7 @@
       <c r="Y599" s="8"/>
       <c r="Z599" s="8"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A600" s="8"/>
       <c r="B600" s="15"/>
       <c r="C600" s="8"/>
@@ -17532,7 +17559,7 @@
       <c r="Y600" s="8"/>
       <c r="Z600" s="8"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A601" s="8"/>
       <c r="B601" s="15"/>
       <c r="C601" s="8"/>
@@ -17560,7 +17587,7 @@
       <c r="Y601" s="8"/>
       <c r="Z601" s="8"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A602" s="8"/>
       <c r="B602" s="15"/>
       <c r="C602" s="8"/>
@@ -17588,7 +17615,7 @@
       <c r="Y602" s="8"/>
       <c r="Z602" s="8"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A603" s="8"/>
       <c r="B603" s="15"/>
       <c r="C603" s="8"/>
@@ -17616,7 +17643,7 @@
       <c r="Y603" s="8"/>
       <c r="Z603" s="8"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A604" s="8"/>
       <c r="B604" s="15"/>
       <c r="C604" s="8"/>
@@ -17644,7 +17671,7 @@
       <c r="Y604" s="8"/>
       <c r="Z604" s="8"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A605" s="8"/>
       <c r="B605" s="15"/>
       <c r="C605" s="8"/>
@@ -17672,7 +17699,7 @@
       <c r="Y605" s="8"/>
       <c r="Z605" s="8"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A606" s="8"/>
       <c r="B606" s="15"/>
       <c r="C606" s="8"/>
@@ -17700,7 +17727,7 @@
       <c r="Y606" s="8"/>
       <c r="Z606" s="8"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A607" s="8"/>
       <c r="B607" s="15"/>
       <c r="C607" s="8"/>
@@ -17728,7 +17755,7 @@
       <c r="Y607" s="8"/>
       <c r="Z607" s="8"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A608" s="8"/>
       <c r="B608" s="15"/>
       <c r="C608" s="8"/>
@@ -17756,7 +17783,7 @@
       <c r="Y608" s="8"/>
       <c r="Z608" s="8"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A609" s="8"/>
       <c r="B609" s="15"/>
       <c r="C609" s="8"/>
@@ -17784,7 +17811,7 @@
       <c r="Y609" s="8"/>
       <c r="Z609" s="8"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A610" s="8"/>
       <c r="B610" s="15"/>
       <c r="C610" s="8"/>
@@ -17812,7 +17839,7 @@
       <c r="Y610" s="8"/>
       <c r="Z610" s="8"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A611" s="8"/>
       <c r="B611" s="15"/>
       <c r="C611" s="8"/>
@@ -17840,7 +17867,7 @@
       <c r="Y611" s="8"/>
       <c r="Z611" s="8"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A612" s="8"/>
       <c r="B612" s="15"/>
       <c r="C612" s="8"/>
@@ -17868,7 +17895,7 @@
       <c r="Y612" s="8"/>
       <c r="Z612" s="8"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A613" s="8"/>
       <c r="B613" s="15"/>
       <c r="C613" s="8"/>
@@ -17896,7 +17923,7 @@
       <c r="Y613" s="8"/>
       <c r="Z613" s="8"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A614" s="8"/>
       <c r="B614" s="15"/>
       <c r="C614" s="8"/>
@@ -17924,7 +17951,7 @@
       <c r="Y614" s="8"/>
       <c r="Z614" s="8"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A615" s="8"/>
       <c r="B615" s="15"/>
       <c r="C615" s="8"/>
@@ -17952,7 +17979,7 @@
       <c r="Y615" s="8"/>
       <c r="Z615" s="8"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A616" s="8"/>
       <c r="B616" s="15"/>
       <c r="C616" s="8"/>
@@ -17980,7 +18007,7 @@
       <c r="Y616" s="8"/>
       <c r="Z616" s="8"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A617" s="8"/>
       <c r="B617" s="15"/>
       <c r="C617" s="8"/>
@@ -18008,7 +18035,7 @@
       <c r="Y617" s="8"/>
       <c r="Z617" s="8"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A618" s="8"/>
       <c r="B618" s="15"/>
       <c r="C618" s="8"/>
@@ -18036,7 +18063,7 @@
       <c r="Y618" s="8"/>
       <c r="Z618" s="8"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619" s="8"/>
       <c r="B619" s="15"/>
       <c r="C619" s="8"/>
@@ -18064,7 +18091,7 @@
       <c r="Y619" s="8"/>
       <c r="Z619" s="8"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A620" s="8"/>
       <c r="B620" s="15"/>
       <c r="C620" s="8"/>
@@ -18092,7 +18119,7 @@
       <c r="Y620" s="8"/>
       <c r="Z620" s="8"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A621" s="8"/>
       <c r="B621" s="15"/>
       <c r="C621" s="8"/>
@@ -18120,7 +18147,7 @@
       <c r="Y621" s="8"/>
       <c r="Z621" s="8"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A622" s="8"/>
       <c r="B622" s="15"/>
       <c r="C622" s="8"/>
@@ -18148,7 +18175,7 @@
       <c r="Y622" s="8"/>
       <c r="Z622" s="8"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A623" s="8"/>
       <c r="B623" s="15"/>
       <c r="C623" s="8"/>
@@ -18176,7 +18203,7 @@
       <c r="Y623" s="8"/>
       <c r="Z623" s="8"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A624" s="8"/>
       <c r="B624" s="15"/>
       <c r="C624" s="8"/>
@@ -18204,7 +18231,7 @@
       <c r="Y624" s="8"/>
       <c r="Z624" s="8"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625" s="8"/>
       <c r="B625" s="15"/>
       <c r="C625" s="8"/>
@@ -18232,7 +18259,7 @@
       <c r="Y625" s="8"/>
       <c r="Z625" s="8"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A626" s="8"/>
       <c r="B626" s="15"/>
       <c r="C626" s="8"/>
@@ -18260,7 +18287,7 @@
       <c r="Y626" s="8"/>
       <c r="Z626" s="8"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A627" s="8"/>
       <c r="B627" s="15"/>
       <c r="C627" s="8"/>
@@ -18288,7 +18315,7 @@
       <c r="Y627" s="8"/>
       <c r="Z627" s="8"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A628" s="8"/>
       <c r="B628" s="15"/>
       <c r="C628" s="8"/>
@@ -18316,7 +18343,7 @@
       <c r="Y628" s="8"/>
       <c r="Z628" s="8"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629" s="8"/>
       <c r="B629" s="15"/>
       <c r="C629" s="8"/>
@@ -18344,7 +18371,7 @@
       <c r="Y629" s="8"/>
       <c r="Z629" s="8"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A630" s="8"/>
       <c r="B630" s="15"/>
       <c r="C630" s="8"/>
@@ -18372,7 +18399,7 @@
       <c r="Y630" s="8"/>
       <c r="Z630" s="8"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A631" s="8"/>
       <c r="B631" s="15"/>
       <c r="C631" s="8"/>
@@ -18400,7 +18427,7 @@
       <c r="Y631" s="8"/>
       <c r="Z631" s="8"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A632" s="8"/>
       <c r="B632" s="15"/>
       <c r="C632" s="8"/>
@@ -18428,7 +18455,7 @@
       <c r="Y632" s="8"/>
       <c r="Z632" s="8"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A633" s="8"/>
       <c r="B633" s="15"/>
       <c r="C633" s="8"/>
@@ -18456,7 +18483,7 @@
       <c r="Y633" s="8"/>
       <c r="Z633" s="8"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A634" s="8"/>
       <c r="B634" s="15"/>
       <c r="C634" s="8"/>
@@ -18484,7 +18511,7 @@
       <c r="Y634" s="8"/>
       <c r="Z634" s="8"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A635" s="8"/>
       <c r="B635" s="15"/>
       <c r="C635" s="8"/>
@@ -18512,7 +18539,7 @@
       <c r="Y635" s="8"/>
       <c r="Z635" s="8"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A636" s="8"/>
       <c r="B636" s="15"/>
       <c r="C636" s="8"/>
@@ -18540,7 +18567,7 @@
       <c r="Y636" s="8"/>
       <c r="Z636" s="8"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A637" s="8"/>
       <c r="B637" s="15"/>
       <c r="C637" s="8"/>
@@ -18568,7 +18595,7 @@
       <c r="Y637" s="8"/>
       <c r="Z637" s="8"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A638" s="8"/>
       <c r="B638" s="15"/>
       <c r="C638" s="8"/>
@@ -18596,7 +18623,7 @@
       <c r="Y638" s="8"/>
       <c r="Z638" s="8"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A639" s="8"/>
       <c r="B639" s="15"/>
       <c r="C639" s="8"/>
@@ -18624,7 +18651,7 @@
       <c r="Y639" s="8"/>
       <c r="Z639" s="8"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A640" s="8"/>
       <c r="B640" s="15"/>
       <c r="C640" s="8"/>
@@ -18652,7 +18679,7 @@
       <c r="Y640" s="8"/>
       <c r="Z640" s="8"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A641" s="8"/>
       <c r="B641" s="15"/>
       <c r="C641" s="8"/>
@@ -18680,7 +18707,7 @@
       <c r="Y641" s="8"/>
       <c r="Z641" s="8"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A642" s="8"/>
       <c r="B642" s="15"/>
       <c r="C642" s="8"/>
@@ -18708,7 +18735,7 @@
       <c r="Y642" s="8"/>
       <c r="Z642" s="8"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A643" s="8"/>
       <c r="B643" s="15"/>
       <c r="C643" s="8"/>
@@ -18736,7 +18763,7 @@
       <c r="Y643" s="8"/>
       <c r="Z643" s="8"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A644" s="8"/>
       <c r="B644" s="15"/>
       <c r="C644" s="8"/>
@@ -18764,7 +18791,7 @@
       <c r="Y644" s="8"/>
       <c r="Z644" s="8"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A645" s="8"/>
       <c r="B645" s="15"/>
       <c r="C645" s="8"/>
@@ -18792,7 +18819,7 @@
       <c r="Y645" s="8"/>
       <c r="Z645" s="8"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A646" s="8"/>
       <c r="B646" s="15"/>
       <c r="C646" s="8"/>
@@ -18820,7 +18847,7 @@
       <c r="Y646" s="8"/>
       <c r="Z646" s="8"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A647" s="8"/>
       <c r="B647" s="15"/>
       <c r="C647" s="8"/>
@@ -18848,7 +18875,7 @@
       <c r="Y647" s="8"/>
       <c r="Z647" s="8"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A648" s="8"/>
       <c r="B648" s="15"/>
       <c r="C648" s="8"/>
@@ -18876,7 +18903,7 @@
       <c r="Y648" s="8"/>
       <c r="Z648" s="8"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A649" s="8"/>
       <c r="B649" s="15"/>
       <c r="C649" s="8"/>
@@ -18904,7 +18931,7 @@
       <c r="Y649" s="8"/>
       <c r="Z649" s="8"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A650" s="8"/>
       <c r="B650" s="15"/>
       <c r="C650" s="8"/>
@@ -18932,7 +18959,7 @@
       <c r="Y650" s="8"/>
       <c r="Z650" s="8"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A651" s="8"/>
       <c r="B651" s="15"/>
       <c r="C651" s="8"/>
@@ -18960,7 +18987,7 @@
       <c r="Y651" s="8"/>
       <c r="Z651" s="8"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A652" s="8"/>
       <c r="B652" s="15"/>
       <c r="C652" s="8"/>
@@ -18988,7 +19015,7 @@
       <c r="Y652" s="8"/>
       <c r="Z652" s="8"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A653" s="8"/>
       <c r="B653" s="15"/>
       <c r="C653" s="8"/>
@@ -19016,7 +19043,7 @@
       <c r="Y653" s="8"/>
       <c r="Z653" s="8"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A654" s="8"/>
       <c r="B654" s="15"/>
       <c r="C654" s="8"/>
@@ -19044,7 +19071,7 @@
       <c r="Y654" s="8"/>
       <c r="Z654" s="8"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A655" s="8"/>
       <c r="B655" s="15"/>
       <c r="C655" s="8"/>
@@ -19072,7 +19099,7 @@
       <c r="Y655" s="8"/>
       <c r="Z655" s="8"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A656" s="8"/>
       <c r="B656" s="15"/>
       <c r="C656" s="8"/>
@@ -19100,7 +19127,7 @@
       <c r="Y656" s="8"/>
       <c r="Z656" s="8"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A657" s="8"/>
       <c r="B657" s="15"/>
       <c r="C657" s="8"/>
@@ -19128,7 +19155,7 @@
       <c r="Y657" s="8"/>
       <c r="Z657" s="8"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A658" s="8"/>
       <c r="B658" s="15"/>
       <c r="C658" s="8"/>
@@ -19156,7 +19183,7 @@
       <c r="Y658" s="8"/>
       <c r="Z658" s="8"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A659" s="8"/>
       <c r="B659" s="15"/>
       <c r="C659" s="8"/>
@@ -19184,7 +19211,7 @@
       <c r="Y659" s="8"/>
       <c r="Z659" s="8"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A660" s="8"/>
       <c r="B660" s="15"/>
       <c r="C660" s="8"/>
@@ -19212,7 +19239,7 @@
       <c r="Y660" s="8"/>
       <c r="Z660" s="8"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A661" s="8"/>
       <c r="B661" s="15"/>
       <c r="C661" s="8"/>
@@ -19240,7 +19267,7 @@
       <c r="Y661" s="8"/>
       <c r="Z661" s="8"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A662" s="8"/>
       <c r="B662" s="15"/>
       <c r="C662" s="8"/>
@@ -19268,7 +19295,7 @@
       <c r="Y662" s="8"/>
       <c r="Z662" s="8"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A663" s="8"/>
       <c r="B663" s="15"/>
       <c r="C663" s="8"/>
@@ -19296,7 +19323,7 @@
       <c r="Y663" s="8"/>
       <c r="Z663" s="8"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A664" s="8"/>
       <c r="B664" s="15"/>
       <c r="C664" s="8"/>
@@ -19324,7 +19351,7 @@
       <c r="Y664" s="8"/>
       <c r="Z664" s="8"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A665" s="8"/>
       <c r="B665" s="15"/>
       <c r="C665" s="8"/>
@@ -19352,7 +19379,7 @@
       <c r="Y665" s="8"/>
       <c r="Z665" s="8"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A666" s="8"/>
       <c r="B666" s="15"/>
       <c r="C666" s="8"/>
@@ -19380,7 +19407,7 @@
       <c r="Y666" s="8"/>
       <c r="Z666" s="8"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A667" s="8"/>
       <c r="B667" s="15"/>
       <c r="C667" s="8"/>
@@ -19408,7 +19435,7 @@
       <c r="Y667" s="8"/>
       <c r="Z667" s="8"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A668" s="8"/>
       <c r="B668" s="15"/>
       <c r="C668" s="8"/>
@@ -19436,7 +19463,7 @@
       <c r="Y668" s="8"/>
       <c r="Z668" s="8"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A669" s="8"/>
       <c r="B669" s="15"/>
       <c r="C669" s="8"/>
@@ -19464,7 +19491,7 @@
       <c r="Y669" s="8"/>
       <c r="Z669" s="8"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A670" s="8"/>
       <c r="B670" s="15"/>
       <c r="C670" s="8"/>
@@ -19492,7 +19519,7 @@
       <c r="Y670" s="8"/>
       <c r="Z670" s="8"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A671" s="8"/>
       <c r="B671" s="15"/>
       <c r="C671" s="8"/>
@@ -19520,7 +19547,7 @@
       <c r="Y671" s="8"/>
       <c r="Z671" s="8"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A672" s="8"/>
       <c r="B672" s="15"/>
       <c r="C672" s="8"/>
@@ -19548,7 +19575,7 @@
       <c r="Y672" s="8"/>
       <c r="Z672" s="8"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A673" s="8"/>
       <c r="B673" s="15"/>
       <c r="C673" s="8"/>
@@ -19576,7 +19603,7 @@
       <c r="Y673" s="8"/>
       <c r="Z673" s="8"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A674" s="8"/>
       <c r="B674" s="15"/>
       <c r="C674" s="8"/>
@@ -19604,7 +19631,7 @@
       <c r="Y674" s="8"/>
       <c r="Z674" s="8"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A675" s="8"/>
       <c r="B675" s="15"/>
       <c r="C675" s="8"/>
@@ -19632,7 +19659,7 @@
       <c r="Y675" s="8"/>
       <c r="Z675" s="8"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A676" s="8"/>
       <c r="B676" s="15"/>
       <c r="C676" s="8"/>
@@ -19660,7 +19687,7 @@
       <c r="Y676" s="8"/>
       <c r="Z676" s="8"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A677" s="8"/>
       <c r="B677" s="15"/>
       <c r="C677" s="8"/>
@@ -19688,7 +19715,7 @@
       <c r="Y677" s="8"/>
       <c r="Z677" s="8"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A678" s="8"/>
       <c r="B678" s="15"/>
       <c r="C678" s="8"/>
@@ -19716,7 +19743,7 @@
       <c r="Y678" s="8"/>
       <c r="Z678" s="8"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A679" s="8"/>
       <c r="B679" s="15"/>
       <c r="C679" s="8"/>
@@ -19744,7 +19771,7 @@
       <c r="Y679" s="8"/>
       <c r="Z679" s="8"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A680" s="8"/>
       <c r="B680" s="15"/>
       <c r="C680" s="8"/>
@@ -19772,7 +19799,7 @@
       <c r="Y680" s="8"/>
       <c r="Z680" s="8"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A681" s="8"/>
       <c r="B681" s="15"/>
       <c r="C681" s="8"/>
@@ -19800,7 +19827,7 @@
       <c r="Y681" s="8"/>
       <c r="Z681" s="8"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A682" s="8"/>
       <c r="B682" s="15"/>
       <c r="C682" s="8"/>
@@ -19828,7 +19855,7 @@
       <c r="Y682" s="8"/>
       <c r="Z682" s="8"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A683" s="8"/>
       <c r="B683" s="15"/>
       <c r="C683" s="8"/>
@@ -19856,7 +19883,7 @@
       <c r="Y683" s="8"/>
       <c r="Z683" s="8"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A684" s="8"/>
       <c r="B684" s="15"/>
       <c r="C684" s="8"/>
@@ -19884,7 +19911,7 @@
       <c r="Y684" s="8"/>
       <c r="Z684" s="8"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A685" s="8"/>
       <c r="B685" s="15"/>
       <c r="C685" s="8"/>
@@ -19912,7 +19939,7 @@
       <c r="Y685" s="8"/>
       <c r="Z685" s="8"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A686" s="8"/>
       <c r="B686" s="15"/>
       <c r="C686" s="8"/>
@@ -19940,7 +19967,7 @@
       <c r="Y686" s="8"/>
       <c r="Z686" s="8"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A687" s="8"/>
       <c r="B687" s="15"/>
       <c r="C687" s="8"/>
@@ -19968,7 +19995,7 @@
       <c r="Y687" s="8"/>
       <c r="Z687" s="8"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A688" s="8"/>
       <c r="B688" s="15"/>
       <c r="C688" s="8"/>
@@ -19996,7 +20023,7 @@
       <c r="Y688" s="8"/>
       <c r="Z688" s="8"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A689" s="8"/>
       <c r="B689" s="15"/>
       <c r="C689" s="8"/>
@@ -20024,7 +20051,7 @@
       <c r="Y689" s="8"/>
       <c r="Z689" s="8"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A690" s="8"/>
       <c r="B690" s="15"/>
       <c r="C690" s="8"/>
@@ -20052,7 +20079,7 @@
       <c r="Y690" s="8"/>
       <c r="Z690" s="8"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A691" s="8"/>
       <c r="B691" s="15"/>
       <c r="C691" s="8"/>
@@ -20080,7 +20107,7 @@
       <c r="Y691" s="8"/>
       <c r="Z691" s="8"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A692" s="8"/>
       <c r="B692" s="15"/>
       <c r="C692" s="8"/>
@@ -20108,7 +20135,7 @@
       <c r="Y692" s="8"/>
       <c r="Z692" s="8"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693" s="8"/>
       <c r="B693" s="15"/>
       <c r="C693" s="8"/>
@@ -20136,7 +20163,7 @@
       <c r="Y693" s="8"/>
       <c r="Z693" s="8"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A694" s="8"/>
       <c r="B694" s="15"/>
       <c r="C694" s="8"/>
@@ -20164,7 +20191,7 @@
       <c r="Y694" s="8"/>
       <c r="Z694" s="8"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A695" s="8"/>
       <c r="B695" s="15"/>
       <c r="C695" s="8"/>
@@ -20192,7 +20219,7 @@
       <c r="Y695" s="8"/>
       <c r="Z695" s="8"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A696" s="8"/>
       <c r="B696" s="15"/>
       <c r="C696" s="8"/>
@@ -20220,7 +20247,7 @@
       <c r="Y696" s="8"/>
       <c r="Z696" s="8"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A697" s="8"/>
       <c r="B697" s="15"/>
       <c r="C697" s="8"/>
@@ -20248,7 +20275,7 @@
       <c r="Y697" s="8"/>
       <c r="Z697" s="8"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A698" s="8"/>
       <c r="B698" s="15"/>
       <c r="C698" s="8"/>
@@ -20276,7 +20303,7 @@
       <c r="Y698" s="8"/>
       <c r="Z698" s="8"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A699" s="8"/>
       <c r="B699" s="15"/>
       <c r="C699" s="8"/>
@@ -20304,7 +20331,7 @@
       <c r="Y699" s="8"/>
       <c r="Z699" s="8"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A700" s="8"/>
       <c r="B700" s="15"/>
       <c r="C700" s="8"/>
@@ -20332,7 +20359,7 @@
       <c r="Y700" s="8"/>
       <c r="Z700" s="8"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A701" s="8"/>
       <c r="B701" s="15"/>
       <c r="C701" s="8"/>
@@ -20360,7 +20387,7 @@
       <c r="Y701" s="8"/>
       <c r="Z701" s="8"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A702" s="8"/>
       <c r="B702" s="15"/>
       <c r="C702" s="8"/>
@@ -20388,7 +20415,7 @@
       <c r="Y702" s="8"/>
       <c r="Z702" s="8"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A703" s="8"/>
       <c r="B703" s="15"/>
       <c r="C703" s="8"/>
@@ -20416,7 +20443,7 @@
       <c r="Y703" s="8"/>
       <c r="Z703" s="8"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A704" s="8"/>
       <c r="B704" s="15"/>
       <c r="C704" s="8"/>
@@ -20444,7 +20471,7 @@
       <c r="Y704" s="8"/>
       <c r="Z704" s="8"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A705" s="8"/>
       <c r="B705" s="15"/>
       <c r="C705" s="8"/>
@@ -20472,7 +20499,7 @@
       <c r="Y705" s="8"/>
       <c r="Z705" s="8"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A706" s="8"/>
       <c r="B706" s="15"/>
       <c r="C706" s="8"/>
@@ -20500,7 +20527,7 @@
       <c r="Y706" s="8"/>
       <c r="Z706" s="8"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A707" s="8"/>
       <c r="B707" s="15"/>
       <c r="C707" s="8"/>
@@ -20528,7 +20555,7 @@
       <c r="Y707" s="8"/>
       <c r="Z707" s="8"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A708" s="8"/>
       <c r="B708" s="15"/>
       <c r="C708" s="8"/>
@@ -20556,7 +20583,7 @@
       <c r="Y708" s="8"/>
       <c r="Z708" s="8"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A709" s="8"/>
       <c r="B709" s="15"/>
       <c r="C709" s="8"/>
@@ -20584,7 +20611,7 @@
       <c r="Y709" s="8"/>
       <c r="Z709" s="8"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A710" s="8"/>
       <c r="B710" s="15"/>
       <c r="C710" s="8"/>
@@ -20612,7 +20639,7 @@
       <c r="Y710" s="8"/>
       <c r="Z710" s="8"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A711" s="8"/>
       <c r="B711" s="15"/>
       <c r="C711" s="8"/>
@@ -20640,7 +20667,7 @@
       <c r="Y711" s="8"/>
       <c r="Z711" s="8"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A712" s="8"/>
       <c r="B712" s="15"/>
       <c r="C712" s="8"/>
@@ -20668,7 +20695,7 @@
       <c r="Y712" s="8"/>
       <c r="Z712" s="8"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A713" s="8"/>
       <c r="B713" s="15"/>
       <c r="C713" s="8"/>
@@ -20696,7 +20723,7 @@
       <c r="Y713" s="8"/>
       <c r="Z713" s="8"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A714" s="8"/>
       <c r="B714" s="15"/>
       <c r="C714" s="8"/>
@@ -20724,7 +20751,7 @@
       <c r="Y714" s="8"/>
       <c r="Z714" s="8"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A715" s="8"/>
       <c r="B715" s="15"/>
       <c r="C715" s="8"/>
@@ -20752,7 +20779,7 @@
       <c r="Y715" s="8"/>
       <c r="Z715" s="8"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A716" s="8"/>
       <c r="B716" s="15"/>
       <c r="C716" s="8"/>
@@ -20780,7 +20807,7 @@
       <c r="Y716" s="8"/>
       <c r="Z716" s="8"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A717" s="8"/>
       <c r="B717" s="15"/>
       <c r="C717" s="8"/>
@@ -20808,7 +20835,7 @@
       <c r="Y717" s="8"/>
       <c r="Z717" s="8"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A718" s="8"/>
       <c r="B718" s="15"/>
       <c r="C718" s="8"/>
@@ -20836,7 +20863,7 @@
       <c r="Y718" s="8"/>
       <c r="Z718" s="8"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A719" s="8"/>
       <c r="B719" s="15"/>
       <c r="C719" s="8"/>
@@ -20864,7 +20891,7 @@
       <c r="Y719" s="8"/>
       <c r="Z719" s="8"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A720" s="8"/>
       <c r="B720" s="15"/>
       <c r="C720" s="8"/>
@@ -20892,7 +20919,7 @@
       <c r="Y720" s="8"/>
       <c r="Z720" s="8"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A721" s="8"/>
       <c r="B721" s="15"/>
       <c r="C721" s="8"/>
@@ -20920,7 +20947,7 @@
       <c r="Y721" s="8"/>
       <c r="Z721" s="8"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A722" s="8"/>
       <c r="B722" s="15"/>
       <c r="C722" s="8"/>
@@ -20948,7 +20975,7 @@
       <c r="Y722" s="8"/>
       <c r="Z722" s="8"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A723" s="8"/>
       <c r="B723" s="15"/>
       <c r="C723" s="8"/>
@@ -20976,7 +21003,7 @@
       <c r="Y723" s="8"/>
       <c r="Z723" s="8"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A724" s="8"/>
       <c r="B724" s="15"/>
       <c r="C724" s="8"/>
@@ -21004,7 +21031,7 @@
       <c r="Y724" s="8"/>
       <c r="Z724" s="8"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A725" s="8"/>
       <c r="B725" s="15"/>
       <c r="C725" s="8"/>
@@ -21032,7 +21059,7 @@
       <c r="Y725" s="8"/>
       <c r="Z725" s="8"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A726" s="8"/>
       <c r="B726" s="15"/>
       <c r="C726" s="8"/>
@@ -21060,7 +21087,7 @@
       <c r="Y726" s="8"/>
       <c r="Z726" s="8"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A727" s="8"/>
       <c r="B727" s="15"/>
       <c r="C727" s="8"/>
@@ -21088,7 +21115,7 @@
       <c r="Y727" s="8"/>
       <c r="Z727" s="8"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A728" s="8"/>
       <c r="B728" s="15"/>
       <c r="C728" s="8"/>
@@ -21116,7 +21143,7 @@
       <c r="Y728" s="8"/>
       <c r="Z728" s="8"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A729" s="8"/>
       <c r="B729" s="15"/>
       <c r="C729" s="8"/>
@@ -21144,7 +21171,7 @@
       <c r="Y729" s="8"/>
       <c r="Z729" s="8"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A730" s="8"/>
       <c r="B730" s="15"/>
       <c r="C730" s="8"/>
@@ -21172,7 +21199,7 @@
       <c r="Y730" s="8"/>
       <c r="Z730" s="8"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A731" s="8"/>
       <c r="B731" s="15"/>
       <c r="C731" s="8"/>
@@ -21200,7 +21227,7 @@
       <c r="Y731" s="8"/>
       <c r="Z731" s="8"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A732" s="8"/>
       <c r="B732" s="15"/>
       <c r="C732" s="8"/>
@@ -21228,7 +21255,7 @@
       <c r="Y732" s="8"/>
       <c r="Z732" s="8"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A733" s="8"/>
       <c r="B733" s="15"/>
       <c r="C733" s="8"/>
@@ -21256,7 +21283,7 @@
       <c r="Y733" s="8"/>
       <c r="Z733" s="8"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A734" s="8"/>
       <c r="B734" s="15"/>
       <c r="C734" s="8"/>
@@ -21284,7 +21311,7 @@
       <c r="Y734" s="8"/>
       <c r="Z734" s="8"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A735" s="8"/>
       <c r="B735" s="15"/>
       <c r="C735" s="8"/>
@@ -21312,7 +21339,7 @@
       <c r="Y735" s="8"/>
       <c r="Z735" s="8"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A736" s="8"/>
       <c r="B736" s="15"/>
       <c r="C736" s="8"/>
@@ -21340,7 +21367,7 @@
       <c r="Y736" s="8"/>
       <c r="Z736" s="8"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A737" s="8"/>
       <c r="B737" s="15"/>
       <c r="C737" s="8"/>
@@ -21368,7 +21395,7 @@
       <c r="Y737" s="8"/>
       <c r="Z737" s="8"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A738" s="8"/>
       <c r="B738" s="15"/>
       <c r="C738" s="8"/>
@@ -21396,7 +21423,7 @@
       <c r="Y738" s="8"/>
       <c r="Z738" s="8"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A739" s="8"/>
       <c r="B739" s="15"/>
       <c r="C739" s="8"/>
@@ -21424,7 +21451,7 @@
       <c r="Y739" s="8"/>
       <c r="Z739" s="8"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A740" s="8"/>
       <c r="B740" s="15"/>
       <c r="C740" s="8"/>
@@ -21452,7 +21479,7 @@
       <c r="Y740" s="8"/>
       <c r="Z740" s="8"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A741" s="8"/>
       <c r="B741" s="15"/>
       <c r="C741" s="8"/>
@@ -21480,7 +21507,7 @@
       <c r="Y741" s="8"/>
       <c r="Z741" s="8"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A742" s="8"/>
       <c r="B742" s="15"/>
       <c r="C742" s="8"/>
@@ -21508,7 +21535,7 @@
       <c r="Y742" s="8"/>
       <c r="Z742" s="8"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A743" s="8"/>
       <c r="B743" s="15"/>
       <c r="C743" s="8"/>
@@ -21536,7 +21563,7 @@
       <c r="Y743" s="8"/>
       <c r="Z743" s="8"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A744" s="8"/>
       <c r="B744" s="15"/>
       <c r="C744" s="8"/>
@@ -21564,7 +21591,7 @@
       <c r="Y744" s="8"/>
       <c r="Z744" s="8"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A745" s="8"/>
       <c r="B745" s="15"/>
       <c r="C745" s="8"/>
@@ -21592,7 +21619,7 @@
       <c r="Y745" s="8"/>
       <c r="Z745" s="8"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A746" s="8"/>
       <c r="B746" s="15"/>
       <c r="C746" s="8"/>
@@ -21620,7 +21647,7 @@
       <c r="Y746" s="8"/>
       <c r="Z746" s="8"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A747" s="8"/>
       <c r="B747" s="15"/>
       <c r="C747" s="8"/>
@@ -21648,7 +21675,7 @@
       <c r="Y747" s="8"/>
       <c r="Z747" s="8"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A748" s="8"/>
       <c r="B748" s="15"/>
       <c r="C748" s="8"/>
@@ -21676,7 +21703,7 @@
       <c r="Y748" s="8"/>
       <c r="Z748" s="8"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A749" s="8"/>
       <c r="B749" s="15"/>
       <c r="C749" s="8"/>
@@ -21704,7 +21731,7 @@
       <c r="Y749" s="8"/>
       <c r="Z749" s="8"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A750" s="8"/>
       <c r="B750" s="15"/>
       <c r="C750" s="8"/>
@@ -21732,7 +21759,7 @@
       <c r="Y750" s="8"/>
       <c r="Z750" s="8"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A751" s="8"/>
       <c r="B751" s="15"/>
       <c r="C751" s="8"/>
@@ -21760,7 +21787,7 @@
       <c r="Y751" s="8"/>
       <c r="Z751" s="8"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A752" s="8"/>
       <c r="B752" s="15"/>
       <c r="C752" s="8"/>
@@ -21788,7 +21815,7 @@
       <c r="Y752" s="8"/>
       <c r="Z752" s="8"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A753" s="8"/>
       <c r="B753" s="15"/>
       <c r="C753" s="8"/>
@@ -21816,7 +21843,7 @@
       <c r="Y753" s="8"/>
       <c r="Z753" s="8"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A754" s="8"/>
       <c r="B754" s="15"/>
       <c r="C754" s="8"/>
@@ -21844,7 +21871,7 @@
       <c r="Y754" s="8"/>
       <c r="Z754" s="8"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A755" s="8"/>
       <c r="B755" s="15"/>
       <c r="C755" s="8"/>
@@ -21872,7 +21899,7 @@
       <c r="Y755" s="8"/>
       <c r="Z755" s="8"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A756" s="8"/>
       <c r="B756" s="15"/>
       <c r="C756" s="8"/>
@@ -21900,7 +21927,7 @@
       <c r="Y756" s="8"/>
       <c r="Z756" s="8"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A757" s="8"/>
       <c r="B757" s="15"/>
       <c r="C757" s="8"/>
@@ -21928,7 +21955,7 @@
       <c r="Y757" s="8"/>
       <c r="Z757" s="8"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A758" s="8"/>
       <c r="B758" s="15"/>
       <c r="C758" s="8"/>
@@ -21956,7 +21983,7 @@
       <c r="Y758" s="8"/>
       <c r="Z758" s="8"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A759" s="8"/>
       <c r="B759" s="15"/>
       <c r="C759" s="8"/>
@@ -21984,7 +22011,7 @@
       <c r="Y759" s="8"/>
       <c r="Z759" s="8"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A760" s="8"/>
       <c r="B760" s="15"/>
       <c r="C760" s="8"/>
@@ -22012,7 +22039,7 @@
       <c r="Y760" s="8"/>
       <c r="Z760" s="8"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A761" s="8"/>
       <c r="B761" s="15"/>
       <c r="C761" s="8"/>
@@ -22040,7 +22067,7 @@
       <c r="Y761" s="8"/>
       <c r="Z761" s="8"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A762" s="8"/>
       <c r="B762" s="15"/>
       <c r="C762" s="8"/>
@@ -22068,7 +22095,7 @@
       <c r="Y762" s="8"/>
       <c r="Z762" s="8"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A763" s="8"/>
       <c r="B763" s="15"/>
       <c r="C763" s="8"/>
@@ -22096,7 +22123,7 @@
       <c r="Y763" s="8"/>
       <c r="Z763" s="8"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A764" s="8"/>
       <c r="B764" s="15"/>
       <c r="C764" s="8"/>
@@ -22124,7 +22151,7 @@
       <c r="Y764" s="8"/>
       <c r="Z764" s="8"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A765" s="8"/>
       <c r="B765" s="15"/>
       <c r="C765" s="8"/>
@@ -22152,7 +22179,7 @@
       <c r="Y765" s="8"/>
       <c r="Z765" s="8"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A766" s="8"/>
       <c r="B766" s="15"/>
       <c r="C766" s="8"/>
@@ -22180,7 +22207,7 @@
       <c r="Y766" s="8"/>
       <c r="Z766" s="8"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A767" s="8"/>
       <c r="B767" s="15"/>
       <c r="C767" s="8"/>
@@ -22208,7 +22235,7 @@
       <c r="Y767" s="8"/>
       <c r="Z767" s="8"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A768" s="8"/>
       <c r="B768" s="15"/>
       <c r="C768" s="8"/>
@@ -22236,7 +22263,7 @@
       <c r="Y768" s="8"/>
       <c r="Z768" s="8"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A769" s="8"/>
       <c r="B769" s="15"/>
       <c r="C769" s="8"/>
@@ -22264,7 +22291,7 @@
       <c r="Y769" s="8"/>
       <c r="Z769" s="8"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A770" s="8"/>
       <c r="B770" s="15"/>
       <c r="C770" s="8"/>
@@ -22292,7 +22319,7 @@
       <c r="Y770" s="8"/>
       <c r="Z770" s="8"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A771" s="8"/>
       <c r="B771" s="15"/>
       <c r="C771" s="8"/>
@@ -22320,7 +22347,7 @@
       <c r="Y771" s="8"/>
       <c r="Z771" s="8"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A772" s="8"/>
       <c r="B772" s="15"/>
       <c r="C772" s="8"/>
@@ -22348,7 +22375,7 @@
       <c r="Y772" s="8"/>
       <c r="Z772" s="8"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A773" s="8"/>
       <c r="B773" s="15"/>
       <c r="C773" s="8"/>
@@ -22376,7 +22403,7 @@
       <c r="Y773" s="8"/>
       <c r="Z773" s="8"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A774" s="8"/>
       <c r="B774" s="15"/>
       <c r="C774" s="8"/>
@@ -22404,7 +22431,7 @@
       <c r="Y774" s="8"/>
       <c r="Z774" s="8"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A775" s="8"/>
       <c r="B775" s="15"/>
       <c r="C775" s="8"/>
@@ -22432,7 +22459,7 @@
       <c r="Y775" s="8"/>
       <c r="Z775" s="8"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A776" s="8"/>
       <c r="B776" s="15"/>
       <c r="C776" s="8"/>
@@ -22460,7 +22487,7 @@
       <c r="Y776" s="8"/>
       <c r="Z776" s="8"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A777" s="8"/>
       <c r="B777" s="15"/>
       <c r="C777" s="8"/>
@@ -22488,7 +22515,7 @@
       <c r="Y777" s="8"/>
       <c r="Z777" s="8"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A778" s="8"/>
       <c r="B778" s="15"/>
       <c r="C778" s="8"/>
@@ -22516,7 +22543,7 @@
       <c r="Y778" s="8"/>
       <c r="Z778" s="8"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A779" s="8"/>
       <c r="B779" s="15"/>
       <c r="C779" s="8"/>
@@ -22544,7 +22571,7 @@
       <c r="Y779" s="8"/>
       <c r="Z779" s="8"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A780" s="8"/>
       <c r="B780" s="15"/>
       <c r="C780" s="8"/>
@@ -22572,7 +22599,7 @@
       <c r="Y780" s="8"/>
       <c r="Z780" s="8"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A781" s="8"/>
       <c r="B781" s="15"/>
       <c r="C781" s="8"/>
@@ -22600,7 +22627,7 @@
       <c r="Y781" s="8"/>
       <c r="Z781" s="8"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A782" s="8"/>
       <c r="B782" s="15"/>
       <c r="C782" s="8"/>
@@ -22628,7 +22655,7 @@
       <c r="Y782" s="8"/>
       <c r="Z782" s="8"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A783" s="8"/>
       <c r="B783" s="15"/>
       <c r="C783" s="8"/>
@@ -22656,7 +22683,7 @@
       <c r="Y783" s="8"/>
       <c r="Z783" s="8"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A784" s="8"/>
       <c r="B784" s="15"/>
       <c r="C784" s="8"/>
@@ -22684,7 +22711,7 @@
       <c r="Y784" s="8"/>
       <c r="Z784" s="8"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A785" s="8"/>
       <c r="B785" s="15"/>
       <c r="C785" s="8"/>
@@ -22712,7 +22739,7 @@
       <c r="Y785" s="8"/>
       <c r="Z785" s="8"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A786" s="8"/>
       <c r="B786" s="15"/>
       <c r="C786" s="8"/>
@@ -22740,7 +22767,7 @@
       <c r="Y786" s="8"/>
       <c r="Z786" s="8"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A787" s="8"/>
       <c r="B787" s="15"/>
       <c r="C787" s="8"/>
@@ -22768,7 +22795,7 @@
       <c r="Y787" s="8"/>
       <c r="Z787" s="8"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A788" s="8"/>
       <c r="B788" s="15"/>
       <c r="C788" s="8"/>
@@ -22796,7 +22823,7 @@
       <c r="Y788" s="8"/>
       <c r="Z788" s="8"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A789" s="8"/>
       <c r="B789" s="15"/>
       <c r="C789" s="8"/>
@@ -22824,7 +22851,7 @@
       <c r="Y789" s="8"/>
       <c r="Z789" s="8"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A790" s="8"/>
       <c r="B790" s="15"/>
       <c r="C790" s="8"/>
@@ -22852,7 +22879,7 @@
       <c r="Y790" s="8"/>
       <c r="Z790" s="8"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A791" s="8"/>
       <c r="B791" s="15"/>
       <c r="C791" s="8"/>
@@ -22880,7 +22907,7 @@
       <c r="Y791" s="8"/>
       <c r="Z791" s="8"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A792" s="8"/>
       <c r="B792" s="15"/>
       <c r="C792" s="8"/>
@@ -22908,7 +22935,7 @@
       <c r="Y792" s="8"/>
       <c r="Z792" s="8"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A793" s="8"/>
       <c r="B793" s="15"/>
       <c r="C793" s="8"/>
@@ -22936,7 +22963,7 @@
       <c r="Y793" s="8"/>
       <c r="Z793" s="8"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A794" s="8"/>
       <c r="B794" s="15"/>
       <c r="C794" s="8"/>
@@ -22964,7 +22991,7 @@
       <c r="Y794" s="8"/>
       <c r="Z794" s="8"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A795" s="8"/>
       <c r="B795" s="15"/>
       <c r="C795" s="8"/>
@@ -22992,7 +23019,7 @@
       <c r="Y795" s="8"/>
       <c r="Z795" s="8"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A796" s="8"/>
       <c r="B796" s="15"/>
       <c r="C796" s="8"/>
@@ -23020,7 +23047,7 @@
       <c r="Y796" s="8"/>
       <c r="Z796" s="8"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A797" s="8"/>
       <c r="B797" s="15"/>
       <c r="C797" s="8"/>
@@ -23048,7 +23075,7 @@
       <c r="Y797" s="8"/>
       <c r="Z797" s="8"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A798" s="8"/>
       <c r="B798" s="15"/>
       <c r="C798" s="8"/>
@@ -23076,7 +23103,7 @@
       <c r="Y798" s="8"/>
       <c r="Z798" s="8"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A799" s="8"/>
       <c r="B799" s="15"/>
       <c r="C799" s="8"/>
@@ -23104,7 +23131,7 @@
       <c r="Y799" s="8"/>
       <c r="Z799" s="8"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A800" s="8"/>
       <c r="B800" s="15"/>
       <c r="C800" s="8"/>
@@ -23132,7 +23159,7 @@
       <c r="Y800" s="8"/>
       <c r="Z800" s="8"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A801" s="8"/>
       <c r="B801" s="15"/>
       <c r="C801" s="8"/>
@@ -23160,7 +23187,7 @@
       <c r="Y801" s="8"/>
       <c r="Z801" s="8"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A802" s="8"/>
       <c r="B802" s="15"/>
       <c r="C802" s="8"/>
@@ -23188,7 +23215,7 @@
       <c r="Y802" s="8"/>
       <c r="Z802" s="8"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A803" s="8"/>
       <c r="B803" s="15"/>
       <c r="C803" s="8"/>
@@ -23216,7 +23243,7 @@
       <c r="Y803" s="8"/>
       <c r="Z803" s="8"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A804" s="8"/>
       <c r="B804" s="15"/>
       <c r="C804" s="8"/>
@@ -23244,7 +23271,7 @@
       <c r="Y804" s="8"/>
       <c r="Z804" s="8"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A805" s="8"/>
       <c r="B805" s="15"/>
       <c r="C805" s="8"/>
@@ -23272,7 +23299,7 @@
       <c r="Y805" s="8"/>
       <c r="Z805" s="8"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A806" s="8"/>
       <c r="B806" s="15"/>
       <c r="C806" s="8"/>
@@ -23300,7 +23327,7 @@
       <c r="Y806" s="8"/>
       <c r="Z806" s="8"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A807" s="8"/>
       <c r="B807" s="15"/>
       <c r="C807" s="8"/>
@@ -23328,7 +23355,7 @@
       <c r="Y807" s="8"/>
       <c r="Z807" s="8"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A808" s="8"/>
       <c r="B808" s="15"/>
       <c r="C808" s="8"/>
@@ -23356,7 +23383,7 @@
       <c r="Y808" s="8"/>
       <c r="Z808" s="8"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A809" s="8"/>
       <c r="B809" s="15"/>
       <c r="C809" s="8"/>
@@ -23384,7 +23411,7 @@
       <c r="Y809" s="8"/>
       <c r="Z809" s="8"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A810" s="8"/>
       <c r="B810" s="15"/>
       <c r="C810" s="8"/>
@@ -23412,7 +23439,7 @@
       <c r="Y810" s="8"/>
       <c r="Z810" s="8"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A811" s="8"/>
       <c r="B811" s="15"/>
       <c r="C811" s="8"/>
@@ -23440,7 +23467,7 @@
       <c r="Y811" s="8"/>
       <c r="Z811" s="8"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A812" s="8"/>
       <c r="B812" s="15"/>
       <c r="C812" s="8"/>
@@ -23468,7 +23495,7 @@
       <c r="Y812" s="8"/>
       <c r="Z812" s="8"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A813" s="8"/>
       <c r="B813" s="15"/>
       <c r="C813" s="8"/>
@@ -23496,7 +23523,7 @@
       <c r="Y813" s="8"/>
       <c r="Z813" s="8"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A814" s="8"/>
       <c r="B814" s="15"/>
       <c r="C814" s="8"/>
@@ -23524,7 +23551,7 @@
       <c r="Y814" s="8"/>
       <c r="Z814" s="8"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A815" s="8"/>
       <c r="B815" s="15"/>
       <c r="C815" s="8"/>
@@ -23552,7 +23579,7 @@
       <c r="Y815" s="8"/>
       <c r="Z815" s="8"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A816" s="8"/>
       <c r="B816" s="15"/>
       <c r="C816" s="8"/>
@@ -23580,7 +23607,7 @@
       <c r="Y816" s="8"/>
       <c r="Z816" s="8"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A817" s="8"/>
       <c r="B817" s="15"/>
       <c r="C817" s="8"/>
@@ -23608,7 +23635,7 @@
       <c r="Y817" s="8"/>
       <c r="Z817" s="8"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A818" s="8"/>
       <c r="B818" s="15"/>
       <c r="C818" s="8"/>
@@ -23636,7 +23663,7 @@
       <c r="Y818" s="8"/>
       <c r="Z818" s="8"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A819" s="8"/>
       <c r="B819" s="15"/>
       <c r="C819" s="8"/>
@@ -23664,7 +23691,7 @@
       <c r="Y819" s="8"/>
       <c r="Z819" s="8"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A820" s="8"/>
       <c r="B820" s="15"/>
       <c r="C820" s="8"/>
@@ -23692,7 +23719,7 @@
       <c r="Y820" s="8"/>
       <c r="Z820" s="8"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A821" s="8"/>
       <c r="B821" s="15"/>
       <c r="C821" s="8"/>
@@ -23720,7 +23747,7 @@
       <c r="Y821" s="8"/>
       <c r="Z821" s="8"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A822" s="8"/>
       <c r="B822" s="15"/>
       <c r="C822" s="8"/>
@@ -23748,7 +23775,7 @@
       <c r="Y822" s="8"/>
       <c r="Z822" s="8"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A823" s="8"/>
       <c r="B823" s="15"/>
       <c r="C823" s="8"/>
@@ -23776,7 +23803,7 @@
       <c r="Y823" s="8"/>
       <c r="Z823" s="8"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A824" s="8"/>
       <c r="B824" s="15"/>
       <c r="C824" s="8"/>
@@ -23804,7 +23831,7 @@
       <c r="Y824" s="8"/>
       <c r="Z824" s="8"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A825" s="8"/>
       <c r="B825" s="15"/>
       <c r="C825" s="8"/>
@@ -23832,7 +23859,7 @@
       <c r="Y825" s="8"/>
       <c r="Z825" s="8"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A826" s="8"/>
       <c r="B826" s="15"/>
       <c r="C826" s="8"/>
@@ -23860,7 +23887,7 @@
       <c r="Y826" s="8"/>
       <c r="Z826" s="8"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A827" s="8"/>
       <c r="B827" s="15"/>
       <c r="C827" s="8"/>
@@ -23888,7 +23915,7 @@
       <c r="Y827" s="8"/>
       <c r="Z827" s="8"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A828" s="8"/>
       <c r="B828" s="15"/>
       <c r="C828" s="8"/>
@@ -23916,7 +23943,7 @@
       <c r="Y828" s="8"/>
       <c r="Z828" s="8"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A829" s="8"/>
       <c r="B829" s="15"/>
       <c r="C829" s="8"/>
@@ -23944,7 +23971,7 @@
       <c r="Y829" s="8"/>
       <c r="Z829" s="8"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A830" s="8"/>
       <c r="B830" s="15"/>
       <c r="C830" s="8"/>
@@ -23972,7 +23999,7 @@
       <c r="Y830" s="8"/>
       <c r="Z830" s="8"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A831" s="8"/>
       <c r="B831" s="15"/>
       <c r="C831" s="8"/>
@@ -24000,7 +24027,7 @@
       <c r="Y831" s="8"/>
       <c r="Z831" s="8"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A832" s="8"/>
       <c r="B832" s="15"/>
       <c r="C832" s="8"/>
@@ -24028,7 +24055,7 @@
       <c r="Y832" s="8"/>
       <c r="Z832" s="8"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A833" s="8"/>
       <c r="B833" s="15"/>
       <c r="C833" s="8"/>
@@ -24056,7 +24083,7 @@
       <c r="Y833" s="8"/>
       <c r="Z833" s="8"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A834" s="8"/>
       <c r="B834" s="15"/>
       <c r="C834" s="8"/>
@@ -24084,7 +24111,7 @@
       <c r="Y834" s="8"/>
       <c r="Z834" s="8"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A835" s="8"/>
       <c r="B835" s="15"/>
       <c r="C835" s="8"/>
@@ -24112,7 +24139,7 @@
       <c r="Y835" s="8"/>
       <c r="Z835" s="8"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A836" s="8"/>
       <c r="B836" s="15"/>
       <c r="C836" s="8"/>
@@ -24140,7 +24167,7 @@
       <c r="Y836" s="8"/>
       <c r="Z836" s="8"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A837" s="8"/>
       <c r="B837" s="15"/>
       <c r="C837" s="8"/>
@@ -24168,7 +24195,7 @@
       <c r="Y837" s="8"/>
       <c r="Z837" s="8"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A838" s="8"/>
       <c r="B838" s="15"/>
       <c r="C838" s="8"/>
@@ -24196,7 +24223,7 @@
       <c r="Y838" s="8"/>
       <c r="Z838" s="8"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A839" s="8"/>
       <c r="B839" s="15"/>
       <c r="C839" s="8"/>
@@ -24224,7 +24251,7 @@
       <c r="Y839" s="8"/>
       <c r="Z839" s="8"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A840" s="8"/>
       <c r="B840" s="15"/>
       <c r="C840" s="8"/>
@@ -24252,7 +24279,7 @@
       <c r="Y840" s="8"/>
       <c r="Z840" s="8"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A841" s="8"/>
       <c r="B841" s="15"/>
       <c r="C841" s="8"/>
@@ -24280,7 +24307,7 @@
       <c r="Y841" s="8"/>
       <c r="Z841" s="8"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A842" s="8"/>
       <c r="B842" s="15"/>
       <c r="C842" s="8"/>
@@ -24308,7 +24335,7 @@
       <c r="Y842" s="8"/>
       <c r="Z842" s="8"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A843" s="8"/>
       <c r="B843" s="15"/>
       <c r="C843" s="8"/>
@@ -24336,7 +24363,7 @@
       <c r="Y843" s="8"/>
       <c r="Z843" s="8"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A844" s="8"/>
       <c r="B844" s="15"/>
       <c r="C844" s="8"/>
@@ -24364,7 +24391,7 @@
       <c r="Y844" s="8"/>
       <c r="Z844" s="8"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A845" s="8"/>
       <c r="B845" s="15"/>
       <c r="C845" s="8"/>
@@ -24392,7 +24419,7 @@
       <c r="Y845" s="8"/>
       <c r="Z845" s="8"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A846" s="8"/>
       <c r="B846" s="15"/>
       <c r="C846" s="8"/>
@@ -24420,7 +24447,7 @@
       <c r="Y846" s="8"/>
       <c r="Z846" s="8"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A847" s="8"/>
       <c r="B847" s="15"/>
       <c r="C847" s="8"/>
@@ -24448,7 +24475,7 @@
       <c r="Y847" s="8"/>
       <c r="Z847" s="8"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A848" s="8"/>
       <c r="B848" s="15"/>
       <c r="C848" s="8"/>
@@ -24476,7 +24503,7 @@
       <c r="Y848" s="8"/>
       <c r="Z848" s="8"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A849" s="8"/>
       <c r="B849" s="15"/>
       <c r="C849" s="8"/>
@@ -24504,7 +24531,7 @@
       <c r="Y849" s="8"/>
       <c r="Z849" s="8"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A850" s="8"/>
       <c r="B850" s="15"/>
       <c r="C850" s="8"/>
@@ -24532,7 +24559,7 @@
       <c r="Y850" s="8"/>
       <c r="Z850" s="8"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A851" s="8"/>
       <c r="B851" s="15"/>
       <c r="C851" s="8"/>
@@ -24560,7 +24587,7 @@
       <c r="Y851" s="8"/>
       <c r="Z851" s="8"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A852" s="8"/>
       <c r="B852" s="15"/>
       <c r="C852" s="8"/>
@@ -24588,7 +24615,7 @@
       <c r="Y852" s="8"/>
       <c r="Z852" s="8"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A853" s="8"/>
       <c r="B853" s="15"/>
       <c r="C853" s="8"/>
@@ -24616,7 +24643,7 @@
       <c r="Y853" s="8"/>
       <c r="Z853" s="8"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A854" s="8"/>
       <c r="B854" s="15"/>
       <c r="C854" s="8"/>
@@ -24644,7 +24671,7 @@
       <c r="Y854" s="8"/>
       <c r="Z854" s="8"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A855" s="8"/>
       <c r="B855" s="15"/>
       <c r="C855" s="8"/>
@@ -24672,7 +24699,7 @@
       <c r="Y855" s="8"/>
       <c r="Z855" s="8"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A856" s="8"/>
       <c r="B856" s="15"/>
       <c r="C856" s="8"/>
@@ -24700,7 +24727,7 @@
       <c r="Y856" s="8"/>
       <c r="Z856" s="8"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A857" s="8"/>
       <c r="B857" s="15"/>
       <c r="C857" s="8"/>
@@ -24728,7 +24755,7 @@
       <c r="Y857" s="8"/>
       <c r="Z857" s="8"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A858" s="8"/>
       <c r="B858" s="15"/>
       <c r="C858" s="8"/>
@@ -24756,7 +24783,7 @@
       <c r="Y858" s="8"/>
       <c r="Z858" s="8"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A859" s="8"/>
       <c r="B859" s="15"/>
       <c r="C859" s="8"/>
@@ -24784,7 +24811,7 @@
       <c r="Y859" s="8"/>
       <c r="Z859" s="8"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A860" s="8"/>
       <c r="B860" s="15"/>
       <c r="C860" s="8"/>
@@ -24812,7 +24839,7 @@
       <c r="Y860" s="8"/>
       <c r="Z860" s="8"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A861" s="8"/>
       <c r="B861" s="15"/>
       <c r="C861" s="8"/>
@@ -24840,7 +24867,7 @@
       <c r="Y861" s="8"/>
       <c r="Z861" s="8"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A862" s="8"/>
       <c r="B862" s="15"/>
       <c r="C862" s="8"/>
@@ -24868,7 +24895,7 @@
       <c r="Y862" s="8"/>
       <c r="Z862" s="8"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A863" s="8"/>
       <c r="B863" s="15"/>
       <c r="C863" s="8"/>
@@ -24896,7 +24923,7 @@
       <c r="Y863" s="8"/>
       <c r="Z863" s="8"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A864" s="8"/>
       <c r="B864" s="15"/>
       <c r="C864" s="8"/>
@@ -24924,7 +24951,7 @@
       <c r="Y864" s="8"/>
       <c r="Z864" s="8"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A865" s="8"/>
       <c r="B865" s="15"/>
       <c r="C865" s="8"/>
@@ -24952,7 +24979,7 @@
       <c r="Y865" s="8"/>
       <c r="Z865" s="8"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A866" s="8"/>
       <c r="B866" s="15"/>
       <c r="C866" s="8"/>
@@ -24980,7 +25007,7 @@
       <c r="Y866" s="8"/>
       <c r="Z866" s="8"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A867" s="8"/>
       <c r="B867" s="15"/>
       <c r="C867" s="8"/>
@@ -25008,7 +25035,7 @@
       <c r="Y867" s="8"/>
       <c r="Z867" s="8"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A868" s="8"/>
       <c r="B868" s="15"/>
       <c r="C868" s="8"/>
@@ -25036,7 +25063,7 @@
       <c r="Y868" s="8"/>
       <c r="Z868" s="8"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A869" s="8"/>
       <c r="B869" s="15"/>
       <c r="C869" s="8"/>
@@ -25064,7 +25091,7 @@
       <c r="Y869" s="8"/>
       <c r="Z869" s="8"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A870" s="8"/>
       <c r="B870" s="15"/>
       <c r="C870" s="8"/>
@@ -25092,7 +25119,7 @@
       <c r="Y870" s="8"/>
       <c r="Z870" s="8"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A871" s="8"/>
       <c r="B871" s="15"/>
       <c r="C871" s="8"/>
@@ -25120,7 +25147,7 @@
       <c r="Y871" s="8"/>
       <c r="Z871" s="8"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A872" s="8"/>
       <c r="B872" s="15"/>
       <c r="C872" s="8"/>
@@ -25148,7 +25175,7 @@
       <c r="Y872" s="8"/>
       <c r="Z872" s="8"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A873" s="8"/>
       <c r="B873" s="15"/>
       <c r="C873" s="8"/>
@@ -25176,7 +25203,7 @@
       <c r="Y873" s="8"/>
       <c r="Z873" s="8"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A874" s="8"/>
       <c r="B874" s="15"/>
       <c r="C874" s="8"/>
@@ -25204,7 +25231,7 @@
       <c r="Y874" s="8"/>
       <c r="Z874" s="8"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A875" s="8"/>
       <c r="B875" s="15"/>
       <c r="C875" s="8"/>
@@ -25232,7 +25259,7 @@
       <c r="Y875" s="8"/>
       <c r="Z875" s="8"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A876" s="8"/>
       <c r="B876" s="15"/>
       <c r="C876" s="8"/>
@@ -25260,7 +25287,7 @@
       <c r="Y876" s="8"/>
       <c r="Z876" s="8"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A877" s="8"/>
       <c r="B877" s="15"/>
       <c r="C877" s="8"/>
@@ -25288,7 +25315,7 @@
       <c r="Y877" s="8"/>
       <c r="Z877" s="8"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A878" s="8"/>
       <c r="B878" s="15"/>
       <c r="C878" s="8"/>
@@ -25316,7 +25343,7 @@
       <c r="Y878" s="8"/>
       <c r="Z878" s="8"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A879" s="8"/>
       <c r="B879" s="15"/>
       <c r="C879" s="8"/>
@@ -25344,7 +25371,7 @@
       <c r="Y879" s="8"/>
       <c r="Z879" s="8"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A880" s="8"/>
       <c r="B880" s="15"/>
       <c r="C880" s="8"/>
@@ -25372,7 +25399,7 @@
       <c r="Y880" s="8"/>
       <c r="Z880" s="8"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A881" s="8"/>
       <c r="B881" s="15"/>
       <c r="C881" s="8"/>
@@ -25400,7 +25427,7 @@
       <c r="Y881" s="8"/>
       <c r="Z881" s="8"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A882" s="8"/>
       <c r="B882" s="15"/>
       <c r="C882" s="8"/>
@@ -25428,7 +25455,7 @@
       <c r="Y882" s="8"/>
       <c r="Z882" s="8"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A883" s="8"/>
       <c r="B883" s="15"/>
       <c r="C883" s="8"/>
@@ -25456,7 +25483,7 @@
       <c r="Y883" s="8"/>
       <c r="Z883" s="8"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A884" s="8"/>
       <c r="B884" s="15"/>
       <c r="C884" s="8"/>
@@ -25484,7 +25511,7 @@
       <c r="Y884" s="8"/>
       <c r="Z884" s="8"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A885" s="8"/>
       <c r="B885" s="15"/>
       <c r="C885" s="8"/>
@@ -25512,7 +25539,7 @@
       <c r="Y885" s="8"/>
       <c r="Z885" s="8"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A886" s="8"/>
       <c r="B886" s="15"/>
       <c r="C886" s="8"/>
@@ -25540,7 +25567,7 @@
       <c r="Y886" s="8"/>
       <c r="Z886" s="8"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A887" s="8"/>
       <c r="B887" s="15"/>
       <c r="C887" s="8"/>
@@ -25568,7 +25595,7 @@
       <c r="Y887" s="8"/>
       <c r="Z887" s="8"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A888" s="8"/>
       <c r="B888" s="15"/>
       <c r="C888" s="8"/>
@@ -25596,7 +25623,7 @@
       <c r="Y888" s="8"/>
       <c r="Z888" s="8"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A889" s="8"/>
       <c r="B889" s="15"/>
       <c r="C889" s="8"/>
@@ -25624,7 +25651,7 @@
       <c r="Y889" s="8"/>
       <c r="Z889" s="8"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A890" s="8"/>
       <c r="B890" s="15"/>
       <c r="C890" s="8"/>
@@ -25652,7 +25679,7 @@
       <c r="Y890" s="8"/>
       <c r="Z890" s="8"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A891" s="8"/>
       <c r="B891" s="15"/>
       <c r="C891" s="8"/>
@@ -25680,7 +25707,7 @@
       <c r="Y891" s="8"/>
       <c r="Z891" s="8"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A892" s="8"/>
       <c r="B892" s="15"/>
       <c r="C892" s="8"/>
@@ -25708,7 +25735,7 @@
       <c r="Y892" s="8"/>
       <c r="Z892" s="8"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A893" s="8"/>
       <c r="B893" s="15"/>
       <c r="C893" s="8"/>
@@ -25736,7 +25763,7 @@
       <c r="Y893" s="8"/>
       <c r="Z893" s="8"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A894" s="8"/>
       <c r="B894" s="15"/>
       <c r="C894" s="8"/>
@@ -25764,7 +25791,7 @@
       <c r="Y894" s="8"/>
       <c r="Z894" s="8"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A895" s="8"/>
       <c r="B895" s="15"/>
       <c r="C895" s="8"/>
@@ -25792,7 +25819,7 @@
       <c r="Y895" s="8"/>
       <c r="Z895" s="8"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A896" s="8"/>
       <c r="B896" s="15"/>
       <c r="C896" s="8"/>
@@ -25820,7 +25847,7 @@
       <c r="Y896" s="8"/>
       <c r="Z896" s="8"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A897" s="8"/>
       <c r="B897" s="15"/>
       <c r="C897" s="8"/>
@@ -25848,7 +25875,7 @@
       <c r="Y897" s="8"/>
       <c r="Z897" s="8"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A898" s="8"/>
       <c r="B898" s="15"/>
       <c r="C898" s="8"/>
@@ -25876,7 +25903,7 @@
       <c r="Y898" s="8"/>
       <c r="Z898" s="8"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A899" s="8"/>
       <c r="B899" s="15"/>
       <c r="C899" s="8"/>
@@ -25904,7 +25931,7 @@
       <c r="Y899" s="8"/>
       <c r="Z899" s="8"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A900" s="8"/>
       <c r="B900" s="15"/>
       <c r="C900" s="8"/>
@@ -25932,7 +25959,7 @@
       <c r="Y900" s="8"/>
       <c r="Z900" s="8"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A901" s="8"/>
       <c r="B901" s="15"/>
       <c r="C901" s="8"/>
@@ -25960,7 +25987,7 @@
       <c r="Y901" s="8"/>
       <c r="Z901" s="8"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A902" s="8"/>
       <c r="B902" s="15"/>
       <c r="C902" s="8"/>
@@ -25988,7 +26015,7 @@
       <c r="Y902" s="8"/>
       <c r="Z902" s="8"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A903" s="8"/>
       <c r="B903" s="15"/>
       <c r="C903" s="8"/>
@@ -26016,7 +26043,7 @@
       <c r="Y903" s="8"/>
       <c r="Z903" s="8"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A904" s="8"/>
       <c r="B904" s="15"/>
       <c r="C904" s="8"/>
@@ -26044,7 +26071,7 @@
       <c r="Y904" s="8"/>
       <c r="Z904" s="8"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A905" s="8"/>
       <c r="B905" s="15"/>
       <c r="C905" s="8"/>
@@ -26072,7 +26099,7 @@
       <c r="Y905" s="8"/>
       <c r="Z905" s="8"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A906" s="8"/>
       <c r="B906" s="15"/>
       <c r="C906" s="8"/>
@@ -26100,7 +26127,7 @@
       <c r="Y906" s="8"/>
       <c r="Z906" s="8"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A907" s="8"/>
       <c r="B907" s="15"/>
       <c r="C907" s="8"/>
@@ -26128,7 +26155,7 @@
       <c r="Y907" s="8"/>
       <c r="Z907" s="8"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A908" s="8"/>
       <c r="B908" s="15"/>
       <c r="C908" s="8"/>
@@ -26156,7 +26183,7 @@
       <c r="Y908" s="8"/>
       <c r="Z908" s="8"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A909" s="8"/>
       <c r="B909" s="15"/>
       <c r="C909" s="8"/>
@@ -26184,7 +26211,7 @@
       <c r="Y909" s="8"/>
       <c r="Z909" s="8"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A910" s="8"/>
       <c r="B910" s="15"/>
       <c r="C910" s="8"/>
@@ -26212,7 +26239,7 @@
       <c r="Y910" s="8"/>
       <c r="Z910" s="8"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A911" s="8"/>
       <c r="B911" s="15"/>
       <c r="C911" s="8"/>
@@ -26240,7 +26267,7 @@
       <c r="Y911" s="8"/>
       <c r="Z911" s="8"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A912" s="8"/>
       <c r="B912" s="15"/>
       <c r="C912" s="8"/>
@@ -26268,7 +26295,7 @@
       <c r="Y912" s="8"/>
       <c r="Z912" s="8"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A913" s="8"/>
       <c r="B913" s="15"/>
       <c r="C913" s="8"/>
@@ -26296,7 +26323,7 @@
       <c r="Y913" s="8"/>
       <c r="Z913" s="8"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A914" s="8"/>
       <c r="B914" s="15"/>
       <c r="C914" s="8"/>
@@ -26324,7 +26351,7 @@
       <c r="Y914" s="8"/>
       <c r="Z914" s="8"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A915" s="8"/>
       <c r="B915" s="15"/>
       <c r="C915" s="8"/>
@@ -26352,7 +26379,7 @@
       <c r="Y915" s="8"/>
       <c r="Z915" s="8"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A916" s="8"/>
       <c r="B916" s="15"/>
       <c r="C916" s="8"/>
@@ -26380,7 +26407,7 @@
       <c r="Y916" s="8"/>
       <c r="Z916" s="8"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A917" s="8"/>
       <c r="B917" s="15"/>
       <c r="C917" s="8"/>
@@ -26408,7 +26435,7 @@
       <c r="Y917" s="8"/>
       <c r="Z917" s="8"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A918" s="8"/>
       <c r="B918" s="15"/>
       <c r="C918" s="8"/>
@@ -26436,7 +26463,7 @@
       <c r="Y918" s="8"/>
       <c r="Z918" s="8"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A919" s="8"/>
       <c r="B919" s="15"/>
       <c r="C919" s="8"/>
@@ -26464,7 +26491,7 @@
       <c r="Y919" s="8"/>
       <c r="Z919" s="8"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A920" s="8"/>
       <c r="B920" s="15"/>
       <c r="C920" s="8"/>
@@ -26492,7 +26519,7 @@
       <c r="Y920" s="8"/>
       <c r="Z920" s="8"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A921" s="8"/>
       <c r="B921" s="15"/>
       <c r="C921" s="8"/>
@@ -26520,7 +26547,7 @@
       <c r="Y921" s="8"/>
       <c r="Z921" s="8"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A922" s="8"/>
       <c r="B922" s="15"/>
       <c r="C922" s="8"/>
@@ -26548,7 +26575,7 @@
       <c r="Y922" s="8"/>
       <c r="Z922" s="8"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A923" s="8"/>
       <c r="B923" s="15"/>
       <c r="C923" s="8"/>
@@ -26576,7 +26603,7 @@
       <c r="Y923" s="8"/>
       <c r="Z923" s="8"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A924" s="8"/>
       <c r="B924" s="15"/>
       <c r="C924" s="8"/>
@@ -26604,7 +26631,7 @@
       <c r="Y924" s="8"/>
       <c r="Z924" s="8"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A925" s="8"/>
       <c r="B925" s="15"/>
       <c r="C925" s="8"/>
@@ -26632,7 +26659,7 @@
       <c r="Y925" s="8"/>
       <c r="Z925" s="8"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A926" s="8"/>
       <c r="B926" s="15"/>
       <c r="C926" s="8"/>
@@ -26660,7 +26687,7 @@
       <c r="Y926" s="8"/>
       <c r="Z926" s="8"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A927" s="8"/>
       <c r="B927" s="15"/>
       <c r="C927" s="8"/>
@@ -26688,7 +26715,7 @@
       <c r="Y927" s="8"/>
       <c r="Z927" s="8"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A928" s="8"/>
       <c r="B928" s="15"/>
       <c r="C928" s="8"/>
@@ -26716,7 +26743,7 @@
       <c r="Y928" s="8"/>
       <c r="Z928" s="8"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A929" s="8"/>
       <c r="B929" s="15"/>
       <c r="C929" s="8"/>
@@ -26744,7 +26771,7 @@
       <c r="Y929" s="8"/>
       <c r="Z929" s="8"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A930" s="8"/>
       <c r="B930" s="15"/>
       <c r="C930" s="8"/>
@@ -26772,7 +26799,7 @@
       <c r="Y930" s="8"/>
       <c r="Z930" s="8"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A931" s="8"/>
       <c r="B931" s="15"/>
       <c r="C931" s="8"/>
@@ -26800,7 +26827,7 @@
       <c r="Y931" s="8"/>
       <c r="Z931" s="8"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A932" s="8"/>
       <c r="B932" s="15"/>
       <c r="C932" s="8"/>
@@ -26828,7 +26855,7 @@
       <c r="Y932" s="8"/>
       <c r="Z932" s="8"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A933" s="8"/>
       <c r="B933" s="15"/>
       <c r="C933" s="8"/>
@@ -26856,7 +26883,7 @@
       <c r="Y933" s="8"/>
       <c r="Z933" s="8"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A934" s="8"/>
       <c r="B934" s="15"/>
       <c r="C934" s="8"/>
@@ -26884,7 +26911,7 @@
       <c r="Y934" s="8"/>
       <c r="Z934" s="8"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A935" s="8"/>
       <c r="B935" s="15"/>
       <c r="C935" s="8"/>
@@ -26912,7 +26939,7 @@
       <c r="Y935" s="8"/>
       <c r="Z935" s="8"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A936" s="8"/>
       <c r="B936" s="15"/>
       <c r="C936" s="8"/>
@@ -26940,7 +26967,7 @@
       <c r="Y936" s="8"/>
       <c r="Z936" s="8"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A937" s="8"/>
       <c r="B937" s="15"/>
       <c r="C937" s="8"/>
@@ -26968,7 +26995,7 @@
       <c r="Y937" s="8"/>
       <c r="Z937" s="8"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A938" s="8"/>
       <c r="B938" s="15"/>
       <c r="C938" s="8"/>
@@ -26996,7 +27023,7 @@
       <c r="Y938" s="8"/>
       <c r="Z938" s="8"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A939" s="8"/>
       <c r="B939" s="15"/>
       <c r="C939" s="8"/>
@@ -27024,7 +27051,7 @@
       <c r="Y939" s="8"/>
       <c r="Z939" s="8"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A940" s="8"/>
       <c r="B940" s="15"/>
       <c r="C940" s="8"/>
@@ -27052,7 +27079,7 @@
       <c r="Y940" s="8"/>
       <c r="Z940" s="8"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A941" s="8"/>
       <c r="B941" s="15"/>
       <c r="C941" s="8"/>
@@ -27080,7 +27107,7 @@
       <c r="Y941" s="8"/>
       <c r="Z941" s="8"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A942" s="8"/>
       <c r="B942" s="15"/>
       <c r="C942" s="8"/>
@@ -27108,7 +27135,7 @@
       <c r="Y942" s="8"/>
       <c r="Z942" s="8"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A943" s="8"/>
       <c r="B943" s="15"/>
       <c r="C943" s="8"/>
@@ -27136,7 +27163,7 @@
       <c r="Y943" s="8"/>
       <c r="Z943" s="8"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A944" s="8"/>
       <c r="B944" s="15"/>
       <c r="C944" s="8"/>
@@ -27164,7 +27191,7 @@
       <c r="Y944" s="8"/>
       <c r="Z944" s="8"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A945" s="8"/>
       <c r="B945" s="15"/>
       <c r="C945" s="8"/>
@@ -27192,7 +27219,7 @@
       <c r="Y945" s="8"/>
       <c r="Z945" s="8"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A946" s="8"/>
       <c r="B946" s="15"/>
       <c r="C946" s="8"/>
@@ -27220,7 +27247,7 @@
       <c r="Y946" s="8"/>
       <c r="Z946" s="8"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A947" s="8"/>
       <c r="B947" s="15"/>
       <c r="C947" s="8"/>
@@ -27248,7 +27275,7 @@
       <c r="Y947" s="8"/>
       <c r="Z947" s="8"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A948" s="8"/>
       <c r="B948" s="15"/>
       <c r="C948" s="8"/>
@@ -27276,7 +27303,7 @@
       <c r="Y948" s="8"/>
       <c r="Z948" s="8"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A949" s="8"/>
       <c r="B949" s="15"/>
       <c r="C949" s="8"/>
@@ -27304,7 +27331,7 @@
       <c r="Y949" s="8"/>
       <c r="Z949" s="8"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A950" s="8"/>
       <c r="B950" s="15"/>
       <c r="C950" s="8"/>
@@ -27332,7 +27359,7 @@
       <c r="Y950" s="8"/>
       <c r="Z950" s="8"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A951" s="8"/>
       <c r="B951" s="15"/>
       <c r="C951" s="8"/>
@@ -27360,7 +27387,7 @@
       <c r="Y951" s="8"/>
       <c r="Z951" s="8"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A952" s="8"/>
       <c r="B952" s="15"/>
       <c r="C952" s="8"/>
@@ -27388,7 +27415,7 @@
       <c r="Y952" s="8"/>
       <c r="Z952" s="8"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A953" s="8"/>
       <c r="B953" s="15"/>
       <c r="C953" s="8"/>
@@ -27416,7 +27443,7 @@
       <c r="Y953" s="8"/>
       <c r="Z953" s="8"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A954" s="8"/>
       <c r="B954" s="15"/>
       <c r="C954" s="8"/>
@@ -27444,7 +27471,7 @@
       <c r="Y954" s="8"/>
       <c r="Z954" s="8"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A955" s="8"/>
       <c r="B955" s="15"/>
       <c r="C955" s="8"/>
@@ -27472,7 +27499,7 @@
       <c r="Y955" s="8"/>
       <c r="Z955" s="8"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A956" s="8"/>
       <c r="B956" s="15"/>
       <c r="C956" s="8"/>
@@ -27500,7 +27527,7 @@
       <c r="Y956" s="8"/>
       <c r="Z956" s="8"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A957" s="8"/>
       <c r="B957" s="15"/>
       <c r="C957" s="8"/>
@@ -27528,7 +27555,7 @@
       <c r="Y957" s="8"/>
       <c r="Z957" s="8"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A958" s="8"/>
       <c r="B958" s="15"/>
       <c r="C958" s="8"/>
@@ -27556,7 +27583,7 @@
       <c r="Y958" s="8"/>
       <c r="Z958" s="8"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A959" s="8"/>
       <c r="B959" s="15"/>
       <c r="C959" s="8"/>
@@ -27584,7 +27611,7 @@
       <c r="Y959" s="8"/>
       <c r="Z959" s="8"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A960" s="8"/>
       <c r="B960" s="15"/>
       <c r="C960" s="8"/>
@@ -27612,7 +27639,7 @@
       <c r="Y960" s="8"/>
       <c r="Z960" s="8"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A961" s="8"/>
       <c r="B961" s="15"/>
       <c r="C961" s="8"/>
@@ -27640,7 +27667,7 @@
       <c r="Y961" s="8"/>
       <c r="Z961" s="8"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A962" s="8"/>
       <c r="B962" s="15"/>
       <c r="C962" s="8"/>
@@ -27668,7 +27695,7 @@
       <c r="Y962" s="8"/>
       <c r="Z962" s="8"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A963" s="8"/>
       <c r="B963" s="15"/>
       <c r="C963" s="8"/>
@@ -27696,7 +27723,7 @@
       <c r="Y963" s="8"/>
       <c r="Z963" s="8"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A964" s="8"/>
       <c r="B964" s="15"/>
       <c r="C964" s="8"/>
@@ -27724,7 +27751,7 @@
       <c r="Y964" s="8"/>
       <c r="Z964" s="8"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A965" s="8"/>
       <c r="B965" s="15"/>
       <c r="C965" s="8"/>
@@ -27752,7 +27779,7 @@
       <c r="Y965" s="8"/>
       <c r="Z965" s="8"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A966" s="8"/>
       <c r="B966" s="15"/>
       <c r="C966" s="8"/>
@@ -27780,7 +27807,7 @@
       <c r="Y966" s="8"/>
       <c r="Z966" s="8"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A967" s="8"/>
       <c r="B967" s="15"/>
       <c r="C967" s="8"/>
@@ -27808,7 +27835,7 @@
       <c r="Y967" s="8"/>
       <c r="Z967" s="8"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A968" s="8"/>
       <c r="B968" s="15"/>
       <c r="C968" s="8"/>
@@ -27836,7 +27863,7 @@
       <c r="Y968" s="8"/>
       <c r="Z968" s="8"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A969" s="8"/>
       <c r="B969" s="15"/>
       <c r="C969" s="8"/>
@@ -27864,7 +27891,7 @@
       <c r="Y969" s="8"/>
       <c r="Z969" s="8"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A970" s="8"/>
       <c r="B970" s="15"/>
       <c r="C970" s="8"/>
@@ -27892,7 +27919,7 @@
       <c r="Y970" s="8"/>
       <c r="Z970" s="8"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A971" s="8"/>
       <c r="B971" s="15"/>
       <c r="C971" s="8"/>
@@ -27920,7 +27947,7 @@
       <c r="Y971" s="8"/>
       <c r="Z971" s="8"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A972" s="8"/>
       <c r="B972" s="15"/>
       <c r="C972" s="8"/>
@@ -27948,7 +27975,7 @@
       <c r="Y972" s="8"/>
       <c r="Z972" s="8"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A973" s="8"/>
       <c r="B973" s="15"/>
       <c r="C973" s="8"/>
@@ -27976,7 +28003,7 @@
       <c r="Y973" s="8"/>
       <c r="Z973" s="8"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A974" s="8"/>
       <c r="B974" s="15"/>
       <c r="C974" s="8"/>
@@ -28004,7 +28031,7 @@
       <c r="Y974" s="8"/>
       <c r="Z974" s="8"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A975" s="8"/>
       <c r="B975" s="15"/>
       <c r="C975" s="8"/>
@@ -28032,7 +28059,7 @@
       <c r="Y975" s="8"/>
       <c r="Z975" s="8"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A976" s="8"/>
       <c r="B976" s="15"/>
       <c r="C976" s="8"/>
@@ -28060,7 +28087,7 @@
       <c r="Y976" s="8"/>
       <c r="Z976" s="8"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A977" s="8"/>
       <c r="B977" s="15"/>
       <c r="C977" s="8"/>
@@ -28088,7 +28115,7 @@
       <c r="Y977" s="8"/>
       <c r="Z977" s="8"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A978" s="8"/>
       <c r="B978" s="15"/>
       <c r="C978" s="8"/>
@@ -28116,7 +28143,7 @@
       <c r="Y978" s="8"/>
       <c r="Z978" s="8"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A979" s="8"/>
       <c r="B979" s="15"/>
       <c r="C979" s="8"/>
@@ -28144,7 +28171,7 @@
       <c r="Y979" s="8"/>
       <c r="Z979" s="8"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A980" s="8"/>
       <c r="B980" s="15"/>
       <c r="C980" s="8"/>
@@ -28172,7 +28199,7 @@
       <c r="Y980" s="8"/>
       <c r="Z980" s="8"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A981" s="8"/>
       <c r="B981" s="15"/>
       <c r="C981" s="8"/>
@@ -28200,7 +28227,7 @@
       <c r="Y981" s="8"/>
       <c r="Z981" s="8"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A982" s="8"/>
       <c r="B982" s="15"/>
       <c r="C982" s="8"/>
@@ -28228,7 +28255,7 @@
       <c r="Y982" s="8"/>
       <c r="Z982" s="8"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A983" s="8"/>
       <c r="B983" s="15"/>
       <c r="C983" s="8"/>
@@ -28256,7 +28283,7 @@
       <c r="Y983" s="8"/>
       <c r="Z983" s="8"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A984" s="8"/>
       <c r="B984" s="15"/>
       <c r="C984" s="8"/>
@@ -28284,7 +28311,7 @@
       <c r="Y984" s="8"/>
       <c r="Z984" s="8"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A985" s="8"/>
       <c r="B985" s="15"/>
       <c r="C985" s="8"/>
@@ -28312,7 +28339,7 @@
       <c r="Y985" s="8"/>
       <c r="Z985" s="8"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A986" s="8"/>
       <c r="B986" s="15"/>
       <c r="C986" s="8"/>
@@ -28340,7 +28367,7 @@
       <c r="Y986" s="8"/>
       <c r="Z986" s="8"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A987" s="8"/>
       <c r="B987" s="15"/>
       <c r="C987" s="8"/>
@@ -28368,7 +28395,7 @@
       <c r="Y987" s="8"/>
       <c r="Z987" s="8"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A988" s="8"/>
       <c r="B988" s="15"/>
       <c r="C988" s="8"/>
@@ -28396,7 +28423,7 @@
       <c r="Y988" s="8"/>
       <c r="Z988" s="8"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A989" s="8"/>
       <c r="B989" s="15"/>
       <c r="C989" s="8"/>
@@ -28424,7 +28451,7 @@
       <c r="Y989" s="8"/>
       <c r="Z989" s="8"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A990" s="8"/>
       <c r="B990" s="15"/>
       <c r="C990" s="8"/>
@@ -28452,7 +28479,7 @@
       <c r="Y990" s="8"/>
       <c r="Z990" s="8"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A991" s="8"/>
       <c r="B991" s="15"/>
       <c r="C991" s="8"/>
@@ -28480,7 +28507,7 @@
       <c r="Y991" s="8"/>
       <c r="Z991" s="8"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A992" s="8"/>
       <c r="B992" s="15"/>
       <c r="C992" s="8"/>
@@ -28508,7 +28535,7 @@
       <c r="Y992" s="8"/>
       <c r="Z992" s="8"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A993" s="8"/>
       <c r="B993" s="15"/>
       <c r="C993" s="8"/>
@@ -28536,7 +28563,7 @@
       <c r="Y993" s="8"/>
       <c r="Z993" s="8"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A994" s="8"/>
       <c r="B994" s="15"/>
       <c r="C994" s="8"/>
@@ -28564,7 +28591,7 @@
       <c r="Y994" s="8"/>
       <c r="Z994" s="8"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A995" s="8"/>
       <c r="B995" s="15"/>
       <c r="C995" s="8"/>
@@ -28592,7 +28619,7 @@
       <c r="Y995" s="8"/>
       <c r="Z995" s="8"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A996" s="8"/>
       <c r="B996" s="15"/>
       <c r="C996" s="8"/>
@@ -28620,7 +28647,7 @@
       <c r="Y996" s="8"/>
       <c r="Z996" s="8"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A997" s="8"/>
       <c r="B997" s="15"/>
       <c r="C997" s="8"/>
@@ -28648,7 +28675,7 @@
       <c r="Y997" s="8"/>
       <c r="Z997" s="8"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A998" s="8"/>
       <c r="B998" s="15"/>
       <c r="C998" s="8"/>
@@ -28676,7 +28703,7 @@
       <c r="Y998" s="8"/>
       <c r="Z998" s="8"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A999" s="8"/>
       <c r="B999" s="15"/>
       <c r="C999" s="8"/>
@@ -28704,7 +28731,7 @@
       <c r="Y999" s="8"/>
       <c r="Z999" s="8"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1000" s="8"/>
       <c r="B1000" s="15"/>
       <c r="C1000" s="8"/>
@@ -28732,7 +28759,7 @@
       <c r="Y1000" s="8"/>
       <c r="Z1000" s="8"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1001" s="8"/>
       <c r="B1001" s="15"/>
       <c r="C1001" s="8"/>
@@ -28761,32 +28788,35 @@
       <c r="Z1001" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.88"/>
-    <col customWidth="1" min="2" max="2" width="14.63"/>
-    <col customWidth="1" min="3" max="3" width="18.38"/>
-    <col customWidth="1" min="4" max="4" width="22.38"/>
-    <col customWidth="1" min="5" max="5" width="23.38"/>
-    <col customWidth="1" min="6" max="6" width="22.25"/>
-    <col customWidth="1" min="7" max="7" width="17.13"/>
-    <col customWidth="1" min="8" max="8" width="12.63"/>
-    <col customWidth="1" min="9" max="9" width="16.38"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
@@ -28798,16 +28828,22 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H2" s="18"/>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>29</v>
       </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -28815,7 +28851,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
@@ -28835,7 +28871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
@@ -28855,7 +28891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
@@ -28872,7 +28908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -28889,7 +28925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
@@ -28909,7 +28945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
@@ -28929,7 +28965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
@@ -28946,7 +28982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
@@ -28966,7 +29002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>48</v>
       </c>
@@ -28983,7 +29019,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
@@ -29000,27 +29036,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>55</v>
       </c>
@@ -29029,6 +29065,6 @@
   <mergeCells count="1">
     <mergeCell ref="A3:G3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
+++ b/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirja\Documents\Southbridge-Public-Schools-Tasks\Troubleshooting-Data-Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A38D727-C7FD-4A81-9577-B54C0327A089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383B417-64DC-4A3F-83A2-5607106E64CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -648,32 +648,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -695,7 +695,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -28799,8 +28799,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
+++ b/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirja\Documents\Southbridge-Public-Schools-Tasks\Troubleshooting-Data-Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6383B417-64DC-4A3F-83A2-5607106E64CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998993EE-FBCD-4563-8CC0-7D9F98EB394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Error Troubleshooting Data Task</t>
   </si>
@@ -184,18 +184,6 @@
   </si>
   <si>
     <t>*Please ignore the "Data Type" and "Data Length" information in the EPIMS handbook for WA07 and WA08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erros </t>
-  </si>
-  <si>
-    <t>1. Missing Schedule Term Column</t>
-  </si>
-  <si>
-    <t>2. EPIMS9400 - WA08 Teacher Assignemnt is null sometimes</t>
-  </si>
-  <si>
-    <t>3. Missing Gradebook Access Column</t>
   </si>
 </sst>
 </file>
@@ -28800,7 +28788,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -29042,24 +29030,16 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="A17" s="17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="17"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="A19" s="17"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="A20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
+++ b/Troubleshooting-Data-Task/Copy of Error Troubleshooting Data Task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirja\Documents\Southbridge-Public-Schools-Tasks\Troubleshooting-Data-Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998993EE-FBCD-4563-8CC0-7D9F98EB394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74E0903-68D4-4D78-B67E-84814369CA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -624,44 +624,46 @@
   </sheetPr>
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="175" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -687,13 +689,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -727,7 +729,7 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -761,7 +763,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
@@ -795,7 +797,7 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
@@ -829,7 +831,7 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -863,7 +865,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -897,7 +899,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -931,7 +933,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
@@ -965,7 +967,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
@@ -999,7 +1001,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="15"/>
       <c r="C10" s="8"/>
@@ -1027,7 +1029,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="8"/>
@@ -1055,7 +1057,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="15"/>
       <c r="C12" s="8"/>
@@ -1083,7 +1085,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="15"/>
       <c r="C13" s="8"/>
@@ -1111,7 +1113,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="15"/>
       <c r="C14" s="8"/>
@@ -1139,7 +1141,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="15"/>
       <c r="C15" s="8"/>
@@ -1167,7 +1169,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="15"/>
       <c r="C16" s="8"/>
@@ -1195,7 +1197,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="15"/>
       <c r="C17" s="8"/>
@@ -1223,7 +1225,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="15"/>
       <c r="C18" s="8"/>
@@ -1251,7 +1253,7 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="15"/>
       <c r="C19" s="8"/>
@@ -1279,7 +1281,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="15"/>
       <c r="C20" s="8"/>
@@ -1307,7 +1309,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="15"/>
       <c r="C21" s="8"/>
@@ -1335,7 +1337,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="15"/>
       <c r="C22" s="8"/>
@@ -1363,7 +1365,7 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="15"/>
       <c r="C23" s="8"/>
@@ -1391,7 +1393,7 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="15"/>
       <c r="C24" s="8"/>
@@ -1419,7 +1421,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="15"/>
       <c r="C25" s="8"/>
@@ -1447,7 +1449,7 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="15"/>
       <c r="C26" s="8"/>
@@ -1475,7 +1477,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="15"/>
       <c r="C27" s="8"/>
@@ -1503,7 +1505,7 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="15"/>
       <c r="C28" s="8"/>
@@ -1531,7 +1533,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="15"/>
       <c r="C29" s="8"/>
@@ -1559,7 +1561,7 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="15"/>
       <c r="C30" s="8"/>
@@ -1587,7 +1589,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="15"/>
       <c r="C31" s="8"/>
@@ -1615,7 +1617,7 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="15"/>
       <c r="C32" s="8"/>
@@ -1643,7 +1645,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="15"/>
       <c r="C33" s="8"/>
@@ -1671,7 +1673,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="15"/>
       <c r="C34" s="8"/>
@@ -1699,7 +1701,7 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="15"/>
       <c r="C35" s="8"/>
@@ -1727,7 +1729,7 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="15"/>
       <c r="C36" s="8"/>
@@ -1755,7 +1757,7 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="15"/>
       <c r="C37" s="8"/>
@@ -1783,7 +1785,7 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="15"/>
       <c r="C38" s="8"/>
@@ -1811,7 +1813,7 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="15"/>
       <c r="C39" s="8"/>
@@ -1839,7 +1841,7 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="15"/>
       <c r="C40" s="8"/>
@@ -1867,7 +1869,7 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="15"/>
       <c r="C41" s="8"/>
@@ -1895,7 +1897,7 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="15"/>
       <c r="C42" s="8"/>
@@ -1923,7 +1925,7 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="15"/>
       <c r="C43" s="8"/>
@@ -1951,7 +1953,7 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="15"/>
       <c r="C44" s="8"/>
@@ -1979,7 +1981,7 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="15"/>
       <c r="C45" s="8"/>
@@ -2007,7 +2009,7 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="15"/>
       <c r="C46" s="8"/>
@@ -2035,7 +2037,7 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="15"/>
       <c r="C47" s="8"/>
@@ -2063,7 +2065,7 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="15"/>
       <c r="C48" s="8"/>
@@ -2091,7 +2093,7 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="15"/>
       <c r="C49" s="8"/>
@@ -2119,7 +2121,7 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="15"/>
       <c r="C50" s="8"/>
@@ -2147,7 +2149,7 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="15"/>
       <c r="C51" s="8"/>
@@ -2175,7 +2177,7 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="15"/>
       <c r="C52" s="8"/>
@@ -2203,7 +2205,7 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="15"/>
       <c r="C53" s="8"/>
@@ -2231,7 +2233,7 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="15"/>
       <c r="C54" s="8"/>
@@ -2259,7 +2261,7 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="15"/>
       <c r="C55" s="8"/>
@@ -2287,7 +2289,7 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="15"/>
       <c r="C56" s="8"/>
@@ -2315,7 +2317,7 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="15"/>
       <c r="C57" s="8"/>
@@ -2343,7 +2345,7 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="15"/>
       <c r="C58" s="8"/>
@@ -2371,7 +2373,7 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="15"/>
       <c r="C59" s="8"/>
@@ -2399,7 +2401,7 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="15"/>
       <c r="C60" s="8"/>
@@ -2427,7 +2429,7 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="15"/>
       <c r="C61" s="8"/>
@@ -2455,7 +2457,7 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="15"/>
       <c r="C62" s="8"/>
@@ -2483,7 +2485,7 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="15"/>
       <c r="C63" s="8"/>
@@ -2511,7 +2513,7 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="15"/>
       <c r="C64" s="8"/>
@@ -2539,7 +2541,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="15"/>
       <c r="C65" s="8"/>
@@ -2567,7 +2569,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="15"/>
       <c r="C66" s="8"/>
@@ -2595,7 +2597,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="15"/>
       <c r="C67" s="8"/>
@@ -2623,7 +2625,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="15"/>
       <c r="C68" s="8"/>
@@ -2651,7 +2653,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="15"/>
       <c r="C69" s="8"/>
@@ -2679,7 +2681,7 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="15"/>
       <c r="C70" s="8"/>
@@ -2707,7 +2709,7 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="15"/>
       <c r="C71" s="8"/>
@@ -2735,7 +2737,7 @@
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="15"/>
       <c r="C72" s="8"/>
@@ -2763,7 +2765,7 @@
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="15"/>
       <c r="C73" s="8"/>
@@ -2791,7 +2793,7 @@
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="15"/>
       <c r="C74" s="8"/>
@@ -2819,7 +2821,7 @@
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="15"/>
       <c r="C75" s="8"/>
@@ -2847,7 +2849,7 @@
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="15"/>
       <c r="C76" s="8"/>
@@ -2875,7 +2877,7 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="15"/>
       <c r="C77" s="8"/>
@@ -2903,7 +2905,7 @@
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="15"/>
       <c r="C78" s="8"/>
@@ -2931,7 +2933,7 @@
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="15"/>
       <c r="C79" s="8"/>
@@ -2959,7 +2961,7 @@
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="15"/>
       <c r="C80" s="8"/>
@@ -2987,7 +2989,7 @@
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="15"/>
       <c r="C81" s="8"/>
@@ -3015,7 +3017,7 @@
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="15"/>
       <c r="C82" s="8"/>
@@ -3043,7 +3045,7 @@
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="15"/>
       <c r="C83" s="8"/>
@@ -3071,7 +3073,7 @@
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="15"/>
       <c r="C84" s="8"/>
@@ -3099,7 +3101,7 @@
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="15"/>
       <c r="C85" s="8"/>
@@ -3127,7 +3129,7 @@
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="15"/>
       <c r="C86" s="8"/>
@@ -3155,7 +3157,7 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="15"/>
       <c r="C87" s="8"/>
@@ -3183,7 +3185,7 @@
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="15"/>
       <c r="C88" s="8"/>
@@ -3211,7 +3213,7 @@
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="15"/>
       <c r="C89" s="8"/>
@@ -3239,7 +3241,7 @@
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="15"/>
       <c r="C90" s="8"/>
@@ -3267,7 +3269,7 @@
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="15"/>
       <c r="C91" s="8"/>
@@ -3295,7 +3297,7 @@
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="15"/>
       <c r="C92" s="8"/>
@@ -3323,7 +3325,7 @@
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="15"/>
       <c r="C93" s="8"/>
@@ -3351,7 +3353,7 @@
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="15"/>
       <c r="C94" s="8"/>
@@ -3379,7 +3381,7 @@
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="15"/>
       <c r="C95" s="8"/>
@@ -3407,7 +3409,7 @@
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="15"/>
       <c r="C96" s="8"/>
@@ -3435,7 +3437,7 @@
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="15"/>
       <c r="C97" s="8"/>
@@ -3463,7 +3465,7 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="15"/>
       <c r="C98" s="8"/>
@@ -3491,7 +3493,7 @@
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="15"/>
       <c r="C99" s="8"/>
@@ -3519,7 +3521,7 @@
       <c r="Y99" s="8"/>
       <c r="Z99" s="8"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="15"/>
       <c r="C100" s="8"/>
@@ -3547,7 +3549,7 @@
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="15"/>
       <c r="C101" s="8"/>
@@ -3575,7 +3577,7 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="15"/>
       <c r="C102" s="8"/>
@@ -3603,7 +3605,7 @@
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="15"/>
       <c r="C103" s="8"/>
@@ -3631,7 +3633,7 @@
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="15"/>
       <c r="C104" s="8"/>
@@ -3659,7 +3661,7 @@
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="15"/>
       <c r="C105" s="8"/>
@@ -3687,7 +3689,7 @@
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="15"/>
       <c r="C106" s="8"/>
@@ -3715,7 +3717,7 @@
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="15"/>
       <c r="C107" s="8"/>
@@ -3743,7 +3745,7 @@
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="15"/>
       <c r="C108" s="8"/>
@@ -3771,7 +3773,7 @@
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="15"/>
       <c r="C109" s="8"/>
@@ -3799,7 +3801,7 @@
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="15"/>
       <c r="C110" s="8"/>
@@ -3827,7 +3829,7 @@
       <c r="Y110" s="8"/>
       <c r="Z110" s="8"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="15"/>
       <c r="C111" s="8"/>
@@ -3855,7 +3857,7 @@
       <c r="Y111" s="8"/>
       <c r="Z111" s="8"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="15"/>
       <c r="C112" s="8"/>
@@ -3883,7 +3885,7 @@
       <c r="Y112" s="8"/>
       <c r="Z112" s="8"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="15"/>
       <c r="C113" s="8"/>
@@ -3911,7 +3913,7 @@
       <c r="Y113" s="8"/>
       <c r="Z113" s="8"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="15"/>
       <c r="C114" s="8"/>
@@ -3939,7 +3941,7 @@
       <c r="Y114" s="8"/>
       <c r="Z114" s="8"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="15"/>
       <c r="C115" s="8"/>
@@ -3967,7 +3969,7 @@
       <c r="Y115" s="8"/>
       <c r="Z115" s="8"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="15"/>
       <c r="C116" s="8"/>
@@ -3995,7 +3997,7 @@
       <c r="Y116" s="8"/>
       <c r="Z116" s="8"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="15"/>
       <c r="C117" s="8"/>
@@ -4023,7 +4025,7 @@
       <c r="Y117" s="8"/>
       <c r="Z117" s="8"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="15"/>
       <c r="C118" s="8"/>
@@ -4051,7 +4053,7 @@
       <c r="Y118" s="8"/>
       <c r="Z118" s="8"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="15"/>
       <c r="C119" s="8"/>
@@ -4079,7 +4081,7 @@
       <c r="Y119" s="8"/>
       <c r="Z119" s="8"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="15"/>
       <c r="C120" s="8"/>
@@ -4107,7 +4109,7 @@
       <c r="Y120" s="8"/>
       <c r="Z120" s="8"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="15"/>
       <c r="C121" s="8"/>
@@ -4135,7 +4137,7 @@
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="15"/>
       <c r="C122" s="8"/>
@@ -4163,7 +4165,7 @@
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="15"/>
       <c r="C123" s="8"/>
@@ -4191,7 +4193,7 @@
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="15"/>
       <c r="C124" s="8"/>
@@ -4219,7 +4221,7 @@
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="15"/>
       <c r="C125" s="8"/>
@@ -4247,7 +4249,7 @@
       <c r="Y125" s="8"/>
       <c r="Z125" s="8"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="15"/>
       <c r="C126" s="8"/>
@@ -4275,7 +4277,7 @@
       <c r="Y126" s="8"/>
       <c r="Z126" s="8"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="15"/>
       <c r="C127" s="8"/>
@@ -4303,7 +4305,7 @@
       <c r="Y127" s="8"/>
       <c r="Z127" s="8"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="15"/>
       <c r="C128" s="8"/>
@@ -4331,7 +4333,7 @@
       <c r="Y128" s="8"/>
       <c r="Z128" s="8"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="15"/>
       <c r="C129" s="8"/>
@@ -4359,7 +4361,7 @@
       <c r="Y129" s="8"/>
       <c r="Z129" s="8"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="15"/>
       <c r="C130" s="8"/>
@@ -4387,7 +4389,7 @@
       <c r="Y130" s="8"/>
       <c r="Z130" s="8"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="15"/>
       <c r="C131" s="8"/>
@@ -4415,7 +4417,7 @@
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="15"/>
       <c r="C132" s="8"/>
@@ -4443,7 +4445,7 @@
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="15"/>
       <c r="C133" s="8"/>
@@ -4471,7 +4473,7 @@
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="15"/>
       <c r="C134" s="8"/>
@@ -4499,7 +4501,7 @@
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="15"/>
       <c r="C135" s="8"/>
@@ -4527,7 +4529,7 @@
       <c r="Y135" s="8"/>
       <c r="Z135" s="8"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="15"/>
       <c r="C136" s="8"/>
@@ -4555,7 +4557,7 @@
       <c r="Y136" s="8"/>
       <c r="Z136" s="8"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="15"/>
       <c r="C137" s="8"/>
@@ -4583,7 +4585,7 @@
       <c r="Y137" s="8"/>
       <c r="Z137" s="8"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="15"/>
       <c r="C138" s="8"/>
@@ -4611,7 +4613,7 @@
       <c r="Y138" s="8"/>
       <c r="Z138" s="8"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="15"/>
       <c r="C139" s="8"/>
@@ -4639,7 +4641,7 @@
       <c r="Y139" s="8"/>
       <c r="Z139" s="8"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="15"/>
       <c r="C140" s="8"/>
@@ -4667,7 +4669,7 @@
       <c r="Y140" s="8"/>
       <c r="Z140" s="8"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="15"/>
       <c r="C141" s="8"/>
@@ -4695,7 +4697,7 @@
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="15"/>
       <c r="C142" s="8"/>
@@ -4723,7 +4725,7 @@
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="15"/>
       <c r="C143" s="8"/>
@@ -4751,7 +4753,7 @@
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="15"/>
       <c r="C144" s="8"/>
@@ -4779,7 +4781,7 @@
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="15"/>
       <c r="C145" s="8"/>
@@ -4807,7 +4809,7 @@
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="15"/>
       <c r="C146" s="8"/>
@@ -4835,7 +4837,7 @@
       <c r="Y146" s="8"/>
       <c r="Z146" s="8"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="15"/>
       <c r="C147" s="8"/>
@@ -4863,7 +4865,7 @@
       <c r="Y147" s="8"/>
       <c r="Z147" s="8"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="15"/>
       <c r="C148" s="8"/>
@@ -4891,7 +4893,7 @@
       <c r="Y148" s="8"/>
       <c r="Z148" s="8"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="15"/>
       <c r="C149" s="8"/>
@@ -4919,7 +4921,7 @@
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="15"/>
       <c r="C150" s="8"/>
@@ -4947,7 +4949,7 @@
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="15"/>
       <c r="C151" s="8"/>
@@ -4975,7 +4977,7 @@
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="15"/>
       <c r="C152" s="8"/>
@@ -5003,7 +5005,7 @@
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="15"/>
       <c r="C153" s="8"/>
@@ -5031,7 +5033,7 @@
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="15"/>
       <c r="C154" s="8"/>
@@ -5059,7 +5061,7 @@
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="15"/>
       <c r="C155" s="8"/>
@@ -5087,7 +5089,7 @@
       <c r="Y155" s="8"/>
       <c r="Z155" s="8"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="15"/>
       <c r="C156" s="8"/>
@@ -5115,7 +5117,7 @@
       <c r="Y156" s="8"/>
       <c r="Z156" s="8"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="15"/>
       <c r="C157" s="8"/>
@@ -5143,7 +5145,7 @@
       <c r="Y157" s="8"/>
       <c r="Z157" s="8"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="15"/>
       <c r="C158" s="8"/>
@@ -5171,7 +5173,7 @@
       <c r="Y158" s="8"/>
       <c r="Z158" s="8"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="15"/>
       <c r="C159" s="8"/>
@@ -5199,7 +5201,7 @@
       <c r="Y159" s="8"/>
       <c r="Z159" s="8"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="15"/>
       <c r="C160" s="8"/>
@@ -5227,7 +5229,7 @@
       <c r="Y160" s="8"/>
       <c r="Z160" s="8"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="15"/>
       <c r="C161" s="8"/>
@@ -5255,7 +5257,7 @@
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="15"/>
       <c r="C162" s="8"/>
@@ -5283,7 +5285,7 @@
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="15"/>
       <c r="C163" s="8"/>
@@ -5311,7 +5313,7 @@
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="15"/>
       <c r="C164" s="8"/>
@@ -5339,7 +5341,7 @@
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="15"/>
       <c r="C165" s="8"/>
@@ -5367,7 +5369,7 @@
       <c r="Y165" s="8"/>
       <c r="Z165" s="8"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="15"/>
       <c r="C166" s="8"/>
@@ -5395,7 +5397,7 @@
       <c r="Y166" s="8"/>
       <c r="Z166" s="8"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="15"/>
       <c r="C167" s="8"/>
@@ -5423,7 +5425,7 @@
       <c r="Y167" s="8"/>
       <c r="Z167" s="8"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="15"/>
       <c r="C168" s="8"/>
@@ -5451,7 +5453,7 @@
       <c r="Y168" s="8"/>
       <c r="Z168" s="8"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="15"/>
       <c r="C169" s="8"/>
@@ -5479,7 +5481,7 @@
       <c r="Y169" s="8"/>
       <c r="Z169" s="8"/>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="15"/>
       <c r="C170" s="8"/>
@@ -5507,7 +5509,7 @@
       <c r="Y170" s="8"/>
       <c r="Z170" s="8"/>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="15"/>
       <c r="C171" s="8"/>
@@ -5535,7 +5537,7 @@
       <c r="Y171" s="8"/>
       <c r="Z171" s="8"/>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="15"/>
       <c r="C172" s="8"/>
@@ -5563,7 +5565,7 @@
       <c r="Y172" s="8"/>
       <c r="Z172" s="8"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="15"/>
       <c r="C173" s="8"/>
@@ -5591,7 +5593,7 @@
       <c r="Y173" s="8"/>
       <c r="Z173" s="8"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="15"/>
       <c r="C174" s="8"/>
@@ -5619,7 +5621,7 @@
       <c r="Y174" s="8"/>
       <c r="Z174" s="8"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="15"/>
       <c r="C175" s="8"/>
@@ -5647,7 +5649,7 @@
       <c r="Y175" s="8"/>
       <c r="Z175" s="8"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="15"/>
       <c r="C176" s="8"/>
@@ -5675,7 +5677,7 @@
       <c r="Y176" s="8"/>
       <c r="Z176" s="8"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="15"/>
       <c r="C177" s="8"/>
@@ -5703,7 +5705,7 @@
       <c r="Y177" s="8"/>
       <c r="Z177" s="8"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="15"/>
       <c r="C178" s="8"/>
@@ -5731,7 +5733,7 @@
       <c r="Y178" s="8"/>
       <c r="Z178" s="8"/>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="15"/>
       <c r="C179" s="8"/>
@@ -5759,7 +5761,7 @@
       <c r="Y179" s="8"/>
       <c r="Z179" s="8"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="15"/>
       <c r="C180" s="8"/>
@@ -5787,7 +5789,7 @@
       <c r="Y180" s="8"/>
       <c r="Z180" s="8"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="15"/>
       <c r="C181" s="8"/>
@@ -5815,7 +5817,7 @@
       <c r="Y181" s="8"/>
       <c r="Z181" s="8"/>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="15"/>
       <c r="C182" s="8"/>
@@ -5843,7 +5845,7 @@
       <c r="Y182" s="8"/>
       <c r="Z182" s="8"/>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="15"/>
       <c r="C183" s="8"/>
@@ -5871,7 +5873,7 @@
       <c r="Y183" s="8"/>
       <c r="Z183" s="8"/>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="15"/>
       <c r="C184" s="8"/>
@@ -5899,7 +5901,7 @@
       <c r="Y184" s="8"/>
       <c r="Z184" s="8"/>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="15"/>
       <c r="C185" s="8"/>
@@ -5927,7 +5929,7 @@
       <c r="Y185" s="8"/>
       <c r="Z185" s="8"/>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="15"/>
       <c r="C186" s="8"/>
@@ -5955,7 +5957,7 @@
       <c r="Y186" s="8"/>
       <c r="Z186" s="8"/>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="15"/>
       <c r="C187" s="8"/>
@@ -5983,7 +5985,7 @@
       <c r="Y187" s="8"/>
       <c r="Z187" s="8"/>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="15"/>
       <c r="C188" s="8"/>
@@ -6011,7 +6013,7 @@
       <c r="Y188" s="8"/>
       <c r="Z188" s="8"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="15"/>
       <c r="C189" s="8"/>
@@ -6039,7 +6041,7 @@
       <c r="Y189" s="8"/>
       <c r="Z189" s="8"/>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="15"/>
       <c r="C190" s="8"/>
@@ -6067,7 +6069,7 @@
       <c r="Y190" s="8"/>
       <c r="Z190" s="8"/>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="15"/>
       <c r="C191" s="8"/>
@@ -6095,7 +6097,7 @@
       <c r="Y191" s="8"/>
       <c r="Z191" s="8"/>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="15"/>
       <c r="C192" s="8"/>
@@ -6123,7 +6125,7 @@
       <c r="Y192" s="8"/>
       <c r="Z192" s="8"/>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="15"/>
       <c r="C193" s="8"/>
@@ -6151,7 +6153,7 @@
       <c r="Y193" s="8"/>
       <c r="Z193" s="8"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="15"/>
       <c r="C194" s="8"/>
@@ -6179,7 +6181,7 @@
       <c r="Y194" s="8"/>
       <c r="Z194" s="8"/>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="15"/>
       <c r="C195" s="8"/>
@@ -6207,7 +6209,7 @@
       <c r="Y195" s="8"/>
       <c r="Z195" s="8"/>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="15"/>
       <c r="C196" s="8"/>
@@ -6235,7 +6237,7 @@
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="15"/>
       <c r="C197" s="8"/>
@@ -6263,7 +6265,7 @@
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="15"/>
       <c r="C198" s="8"/>
@@ -6291,7 +6293,7 @@
       <c r="Y198" s="8"/>
       <c r="Z198" s="8"/>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="15"/>
       <c r="C199" s="8"/>
@@ -6319,7 +6321,7 @@
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="15"/>
       <c r="C200" s="8"/>
@@ -6347,7 +6349,7 @@
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="8"/>
       <c r="B201" s="15"/>
       <c r="C201" s="8"/>
@@ -6375,7 +6377,7 @@
       <c r="Y201" s="8"/>
       <c r="Z201" s="8"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="8"/>
       <c r="B202" s="15"/>
       <c r="C202" s="8"/>
@@ -6403,7 +6405,7 @@
       <c r="Y202" s="8"/>
       <c r="Z202" s="8"/>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="8"/>
       <c r="B203" s="15"/>
       <c r="C203" s="8"/>
@@ -6431,7 +6433,7 @@
       <c r="Y203" s="8"/>
       <c r="Z203" s="8"/>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="8"/>
       <c r="B204" s="15"/>
       <c r="C204" s="8"/>
@@ -6459,7 +6461,7 @@
       <c r="Y204" s="8"/>
       <c r="Z204" s="8"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
       <c r="B205" s="15"/>
       <c r="C205" s="8"/>
@@ -6487,7 +6489,7 @@
       <c r="Y205" s="8"/>
       <c r="Z205" s="8"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="8"/>
       <c r="B206" s="15"/>
       <c r="C206" s="8"/>
@@ -6515,7 +6517,7 @@
       <c r="Y206" s="8"/>
       <c r="Z206" s="8"/>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="8"/>
       <c r="B207" s="15"/>
       <c r="C207" s="8"/>
@@ -6543,7 +6545,7 @@
       <c r="Y207" s="8"/>
       <c r="Z207" s="8"/>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="8"/>
       <c r="B208" s="15"/>
       <c r="C208" s="8"/>
@@ -6571,7 +6573,7 @@
       <c r="Y208" s="8"/>
       <c r="Z208" s="8"/>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="8"/>
       <c r="B209" s="15"/>
       <c r="C209" s="8"/>
@@ -6599,7 +6601,7 @@
       <c r="Y209" s="8"/>
       <c r="Z209" s="8"/>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
       <c r="B210" s="15"/>
       <c r="C210" s="8"/>
@@ -6627,7 +6629,7 @@
       <c r="Y210" s="8"/>
       <c r="Z210" s="8"/>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="8"/>
       <c r="B211" s="15"/>
       <c r="C211" s="8"/>
@@ -6655,7 +6657,7 @@
       <c r="Y211" s="8"/>
       <c r="Z211" s="8"/>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="15"/>
       <c r="C212" s="8"/>
@@ -6683,7 +6685,7 @@
       <c r="Y212" s="8"/>
       <c r="Z212" s="8"/>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="15"/>
       <c r="C213" s="8"/>
@@ -6711,7 +6713,7 @@
       <c r="Y213" s="8"/>
       <c r="Z213" s="8"/>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="15"/>
       <c r="C214" s="8"/>
@@ -6739,7 +6741,7 @@
       <c r="Y214" s="8"/>
       <c r="Z214" s="8"/>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="15"/>
       <c r="C215" s="8"/>
@@ -6767,7 +6769,7 @@
       <c r="Y215" s="8"/>
       <c r="Z215" s="8"/>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="15"/>
       <c r="C216" s="8"/>
@@ -6795,7 +6797,7 @@
       <c r="Y216" s="8"/>
       <c r="Z216" s="8"/>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="15"/>
       <c r="C217" s="8"/>
@@ -6823,7 +6825,7 @@
       <c r="Y217" s="8"/>
       <c r="Z217" s="8"/>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="15"/>
       <c r="C218" s="8"/>
@@ -6851,7 +6853,7 @@
       <c r="Y218" s="8"/>
       <c r="Z218" s="8"/>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="15"/>
       <c r="C219" s="8"/>
@@ -6879,7 +6881,7 @@
       <c r="Y219" s="8"/>
       <c r="Z219" s="8"/>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="15"/>
       <c r="C220" s="8"/>
@@ -6907,7 +6909,7 @@
       <c r="Y220" s="8"/>
       <c r="Z220" s="8"/>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="15"/>
       <c r="C221" s="8"/>
@@ -6935,7 +6937,7 @@
       <c r="Y221" s="8"/>
       <c r="Z221" s="8"/>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="15"/>
       <c r="C222" s="8"/>
@@ -6963,7 +6965,7 @@
       <c r="Y222" s="8"/>
       <c r="Z222" s="8"/>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="15"/>
       <c r="C223" s="8"/>
@@ -6991,7 +6993,7 @@
       <c r="Y223" s="8"/>
       <c r="Z223" s="8"/>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="15"/>
       <c r="C224" s="8"/>
@@ -7019,7 +7021,7 @@
       <c r="Y224" s="8"/>
       <c r="Z224" s="8"/>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="15"/>
       <c r="C225" s="8"/>
@@ -7047,7 +7049,7 @@
       <c r="Y225" s="8"/>
       <c r="Z225" s="8"/>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="15"/>
       <c r="C226" s="8"/>
@@ -7075,7 +7077,7 @@
       <c r="Y226" s="8"/>
       <c r="Z226" s="8"/>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="15"/>
       <c r="C227" s="8"/>
@@ -7103,7 +7105,7 @@
       <c r="Y227" s="8"/>
       <c r="Z227" s="8"/>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="15"/>
       <c r="C228" s="8"/>
@@ -7131,7 +7133,7 @@
       <c r="Y228" s="8"/>
       <c r="Z228" s="8"/>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="15"/>
       <c r="C229" s="8"/>
@@ -7159,7 +7161,7 @@
       <c r="Y229" s="8"/>
       <c r="Z229" s="8"/>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="15"/>
       <c r="C230" s="8"/>
@@ -7187,7 +7189,7 @@
       <c r="Y230" s="8"/>
       <c r="Z230" s="8"/>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="15"/>
       <c r="C231" s="8"/>
@@ -7215,7 +7217,7 @@
       <c r="Y231" s="8"/>
       <c r="Z231" s="8"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="15"/>
       <c r="C232" s="8"/>
@@ -7243,7 +7245,7 @@
       <c r="Y232" s="8"/>
       <c r="Z232" s="8"/>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="15"/>
       <c r="C233" s="8"/>
@@ -7271,7 +7273,7 @@
       <c r="Y233" s="8"/>
       <c r="Z233" s="8"/>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="15"/>
       <c r="C234" s="8"/>
@@ -7299,7 +7301,7 @@
       <c r="Y234" s="8"/>
       <c r="Z234" s="8"/>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="15"/>
       <c r="C235" s="8"/>
@@ -7327,7 +7329,7 @@
       <c r="Y235" s="8"/>
       <c r="Z235" s="8"/>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="15"/>
       <c r="C236" s="8"/>
@@ -7355,7 +7357,7 @@
       <c r="Y236" s="8"/>
       <c r="Z236" s="8"/>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="15"/>
       <c r="C237" s="8"/>
@@ -7383,7 +7385,7 @@
       <c r="Y237" s="8"/>
       <c r="Z237" s="8"/>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="15"/>
       <c r="C238" s="8"/>
@@ -7411,7 +7413,7 @@
       <c r="Y238" s="8"/>
       <c r="Z238" s="8"/>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="15"/>
       <c r="C239" s="8"/>
@@ -7439,7 +7441,7 @@
       <c r="Y239" s="8"/>
       <c r="Z239" s="8"/>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="15"/>
       <c r="C240" s="8"/>
@@ -7467,7 +7469,7 @@
       <c r="Y240" s="8"/>
       <c r="Z240" s="8"/>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="15"/>
       <c r="C241" s="8"/>
@@ -7495,7 +7497,7 @@
       <c r="Y241" s="8"/>
       <c r="Z241" s="8"/>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="15"/>
       <c r="C242" s="8"/>
@@ -7523,7 +7525,7 @@
       <c r="Y242" s="8"/>
       <c r="Z242" s="8"/>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="15"/>
       <c r="C243" s="8"/>
@@ -7551,7 +7553,7 @@
       <c r="Y243" s="8"/>
       <c r="Z243" s="8"/>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="15"/>
       <c r="C244" s="8"/>
@@ -7579,7 +7581,7 @@
       <c r="Y244" s="8"/>
       <c r="Z244" s="8"/>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="15"/>
       <c r="C245" s="8"/>
@@ -7607,7 +7609,7 @@
       <c r="Y245" s="8"/>
       <c r="Z245" s="8"/>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="15"/>
       <c r="C246" s="8"/>
@@ -7635,7 +7637,7 @@
       <c r="Y246" s="8"/>
       <c r="Z246" s="8"/>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="15"/>
       <c r="C247" s="8"/>
@@ -7663,7 +7665,7 @@
       <c r="Y247" s="8"/>
       <c r="Z247" s="8"/>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="15"/>
       <c r="C248" s="8"/>
@@ -7691,7 +7693,7 @@
       <c r="Y248" s="8"/>
       <c r="Z248" s="8"/>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="15"/>
       <c r="C249" s="8"/>
@@ -7719,7 +7721,7 @@
       <c r="Y249" s="8"/>
       <c r="Z249" s="8"/>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="15"/>
       <c r="C250" s="8"/>
@@ -7747,7 +7749,7 @@
       <c r="Y250" s="8"/>
       <c r="Z250" s="8"/>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="15"/>
       <c r="C251" s="8"/>
@@ -7775,7 +7777,7 @@
       <c r="Y251" s="8"/>
       <c r="Z251" s="8"/>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="15"/>
       <c r="C252" s="8"/>
@@ -7803,7 +7805,7 @@
       <c r="Y252" s="8"/>
       <c r="Z252" s="8"/>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="15"/>
       <c r="C253" s="8"/>
@@ -7831,7 +7833,7 @@
       <c r="Y253" s="8"/>
       <c r="Z253" s="8"/>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="15"/>
       <c r="C254" s="8"/>
@@ -7859,7 +7861,7 @@
       <c r="Y254" s="8"/>
       <c r="Z254" s="8"/>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="15"/>
       <c r="C255" s="8"/>
@@ -7887,7 +7889,7 @@
       <c r="Y255" s="8"/>
       <c r="Z255" s="8"/>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="15"/>
       <c r="C256" s="8"/>
@@ -7915,7 +7917,7 @@
       <c r="Y256" s="8"/>
       <c r="Z256" s="8"/>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="15"/>
       <c r="C257" s="8"/>
@@ -7943,7 +7945,7 @@
       <c r="Y257" s="8"/>
       <c r="Z257" s="8"/>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="15"/>
       <c r="C258" s="8"/>
@@ -7971,7 +7973,7 @@
       <c r="Y258" s="8"/>
       <c r="Z258" s="8"/>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="15"/>
       <c r="C259" s="8"/>
@@ -7999,7 +8001,7 @@
       <c r="Y259" s="8"/>
       <c r="Z259" s="8"/>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="15"/>
       <c r="C260" s="8"/>
@@ -8027,7 +8029,7 @@
       <c r="Y260" s="8"/>
       <c r="Z260" s="8"/>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="15"/>
       <c r="C261" s="8"/>
@@ -8055,7 +8057,7 @@
       <c r="Y261" s="8"/>
       <c r="Z261" s="8"/>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="15"/>
       <c r="C262" s="8"/>
@@ -8083,7 +8085,7 @@
       <c r="Y262" s="8"/>
       <c r="Z262" s="8"/>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="15"/>
       <c r="C263" s="8"/>
@@ -8111,7 +8113,7 @@
       <c r="Y263" s="8"/>
       <c r="Z263" s="8"/>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="15"/>
       <c r="C264" s="8"/>
@@ -8139,7 +8141,7 @@
       <c r="Y264" s="8"/>
       <c r="Z264" s="8"/>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="15"/>
       <c r="C265" s="8"/>
@@ -8167,7 +8169,7 @@
       <c r="Y265" s="8"/>
       <c r="Z265" s="8"/>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="15"/>
       <c r="C266" s="8"/>
@@ -8195,7 +8197,7 @@
       <c r="Y266" s="8"/>
       <c r="Z266" s="8"/>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="15"/>
       <c r="C267" s="8"/>
@@ -8223,7 +8225,7 @@
       <c r="Y267" s="8"/>
       <c r="Z267" s="8"/>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="15"/>
       <c r="C268" s="8"/>
@@ -8251,7 +8253,7 @@
       <c r="Y268" s="8"/>
       <c r="Z268" s="8"/>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="15"/>
       <c r="C269" s="8"/>
@@ -8279,7 +8281,7 @@
       <c r="Y269" s="8"/>
       <c r="Z269" s="8"/>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="15"/>
       <c r="C270" s="8"/>
@@ -8307,7 +8309,7 @@
       <c r="Y270" s="8"/>
       <c r="Z270" s="8"/>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="15"/>
       <c r="C271" s="8"/>
@@ -8335,7 +8337,7 @@
       <c r="Y271" s="8"/>
       <c r="Z271" s="8"/>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="15"/>
       <c r="C272" s="8"/>
@@ -8363,7 +8365,7 @@
       <c r="Y272" s="8"/>
       <c r="Z272" s="8"/>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="8"/>
       <c r="B273" s="15"/>
       <c r="C273" s="8"/>
@@ -8391,7 +8393,7 @@
       <c r="Y273" s="8"/>
       <c r="Z273" s="8"/>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="8"/>
       <c r="B274" s="15"/>
       <c r="C274" s="8"/>
@@ -8419,7 +8421,7 @@
       <c r="Y274" s="8"/>
       <c r="Z274" s="8"/>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="8"/>
       <c r="B275" s="15"/>
       <c r="C275" s="8"/>
@@ -8447,7 +8449,7 @@
       <c r="Y275" s="8"/>
       <c r="Z275" s="8"/>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="8"/>
       <c r="B276" s="15"/>
       <c r="C276" s="8"/>
@@ -8475,7 +8477,7 @@
       <c r="Y276" s="8"/>
       <c r="Z276" s="8"/>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="8"/>
       <c r="B277" s="15"/>
       <c r="C277" s="8"/>
@@ -8503,7 +8505,7 @@
       <c r="Y277" s="8"/>
       <c r="Z277" s="8"/>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="8"/>
       <c r="B278" s="15"/>
       <c r="C278" s="8"/>
@@ -8531,7 +8533,7 @@
       <c r="Y278" s="8"/>
       <c r="Z278" s="8"/>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="8"/>
       <c r="B279" s="15"/>
       <c r="C279" s="8"/>
@@ -8559,7 +8561,7 @@
       <c r="Y279" s="8"/>
       <c r="Z279" s="8"/>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="8"/>
       <c r="B280" s="15"/>
       <c r="C280" s="8"/>
@@ -8587,7 +8589,7 @@
       <c r="Y280" s="8"/>
       <c r="Z280" s="8"/>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="8"/>
       <c r="B281" s="15"/>
       <c r="C281" s="8"/>
@@ -8615,7 +8617,7 @@
       <c r="Y281" s="8"/>
       <c r="Z281" s="8"/>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="8"/>
       <c r="B282" s="15"/>
       <c r="C282" s="8"/>
@@ -8643,7 +8645,7 @@
       <c r="Y282" s="8"/>
       <c r="Z282" s="8"/>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="8"/>
       <c r="B283" s="15"/>
       <c r="C283" s="8"/>
@@ -8671,7 +8673,7 @@
       <c r="Y283" s="8"/>
       <c r="Z283" s="8"/>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="8"/>
       <c r="B284" s="15"/>
       <c r="C284" s="8"/>
@@ -8699,7 +8701,7 @@
       <c r="Y284" s="8"/>
       <c r="Z284" s="8"/>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="8"/>
       <c r="B285" s="15"/>
       <c r="C285" s="8"/>
@@ -8727,7 +8729,7 @@
       <c r="Y285" s="8"/>
       <c r="Z285" s="8"/>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
       <c r="B286" s="15"/>
       <c r="C286" s="8"/>
@@ -8755,7 +8757,7 @@
       <c r="Y286" s="8"/>
       <c r="Z286" s="8"/>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="8"/>
       <c r="B287" s="15"/>
       <c r="C287" s="8"/>
@@ -8783,7 +8785,7 @@
       <c r="Y287" s="8"/>
       <c r="Z287" s="8"/>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="8"/>
       <c r="B288" s="15"/>
       <c r="C288" s="8"/>
@@ -8811,7 +8813,7 @@
       <c r="Y288" s="8"/>
       <c r="Z288" s="8"/>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="8"/>
       <c r="B289" s="15"/>
       <c r="C289" s="8"/>
@@ -8839,7 +8841,7 @@
       <c r="Y289" s="8"/>
       <c r="Z289" s="8"/>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="8"/>
       <c r="B290" s="15"/>
       <c r="C290" s="8"/>
@@ -8867,7 +8869,7 @@
       <c r="Y290" s="8"/>
       <c r="Z290" s="8"/>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="8"/>
       <c r="B291" s="15"/>
       <c r="C291" s="8"/>
@@ -8895,7 +8897,7 @@
       <c r="Y291" s="8"/>
       <c r="Z291" s="8"/>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="8"/>
       <c r="B292" s="15"/>
       <c r="C292" s="8"/>
@@ -8923,7 +8925,7 @@
       <c r="Y292" s="8"/>
       <c r="Z292" s="8"/>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="8"/>
       <c r="B293" s="15"/>
       <c r="C293" s="8"/>
@@ -8951,7 +8953,7 @@
       <c r="Y293" s="8"/>
       <c r="Z293" s="8"/>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="8"/>
       <c r="B294" s="15"/>
       <c r="C294" s="8"/>
@@ -8979,7 +8981,7 @@
       <c r="Y294" s="8"/>
       <c r="Z294" s="8"/>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="8"/>
       <c r="B295" s="15"/>
       <c r="C295" s="8"/>
@@ -9007,7 +9009,7 @@
       <c r="Y295" s="8"/>
       <c r="Z295" s="8"/>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="8"/>
       <c r="B296" s="15"/>
       <c r="C296" s="8"/>
@@ -9035,7 +9037,7 @@
       <c r="Y296" s="8"/>
       <c r="Z296" s="8"/>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="8"/>
       <c r="B297" s="15"/>
       <c r="C297" s="8"/>
@@ -9063,7 +9065,7 @@
       <c r="Y297" s="8"/>
       <c r="Z297" s="8"/>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="8"/>
       <c r="B298" s="15"/>
       <c r="C298" s="8"/>
@@ -9091,7 +9093,7 @@
       <c r="Y298" s="8"/>
       <c r="Z298" s="8"/>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="8"/>
       <c r="B299" s="15"/>
       <c r="C299" s="8"/>
@@ -9119,7 +9121,7 @@
       <c r="Y299" s="8"/>
       <c r="Z299" s="8"/>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="8"/>
       <c r="B300" s="15"/>
       <c r="C300" s="8"/>
@@ -9147,7 +9149,7 @@
       <c r="Y300" s="8"/>
       <c r="Z300" s="8"/>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="8"/>
       <c r="B301" s="15"/>
       <c r="C301" s="8"/>
@@ -9175,7 +9177,7 @@
       <c r="Y301" s="8"/>
       <c r="Z301" s="8"/>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="8"/>
       <c r="B302" s="15"/>
       <c r="C302" s="8"/>
@@ -9203,7 +9205,7 @@
       <c r="Y302" s="8"/>
       <c r="Z302" s="8"/>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="8"/>
       <c r="B303" s="15"/>
       <c r="C303" s="8"/>
@@ -9231,7 +9233,7 @@
       <c r="Y303" s="8"/>
       <c r="Z303" s="8"/>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="8"/>
       <c r="B304" s="15"/>
       <c r="C304" s="8"/>
@@ -9259,7 +9261,7 @@
       <c r="Y304" s="8"/>
       <c r="Z304" s="8"/>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="8"/>
       <c r="B305" s="15"/>
       <c r="C305" s="8"/>
@@ -9287,7 +9289,7 @@
       <c r="Y305" s="8"/>
       <c r="Z305" s="8"/>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="8"/>
       <c r="B306" s="15"/>
       <c r="C306" s="8"/>
@@ -9315,7 +9317,7 @@
       <c r="Y306" s="8"/>
       <c r="Z306" s="8"/>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="8"/>
       <c r="B307" s="15"/>
       <c r="C307" s="8"/>
@@ -9343,7 +9345,7 @@
       <c r="Y307" s="8"/>
       <c r="Z307" s="8"/>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="15"/>
       <c r="C308" s="8"/>
@@ -9371,7 +9373,7 @@
       <c r="Y308" s="8"/>
       <c r="Z308" s="8"/>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="8"/>
       <c r="B309" s="15"/>
       <c r="C309" s="8"/>
@@ -9399,7 +9401,7 @@
       <c r="Y309" s="8"/>
       <c r="Z309" s="8"/>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="8"/>
       <c r="B310" s="15"/>
       <c r="C310" s="8"/>
@@ -9427,7 +9429,7 @@
       <c r="Y310" s="8"/>
       <c r="Z310" s="8"/>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="8"/>
       <c r="B311" s="15"/>
       <c r="C311" s="8"/>
@@ -9455,7 +9457,7 @@
       <c r="Y311" s="8"/>
       <c r="Z311" s="8"/>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="8"/>
       <c r="B312" s="15"/>
       <c r="C312" s="8"/>
@@ -9483,7 +9485,7 @@
       <c r="Y312" s="8"/>
       <c r="Z312" s="8"/>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="8"/>
       <c r="B313" s="15"/>
       <c r="C313" s="8"/>
@@ -9511,7 +9513,7 @@
       <c r="Y313" s="8"/>
       <c r="Z313" s="8"/>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="8"/>
       <c r="B314" s="15"/>
       <c r="C314" s="8"/>
@@ -9539,7 +9541,7 @@
       <c r="Y314" s="8"/>
       <c r="Z314" s="8"/>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="8"/>
       <c r="B315" s="15"/>
       <c r="C315" s="8"/>
@@ -9567,7 +9569,7 @@
       <c r="Y315" s="8"/>
       <c r="Z315" s="8"/>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="8"/>
       <c r="B316" s="15"/>
       <c r="C316" s="8"/>
@@ -9595,7 +9597,7 @@
       <c r="Y316" s="8"/>
       <c r="Z316" s="8"/>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="8"/>
       <c r="B317" s="15"/>
       <c r="C317" s="8"/>
@@ -9623,7 +9625,7 @@
       <c r="Y317" s="8"/>
       <c r="Z317" s="8"/>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="8"/>
       <c r="B318" s="15"/>
       <c r="C318" s="8"/>
@@ -9651,7 +9653,7 @@
       <c r="Y318" s="8"/>
       <c r="Z318" s="8"/>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="8"/>
       <c r="B319" s="15"/>
       <c r="C319" s="8"/>
@@ -9679,7 +9681,7 @@
       <c r="Y319" s="8"/>
       <c r="Z319" s="8"/>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="8"/>
       <c r="B320" s="15"/>
       <c r="C320" s="8"/>
@@ -9707,7 +9709,7 @@
       <c r="Y320" s="8"/>
       <c r="Z320" s="8"/>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="8"/>
       <c r="B321" s="15"/>
       <c r="C321" s="8"/>
@@ -9735,7 +9737,7 @@
       <c r="Y321" s="8"/>
       <c r="Z321" s="8"/>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="8"/>
       <c r="B322" s="15"/>
       <c r="C322" s="8"/>
@@ -9763,7 +9765,7 @@
       <c r="Y322" s="8"/>
       <c r="Z322" s="8"/>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="8"/>
       <c r="B323" s="15"/>
       <c r="C323" s="8"/>
@@ -9791,7 +9793,7 @@
       <c r="Y323" s="8"/>
       <c r="Z323" s="8"/>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="8"/>
       <c r="B324" s="15"/>
       <c r="C324" s="8"/>
@@ -9819,7 +9821,7 @@
       <c r="Y324" s="8"/>
       <c r="Z324" s="8"/>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="8"/>
       <c r="B325" s="15"/>
       <c r="C325" s="8"/>
@@ -9847,7 +9849,7 @@
       <c r="Y325" s="8"/>
       <c r="Z325" s="8"/>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="8"/>
       <c r="B326" s="15"/>
       <c r="C326" s="8"/>
@@ -9875,7 +9877,7 @@
       <c r="Y326" s="8"/>
       <c r="Z326" s="8"/>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="8"/>
       <c r="B327" s="15"/>
       <c r="C327" s="8"/>
@@ -9903,7 +9905,7 @@
       <c r="Y327" s="8"/>
       <c r="Z327" s="8"/>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="8"/>
       <c r="B328" s="15"/>
       <c r="C328" s="8"/>
@@ -9931,7 +9933,7 @@
       <c r="Y328" s="8"/>
       <c r="Z328" s="8"/>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="8"/>
       <c r="B329" s="15"/>
       <c r="C329" s="8"/>
@@ -9959,7 +9961,7 @@
       <c r="Y329" s="8"/>
       <c r="Z329" s="8"/>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="8"/>
       <c r="B330" s="15"/>
       <c r="C330" s="8"/>
@@ -9987,7 +9989,7 @@
       <c r="Y330" s="8"/>
       <c r="Z330" s="8"/>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="8"/>
       <c r="B331" s="15"/>
       <c r="C331" s="8"/>
@@ -10015,7 +10017,7 @@
       <c r="Y331" s="8"/>
       <c r="Z331" s="8"/>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="8"/>
       <c r="B332" s="15"/>
       <c r="C332" s="8"/>
@@ -10043,7 +10045,7 @@
       <c r="Y332" s="8"/>
       <c r="Z332" s="8"/>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="8"/>
       <c r="B333" s="15"/>
       <c r="C333" s="8"/>
@@ -10071,7 +10073,7 @@
       <c r="Y333" s="8"/>
       <c r="Z333" s="8"/>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="8"/>
       <c r="B334" s="15"/>
       <c r="C334" s="8"/>
@@ -10099,7 +10101,7 @@
       <c r="Y334" s="8"/>
       <c r="Z334" s="8"/>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="8"/>
       <c r="B335" s="15"/>
       <c r="C335" s="8"/>
@@ -10127,7 +10129,7 @@
       <c r="Y335" s="8"/>
       <c r="Z335" s="8"/>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="8"/>
       <c r="B336" s="15"/>
       <c r="C336" s="8"/>
@@ -10155,7 +10157,7 @@
       <c r="Y336" s="8"/>
       <c r="Z336" s="8"/>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="8"/>
       <c r="B337" s="15"/>
       <c r="C337" s="8"/>
@@ -10183,7 +10185,7 @@
       <c r="Y337" s="8"/>
       <c r="Z337" s="8"/>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="8"/>
       <c r="B338" s="15"/>
       <c r="C338" s="8"/>
@@ -10211,7 +10213,7 @@
       <c r="Y338" s="8"/>
       <c r="Z338" s="8"/>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="8"/>
       <c r="B339" s="15"/>
       <c r="C339" s="8"/>
@@ -10239,7 +10241,7 @@
       <c r="Y339" s="8"/>
       <c r="Z339" s="8"/>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="8"/>
       <c r="B340" s="15"/>
       <c r="C340" s="8"/>
@@ -10267,7 +10269,7 @@
       <c r="Y340" s="8"/>
       <c r="Z340" s="8"/>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="8"/>
       <c r="B341" s="15"/>
       <c r="C341" s="8"/>
@@ -10295,7 +10297,7 @@
       <c r="Y341" s="8"/>
       <c r="Z341" s="8"/>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="8"/>
       <c r="B342" s="15"/>
       <c r="C342" s="8"/>
@@ -10323,7 +10325,7 @@
       <c r="Y342" s="8"/>
       <c r="Z342" s="8"/>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="8"/>
       <c r="B343" s="15"/>
       <c r="C343" s="8"/>
@@ -10351,7 +10353,7 @@
       <c r="Y343" s="8"/>
       <c r="Z343" s="8"/>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="8"/>
       <c r="B344" s="15"/>
       <c r="C344" s="8"/>
@@ -10379,7 +10381,7 @@
       <c r="Y344" s="8"/>
       <c r="Z344" s="8"/>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="8"/>
       <c r="B345" s="15"/>
       <c r="C345" s="8"/>
@@ -10407,7 +10409,7 @@
       <c r="Y345" s="8"/>
       <c r="Z345" s="8"/>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="8"/>
       <c r="B346" s="15"/>
       <c r="C346" s="8"/>
@@ -10435,7 +10437,7 @@
       <c r="Y346" s="8"/>
       <c r="Z346" s="8"/>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="8"/>
       <c r="B347" s="15"/>
       <c r="C347" s="8"/>
@@ -10463,7 +10465,7 @@
       <c r="Y347" s="8"/>
       <c r="Z347" s="8"/>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="8"/>
       <c r="B348" s="15"/>
       <c r="C348" s="8"/>
@@ -10491,7 +10493,7 @@
       <c r="Y348" s="8"/>
       <c r="Z348" s="8"/>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="8"/>
       <c r="B349" s="15"/>
       <c r="C349" s="8"/>
@@ -10519,7 +10521,7 @@
       <c r="Y349" s="8"/>
       <c r="Z349" s="8"/>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="8"/>
       <c r="B350" s="15"/>
       <c r="C350" s="8"/>
@@ -10547,7 +10549,7 @@
       <c r="Y350" s="8"/>
       <c r="Z350" s="8"/>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="8"/>
       <c r="B351" s="15"/>
       <c r="C351" s="8"/>
@@ -10575,7 +10577,7 @@
       <c r="Y351" s="8"/>
       <c r="Z351" s="8"/>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="8"/>
       <c r="B352" s="15"/>
       <c r="C352" s="8"/>
@@ -10603,7 +10605,7 @@
       <c r="Y352" s="8"/>
       <c r="Z352" s="8"/>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="8"/>
       <c r="B353" s="15"/>
       <c r="C353" s="8"/>
@@ -10631,7 +10633,7 @@
       <c r="Y353" s="8"/>
       <c r="Z353" s="8"/>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="8"/>
       <c r="B354" s="15"/>
       <c r="C354" s="8"/>
@@ -10659,7 +10661,7 @@
       <c r="Y354" s="8"/>
       <c r="Z354" s="8"/>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="8"/>
       <c r="B355" s="15"/>
       <c r="C355" s="8"/>
@@ -10687,7 +10689,7 @@
       <c r="Y355" s="8"/>
       <c r="Z355" s="8"/>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="8"/>
       <c r="B356" s="15"/>
       <c r="C356" s="8"/>
@@ -10715,7 +10717,7 @@
       <c r="Y356" s="8"/>
       <c r="Z356" s="8"/>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="8"/>
       <c r="B357" s="15"/>
       <c r="C357" s="8"/>
@@ -10743,7 +10745,7 @@
       <c r="Y357" s="8"/>
       <c r="Z357" s="8"/>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="8"/>
       <c r="B358" s="15"/>
       <c r="C358" s="8"/>
@@ -10771,7 +10773,7 @@
       <c r="Y358" s="8"/>
       <c r="Z358" s="8"/>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A359" s="8"/>
       <c r="B359" s="15"/>
       <c r="C359" s="8"/>
@@ -10799,7 +10801,7 @@
       <c r="Y359" s="8"/>
       <c r="Z359" s="8"/>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A360" s="8"/>
       <c r="B360" s="15"/>
       <c r="C360" s="8"/>
@@ -10827,7 +10829,7 @@
       <c r="Y360" s="8"/>
       <c r="Z360" s="8"/>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A361" s="8"/>
       <c r="B361" s="15"/>
       <c r="C361" s="8"/>
@@ -10855,7 +10857,7 @@
       <c r="Y361" s="8"/>
       <c r="Z361" s="8"/>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A362" s="8"/>
       <c r="B362" s="15"/>
       <c r="C362" s="8"/>
@@ -10883,7 +10885,7 @@
       <c r="Y362" s="8"/>
       <c r="Z362" s="8"/>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A363" s="8"/>
       <c r="B363" s="15"/>
       <c r="C363" s="8"/>
@@ -10911,7 +10913,7 @@
       <c r="Y363" s="8"/>
       <c r="Z363" s="8"/>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A364" s="8"/>
       <c r="B364" s="15"/>
       <c r="C364" s="8"/>
@@ -10939,7 +10941,7 @@
       <c r="Y364" s="8"/>
       <c r="Z364" s="8"/>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="8"/>
       <c r="B365" s="15"/>
       <c r="C365" s="8"/>
@@ -10967,7 +10969,7 @@
       <c r="Y365" s="8"/>
       <c r="Z365" s="8"/>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A366" s="8"/>
       <c r="B366" s="15"/>
       <c r="C366" s="8"/>
@@ -10995,7 +10997,7 @@
       <c r="Y366" s="8"/>
       <c r="Z366" s="8"/>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A367" s="8"/>
       <c r="B367" s="15"/>
       <c r="C367" s="8"/>
@@ -11023,7 +11025,7 @@
       <c r="Y367" s="8"/>
       <c r="Z367" s="8"/>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A368" s="8"/>
       <c r="B368" s="15"/>
       <c r="C368" s="8"/>
@@ -11051,7 +11053,7 @@
       <c r="Y368" s="8"/>
       <c r="Z368" s="8"/>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A369" s="8"/>
       <c r="B369" s="15"/>
       <c r="C369" s="8"/>
@@ -11079,7 +11081,7 @@
       <c r="Y369" s="8"/>
       <c r="Z369" s="8"/>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A370" s="8"/>
       <c r="B370" s="15"/>
       <c r="C370" s="8"/>
@@ -11107,7 +11109,7 @@
       <c r="Y370" s="8"/>
       <c r="Z370" s="8"/>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A371" s="8"/>
       <c r="B371" s="15"/>
       <c r="C371" s="8"/>
@@ -11135,7 +11137,7 @@
       <c r="Y371" s="8"/>
       <c r="Z371" s="8"/>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A372" s="8"/>
       <c r="B372" s="15"/>
       <c r="C372" s="8"/>
@@ -11163,7 +11165,7 @@
       <c r="Y372" s="8"/>
       <c r="Z372" s="8"/>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A373" s="8"/>
       <c r="B373" s="15"/>
       <c r="C373" s="8"/>
@@ -11191,7 +11193,7 @@
       <c r="Y373" s="8"/>
       <c r="Z373" s="8"/>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A374" s="8"/>
       <c r="B374" s="15"/>
       <c r="C374" s="8"/>
@@ -11219,7 +11221,7 @@
       <c r="Y374" s="8"/>
       <c r="Z374" s="8"/>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A375" s="8"/>
       <c r="B375" s="15"/>
       <c r="C375" s="8"/>
@@ -11247,7 +11249,7 @@
       <c r="Y375" s="8"/>
       <c r="Z375" s="8"/>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A376" s="8"/>
       <c r="B376" s="15"/>
       <c r="C376" s="8"/>
@@ -11275,7 +11277,7 @@
       <c r="Y376" s="8"/>
       <c r="Z376" s="8"/>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A377" s="8"/>
       <c r="B377" s="15"/>
       <c r="C377" s="8"/>
@@ -11303,7 +11305,7 @@
       <c r="Y377" s="8"/>
       <c r="Z377" s="8"/>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A378" s="8"/>
       <c r="B378" s="15"/>
       <c r="C378" s="8"/>
@@ -11331,7 +11333,7 @@
       <c r="Y378" s="8"/>
       <c r="Z378" s="8"/>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A379" s="8"/>
       <c r="B379" s="15"/>
       <c r="C379" s="8"/>
@@ -11359,7 +11361,7 @@
       <c r="Y379" s="8"/>
       <c r="Z379" s="8"/>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A380" s="8"/>
       <c r="B380" s="15"/>
       <c r="C380" s="8"/>
@@ -11387,7 +11389,7 @@
       <c r="Y380" s="8"/>
       <c r="Z380" s="8"/>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A381" s="8"/>
       <c r="B381" s="15"/>
       <c r="C381" s="8"/>
@@ -11415,7 +11417,7 @@
       <c r="Y381" s="8"/>
       <c r="Z381" s="8"/>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A382" s="8"/>
       <c r="B382" s="15"/>
       <c r="C382" s="8"/>
@@ -11443,7 +11445,7 @@
       <c r="Y382" s="8"/>
       <c r="Z382" s="8"/>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A383" s="8"/>
       <c r="B383" s="15"/>
       <c r="C383" s="8"/>
@@ -11471,7 +11473,7 @@
       <c r="Y383" s="8"/>
       <c r="Z383" s="8"/>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A384" s="8"/>
       <c r="B384" s="15"/>
       <c r="C384" s="8"/>
@@ -11499,7 +11501,7 @@
       <c r="Y384" s="8"/>
       <c r="Z384" s="8"/>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A385" s="8"/>
       <c r="B385" s="15"/>
       <c r="C385" s="8"/>
@@ -11527,7 +11529,7 @@
       <c r="Y385" s="8"/>
       <c r="Z385" s="8"/>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A386" s="8"/>
       <c r="B386" s="15"/>
       <c r="C386" s="8"/>
@@ -11555,7 +11557,7 @@
       <c r="Y386" s="8"/>
       <c r="Z386" s="8"/>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A387" s="8"/>
       <c r="B387" s="15"/>
       <c r="C387" s="8"/>
@@ -11583,7 +11585,7 @@
       <c r="Y387" s="8"/>
       <c r="Z387" s="8"/>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A388" s="8"/>
       <c r="B388" s="15"/>
       <c r="C388" s="8"/>
@@ -11611,7 +11613,7 @@
       <c r="Y388" s="8"/>
       <c r="Z388" s="8"/>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A389" s="8"/>
       <c r="B389" s="15"/>
       <c r="C389" s="8"/>
@@ -11639,7 +11641,7 @@
       <c r="Y389" s="8"/>
       <c r="Z389" s="8"/>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A390" s="8"/>
       <c r="B390" s="15"/>
       <c r="C390" s="8"/>
@@ -11667,7 +11669,7 @@
       <c r="Y390" s="8"/>
       <c r="Z390" s="8"/>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A391" s="8"/>
       <c r="B391" s="15"/>
       <c r="C391" s="8"/>
@@ -11695,7 +11697,7 @@
       <c r="Y391" s="8"/>
       <c r="Z391" s="8"/>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A392" s="8"/>
       <c r="B392" s="15"/>
       <c r="C392" s="8"/>
@@ -11723,7 +11725,7 @@
       <c r="Y392" s="8"/>
       <c r="Z392" s="8"/>
     </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A393" s="8"/>
       <c r="B393" s="15"/>
       <c r="C393" s="8"/>
@@ -11751,7 +11753,7 @@
       <c r="Y393" s="8"/>
       <c r="Z393" s="8"/>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A394" s="8"/>
       <c r="B394" s="15"/>
       <c r="C394" s="8"/>
@@ -11779,7 +11781,7 @@
       <c r="Y394" s="8"/>
       <c r="Z394" s="8"/>
     </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="8"/>
       <c r="B395" s="15"/>
       <c r="C395" s="8"/>
@@ -11807,7 +11809,7 @@
       <c r="Y395" s="8"/>
       <c r="Z395" s="8"/>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A396" s="8"/>
       <c r="B396" s="15"/>
       <c r="C396" s="8"/>
@@ -11835,7 +11837,7 @@
       <c r="Y396" s="8"/>
       <c r="Z396" s="8"/>
     </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A397" s="8"/>
       <c r="B397" s="15"/>
       <c r="C397" s="8"/>
@@ -11863,7 +11865,7 @@
       <c r="Y397" s="8"/>
       <c r="Z397" s="8"/>
     </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A398" s="8"/>
       <c r="B398" s="15"/>
       <c r="C398" s="8"/>
@@ -11891,7 +11893,7 @@
       <c r="Y398" s="8"/>
       <c r="Z398" s="8"/>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A399" s="8"/>
       <c r="B399" s="15"/>
       <c r="C399" s="8"/>
@@ -11919,7 +11921,7 @@
       <c r="Y399" s="8"/>
       <c r="Z399" s="8"/>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A400" s="8"/>
       <c r="B400" s="15"/>
       <c r="C400" s="8"/>
@@ -11947,7 +11949,7 @@
       <c r="Y400" s="8"/>
       <c r="Z400" s="8"/>
     </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A401" s="8"/>
       <c r="B401" s="15"/>
       <c r="C401" s="8"/>
@@ -11975,7 +11977,7 @@
       <c r="Y401" s="8"/>
       <c r="Z401" s="8"/>
     </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A402" s="8"/>
       <c r="B402" s="15"/>
       <c r="C402" s="8"/>
@@ -12003,7 +12005,7 @@
       <c r="Y402" s="8"/>
       <c r="Z402" s="8"/>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A403" s="8"/>
       <c r="B403" s="15"/>
       <c r="C403" s="8"/>
@@ -12031,7 +12033,7 @@
       <c r="Y403" s="8"/>
       <c r="Z403" s="8"/>
     </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="8"/>
       <c r="B404" s="15"/>
       <c r="C404" s="8"/>
@@ -12059,7 +12061,7 @@
       <c r="Y404" s="8"/>
       <c r="Z404" s="8"/>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A405" s="8"/>
       <c r="B405" s="15"/>
       <c r="C405" s="8"/>
@@ -12087,7 +12089,7 @@
       <c r="Y405" s="8"/>
       <c r="Z405" s="8"/>
     </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="8"/>
       <c r="B406" s="15"/>
       <c r="C406" s="8"/>
@@ -12115,7 +12117,7 @@
       <c r="Y406" s="8"/>
       <c r="Z406" s="8"/>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="8"/>
       <c r="B407" s="15"/>
       <c r="C407" s="8"/>
@@ -12143,7 +12145,7 @@
       <c r="Y407" s="8"/>
       <c r="Z407" s="8"/>
     </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="8"/>
       <c r="B408" s="15"/>
       <c r="C408" s="8"/>
@@ -12171,7 +12173,7 @@
       <c r="Y408" s="8"/>
       <c r="Z408" s="8"/>
     </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="8"/>
       <c r="B409" s="15"/>
       <c r="C409" s="8"/>
@@ -12199,7 +12201,7 @@
       <c r="Y409" s="8"/>
       <c r="Z409" s="8"/>
     </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A410" s="8"/>
       <c r="B410" s="15"/>
       <c r="C410" s="8"/>
@@ -12227,7 +12229,7 @@
       <c r="Y410" s="8"/>
       <c r="Z410" s="8"/>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A411" s="8"/>
       <c r="B411" s="15"/>
       <c r="C411" s="8"/>
@@ -12255,7 +12257,7 @@
       <c r="Y411" s="8"/>
       <c r="Z411" s="8"/>
     </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A412" s="8"/>
       <c r="B412" s="15"/>
       <c r="C412" s="8"/>
@@ -12283,7 +12285,7 @@
       <c r="Y412" s="8"/>
       <c r="Z412" s="8"/>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A413" s="8"/>
       <c r="B413" s="15"/>
       <c r="C413" s="8"/>
@@ -12311,7 +12313,7 @@
       <c r="Y413" s="8"/>
       <c r="Z413" s="8"/>
     </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A414" s="8"/>
       <c r="B414" s="15"/>
       <c r="C414" s="8"/>
@@ -12339,7 +12341,7 @@
       <c r="Y414" s="8"/>
       <c r="Z414" s="8"/>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A415" s="8"/>
       <c r="B415" s="15"/>
       <c r="C415" s="8"/>
@@ -12367,7 +12369,7 @@
       <c r="Y415" s="8"/>
       <c r="Z415" s="8"/>
     </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A416" s="8"/>
       <c r="B416" s="15"/>
       <c r="C416" s="8"/>
@@ -12395,7 +12397,7 @@
       <c r="Y416" s="8"/>
       <c r="Z416" s="8"/>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A417" s="8"/>
       <c r="B417" s="15"/>
       <c r="C417" s="8"/>
@@ -12423,7 +12425,7 @@
       <c r="Y417" s="8"/>
       <c r="Z417" s="8"/>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A418" s="8"/>
       <c r="B418" s="15"/>
       <c r="C418" s="8"/>
@@ -12451,7 +12453,7 @@
       <c r="Y418" s="8"/>
       <c r="Z418" s="8"/>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A419" s="8"/>
       <c r="B419" s="15"/>
       <c r="C419" s="8"/>
@@ -12479,7 +12481,7 @@
       <c r="Y419" s="8"/>
       <c r="Z419" s="8"/>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A420" s="8"/>
       <c r="B420" s="15"/>
       <c r="C420" s="8"/>
@@ -12507,7 +12509,7 @@
       <c r="Y420" s="8"/>
       <c r="Z420" s="8"/>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A421" s="8"/>
       <c r="B421" s="15"/>
       <c r="C421" s="8"/>
@@ -12535,7 +12537,7 @@
       <c r="Y421" s="8"/>
       <c r="Z421" s="8"/>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A422" s="8"/>
       <c r="B422" s="15"/>
       <c r="C422" s="8"/>
@@ -12563,7 +12565,7 @@
       <c r="Y422" s="8"/>
       <c r="Z422" s="8"/>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A423" s="8"/>
       <c r="B423" s="15"/>
       <c r="C423" s="8"/>
@@ -12591,7 +12593,7 @@
       <c r="Y423" s="8"/>
       <c r="Z423" s="8"/>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A424" s="8"/>
       <c r="B424" s="15"/>
       <c r="C424" s="8"/>
@@ -12619,7 +12621,7 @@
       <c r="Y424" s="8"/>
       <c r="Z424" s="8"/>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A425" s="8"/>
       <c r="B425" s="15"/>
       <c r="C425" s="8"/>
@@ -12647,7 +12649,7 @@
       <c r="Y425" s="8"/>
       <c r="Z425" s="8"/>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A426" s="8"/>
       <c r="B426" s="15"/>
       <c r="C426" s="8"/>
@@ -12675,7 +12677,7 @@
       <c r="Y426" s="8"/>
       <c r="Z426" s="8"/>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A427" s="8"/>
       <c r="B427" s="15"/>
       <c r="C427" s="8"/>
@@ -12703,7 +12705,7 @@
       <c r="Y427" s="8"/>
       <c r="Z427" s="8"/>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="8"/>
       <c r="B428" s="15"/>
       <c r="C428" s="8"/>
@@ -12731,7 +12733,7 @@
       <c r="Y428" s="8"/>
       <c r="Z428" s="8"/>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A429" s="8"/>
       <c r="B429" s="15"/>
       <c r="C429" s="8"/>
@@ -12759,7 +12761,7 @@
       <c r="Y429" s="8"/>
       <c r="Z429" s="8"/>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="8"/>
       <c r="B430" s="15"/>
       <c r="C430" s="8"/>
@@ -12787,7 +12789,7 @@
       <c r="Y430" s="8"/>
       <c r="Z430" s="8"/>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>
       <c r="B431" s="15"/>
       <c r="C431" s="8"/>
@@ -12815,7 +12817,7 @@
       <c r="Y431" s="8"/>
       <c r="Z431" s="8"/>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A432" s="8"/>
       <c r="B432" s="15"/>
       <c r="C432" s="8"/>
@@ -12843,7 +12845,7 @@
       <c r="Y432" s="8"/>
       <c r="Z432" s="8"/>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A433" s="8"/>
       <c r="B433" s="15"/>
       <c r="C433" s="8"/>
@@ -12871,7 +12873,7 @@
       <c r="Y433" s="8"/>
       <c r="Z433" s="8"/>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A434" s="8"/>
       <c r="B434" s="15"/>
       <c r="C434" s="8"/>
@@ -12899,7 +12901,7 @@
       <c r="Y434" s="8"/>
       <c r="Z434" s="8"/>
     </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A435" s="8"/>
       <c r="B435" s="15"/>
       <c r="C435" s="8"/>
@@ -12927,7 +12929,7 @@
       <c r="Y435" s="8"/>
       <c r="Z435" s="8"/>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A436" s="8"/>
       <c r="B436" s="15"/>
       <c r="C436" s="8"/>
@@ -12955,7 +12957,7 @@
       <c r="Y436" s="8"/>
       <c r="Z436" s="8"/>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A437" s="8"/>
       <c r="B437" s="15"/>
       <c r="C437" s="8"/>
@@ -12983,7 +12985,7 @@
       <c r="Y437" s="8"/>
       <c r="Z437" s="8"/>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A438" s="8"/>
       <c r="B438" s="15"/>
       <c r="C438" s="8"/>
@@ -13011,7 +13013,7 @@
       <c r="Y438" s="8"/>
       <c r="Z438" s="8"/>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A439" s="8"/>
       <c r="B439" s="15"/>
       <c r="C439" s="8"/>
@@ -13039,7 +13041,7 @@
       <c r="Y439" s="8"/>
       <c r="Z439" s="8"/>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A440" s="8"/>
       <c r="B440" s="15"/>
       <c r="C440" s="8"/>
@@ -13067,7 +13069,7 @@
       <c r="Y440" s="8"/>
       <c r="Z440" s="8"/>
     </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A441" s="8"/>
       <c r="B441" s="15"/>
       <c r="C441" s="8"/>
@@ -13095,7 +13097,7 @@
       <c r="Y441" s="8"/>
       <c r="Z441" s="8"/>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A442" s="8"/>
       <c r="B442" s="15"/>
       <c r="C442" s="8"/>
@@ -13123,7 +13125,7 @@
       <c r="Y442" s="8"/>
       <c r="Z442" s="8"/>
     </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="8"/>
       <c r="B443" s="15"/>
       <c r="C443" s="8"/>
@@ -13151,7 +13153,7 @@
       <c r="Y443" s="8"/>
       <c r="Z443" s="8"/>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="8"/>
       <c r="B444" s="15"/>
       <c r="C444" s="8"/>
@@ -13179,7 +13181,7 @@
       <c r="Y444" s="8"/>
       <c r="Z444" s="8"/>
     </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A445" s="8"/>
       <c r="B445" s="15"/>
       <c r="C445" s="8"/>
@@ -13207,7 +13209,7 @@
       <c r="Y445" s="8"/>
       <c r="Z445" s="8"/>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="8"/>
       <c r="B446" s="15"/>
       <c r="C446" s="8"/>
@@ -13235,7 +13237,7 @@
       <c r="Y446" s="8"/>
       <c r="Z446" s="8"/>
     </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="8"/>
       <c r="B447" s="15"/>
       <c r="C447" s="8"/>
@@ -13263,7 +13265,7 @@
       <c r="Y447" s="8"/>
       <c r="Z447" s="8"/>
     </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="8"/>
       <c r="B448" s="15"/>
       <c r="C448" s="8"/>
@@ -13291,7 +13293,7 @@
       <c r="Y448" s="8"/>
       <c r="Z448" s="8"/>
     </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A449" s="8"/>
       <c r="B449" s="15"/>
       <c r="C449" s="8"/>
@@ -13319,7 +13321,7 @@
       <c r="Y449" s="8"/>
       <c r="Z449" s="8"/>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A450" s="8"/>
       <c r="B450" s="15"/>
       <c r="C450" s="8"/>
@@ -13347,7 +13349,7 @@
       <c r="Y450" s="8"/>
       <c r="Z450" s="8"/>
     </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A451" s="8"/>
       <c r="B451" s="15"/>
       <c r="C451" s="8"/>
@@ -13375,7 +13377,7 @@
       <c r="Y451" s="8"/>
       <c r="Z451" s="8"/>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A452" s="8"/>
       <c r="B452" s="15"/>
       <c r="C452" s="8"/>
@@ -13403,7 +13405,7 @@
       <c r="Y452" s="8"/>
       <c r="Z452" s="8"/>
     </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A453" s="8"/>
       <c r="B453" s="15"/>
       <c r="C453" s="8"/>
@@ -13431,7 +13433,7 @@
       <c r="Y453" s="8"/>
       <c r="Z453" s="8"/>
     </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="8"/>
       <c r="B454" s="15"/>
       <c r="C454" s="8"/>
@@ -13459,7 +13461,7 @@
       <c r="Y454" s="8"/>
       <c r="Z454" s="8"/>
     </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A455" s="8"/>
       <c r="B455" s="15"/>
       <c r="C455" s="8"/>
@@ -13487,7 +13489,7 @@
       <c r="Y455" s="8"/>
       <c r="Z455" s="8"/>
     </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="8"/>
       <c r="B456" s="15"/>
       <c r="C456" s="8"/>
@@ -13515,7 +13517,7 @@
       <c r="Y456" s="8"/>
       <c r="Z456" s="8"/>
     </row>
-    <row r="457" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A457" s="8"/>
       <c r="B457" s="15"/>
       <c r="C457" s="8"/>
@@ -13543,7 +13545,7 @@
       <c r="Y457" s="8"/>
       <c r="Z457" s="8"/>
     </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A458" s="8"/>
       <c r="B458" s="15"/>
       <c r="C458" s="8"/>
@@ -13571,7 +13573,7 @@
       <c r="Y458" s="8"/>
       <c r="Z458" s="8"/>
     </row>
-    <row r="459" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A459" s="8"/>
       <c r="B459" s="15"/>
       <c r="C459" s="8"/>
@@ -13599,7 +13601,7 @@
       <c r="Y459" s="8"/>
       <c r="Z459" s="8"/>
     </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A460" s="8"/>
       <c r="B460" s="15"/>
       <c r="C460" s="8"/>
@@ -13627,7 +13629,7 @@
       <c r="Y460" s="8"/>
       <c r="Z460" s="8"/>
     </row>
-    <row r="461" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A461" s="8"/>
       <c r="B461" s="15"/>
       <c r="C461" s="8"/>
@@ -13655,7 +13657,7 @@
       <c r="Y461" s="8"/>
       <c r="Z461" s="8"/>
     </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A462" s="8"/>
       <c r="B462" s="15"/>
       <c r="C462" s="8"/>
@@ -13683,7 +13685,7 @@
       <c r="Y462" s="8"/>
       <c r="Z462" s="8"/>
     </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A463" s="8"/>
       <c r="B463" s="15"/>
       <c r="C463" s="8"/>
@@ -13711,7 +13713,7 @@
       <c r="Y463" s="8"/>
       <c r="Z463" s="8"/>
     </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A464" s="8"/>
       <c r="B464" s="15"/>
       <c r="C464" s="8"/>
@@ -13739,7 +13741,7 @@
       <c r="Y464" s="8"/>
       <c r="Z464" s="8"/>
     </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A465" s="8"/>
       <c r="B465" s="15"/>
       <c r="C465" s="8"/>
@@ -13767,7 +13769,7 @@
       <c r="Y465" s="8"/>
       <c r="Z465" s="8"/>
     </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A466" s="8"/>
       <c r="B466" s="15"/>
       <c r="C466" s="8"/>
@@ -13795,7 +13797,7 @@
       <c r="Y466" s="8"/>
       <c r="Z466" s="8"/>
     </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A467" s="8"/>
       <c r="B467" s="15"/>
       <c r="C467" s="8"/>
@@ -13823,7 +13825,7 @@
       <c r="Y467" s="8"/>
       <c r="Z467" s="8"/>
     </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A468" s="8"/>
       <c r="B468" s="15"/>
       <c r="C468" s="8"/>
@@ -13851,7 +13853,7 @@
       <c r="Y468" s="8"/>
       <c r="Z468" s="8"/>
     </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A469" s="8"/>
       <c r="B469" s="15"/>
       <c r="C469" s="8"/>
@@ -13879,7 +13881,7 @@
       <c r="Y469" s="8"/>
       <c r="Z469" s="8"/>
     </row>
-    <row r="470" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A470" s="8"/>
       <c r="B470" s="15"/>
       <c r="C470" s="8"/>
@@ -13907,7 +13909,7 @@
       <c r="Y470" s="8"/>
       <c r="Z470" s="8"/>
     </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A471" s="8"/>
       <c r="B471" s="15"/>
       <c r="C471" s="8"/>
@@ -13935,7 +13937,7 @@
       <c r="Y471" s="8"/>
       <c r="Z471" s="8"/>
     </row>
-    <row r="472" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A472" s="8"/>
       <c r="B472" s="15"/>
       <c r="C472" s="8"/>
@@ -13963,7 +13965,7 @@
       <c r="Y472" s="8"/>
       <c r="Z472" s="8"/>
     </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A473" s="8"/>
       <c r="B473" s="15"/>
       <c r="C473" s="8"/>
@@ -13991,7 +13993,7 @@
       <c r="Y473" s="8"/>
       <c r="Z473" s="8"/>
     </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A474" s="8"/>
       <c r="B474" s="15"/>
       <c r="C474" s="8"/>
@@ -14019,7 +14021,7 @@
       <c r="Y474" s="8"/>
       <c r="Z474" s="8"/>
     </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A475" s="8"/>
       <c r="B475" s="15"/>
       <c r="C475" s="8"/>
@@ -14047,7 +14049,7 @@
       <c r="Y475" s="8"/>
       <c r="Z475" s="8"/>
     </row>
-    <row r="476" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A476" s="8"/>
       <c r="B476" s="15"/>
       <c r="C476" s="8"/>
@@ -14075,7 +14077,7 @@
       <c r="Y476" s="8"/>
       <c r="Z476" s="8"/>
     </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A477" s="8"/>
       <c r="B477" s="15"/>
       <c r="C477" s="8"/>
@@ -14103,7 +14105,7 @@
       <c r="Y477" s="8"/>
       <c r="Z477" s="8"/>
     </row>
-    <row r="478" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A478" s="8"/>
       <c r="B478" s="15"/>
       <c r="C478" s="8"/>
@@ -14131,7 +14133,7 @@
       <c r="Y478" s="8"/>
       <c r="Z478" s="8"/>
     </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A479" s="8"/>
       <c r="B479" s="15"/>
       <c r="C479" s="8"/>
@@ -14159,7 +14161,7 @@
       <c r="Y479" s="8"/>
       <c r="Z479" s="8"/>
     </row>
-    <row r="480" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="8"/>
       <c r="B480" s="15"/>
       <c r="C480" s="8"/>
@@ -14187,7 +14189,7 @@
       <c r="Y480" s="8"/>
       <c r="Z480" s="8"/>
     </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A481" s="8"/>
       <c r="B481" s="15"/>
       <c r="C481" s="8"/>
@@ -14215,7 +14217,7 @@
       <c r="Y481" s="8"/>
       <c r="Z481" s="8"/>
     </row>
-    <row r="482" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A482" s="8"/>
       <c r="B482" s="15"/>
       <c r="C482" s="8"/>
@@ -14243,7 +14245,7 @@
       <c r="Y482" s="8"/>
       <c r="Z482" s="8"/>
     </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A483" s="8"/>
       <c r="B483" s="15"/>
       <c r="C483" s="8"/>
@@ -14271,7 +14273,7 @@
       <c r="Y483" s="8"/>
       <c r="Z483" s="8"/>
     </row>
-    <row r="484" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A484" s="8"/>
       <c r="B484" s="15"/>
       <c r="C484" s="8"/>
@@ -14299,7 +14301,7 @@
       <c r="Y484" s="8"/>
       <c r="Z484" s="8"/>
     </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A485" s="8"/>
       <c r="B485" s="15"/>
       <c r="C485" s="8"/>
@@ -14327,7 +14329,7 @@
       <c r="Y485" s="8"/>
       <c r="Z485" s="8"/>
     </row>
-    <row r="486" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A486" s="8"/>
       <c r="B486" s="15"/>
       <c r="C486" s="8"/>
@@ -14355,7 +14357,7 @@
       <c r="Y486" s="8"/>
       <c r="Z486" s="8"/>
     </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A487" s="8"/>
       <c r="B487" s="15"/>
       <c r="C487" s="8"/>
@@ -14383,7 +14385,7 @@
       <c r="Y487" s="8"/>
       <c r="Z487" s="8"/>
     </row>
-    <row r="488" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A488" s="8"/>
       <c r="B488" s="15"/>
       <c r="C488" s="8"/>
@@ -14411,7 +14413,7 @@
       <c r="Y488" s="8"/>
       <c r="Z488" s="8"/>
     </row>
-    <row r="489" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A489" s="8"/>
       <c r="B489" s="15"/>
       <c r="C489" s="8"/>
@@ -14439,7 +14441,7 @@
       <c r="Y489" s="8"/>
       <c r="Z489" s="8"/>
     </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A490" s="8"/>
       <c r="B490" s="15"/>
       <c r="C490" s="8"/>
@@ -14467,7 +14469,7 @@
       <c r="Y490" s="8"/>
       <c r="Z490" s="8"/>
     </row>
-    <row r="491" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A491" s="8"/>
       <c r="B491" s="15"/>
       <c r="C491" s="8"/>
@@ -14495,7 +14497,7 @@
       <c r="Y491" s="8"/>
       <c r="Z491" s="8"/>
     </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A492" s="8"/>
       <c r="B492" s="15"/>
       <c r="C492" s="8"/>
@@ -14523,7 +14525,7 @@
       <c r="Y492" s="8"/>
       <c r="Z492" s="8"/>
     </row>
-    <row r="493" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A493" s="8"/>
       <c r="B493" s="15"/>
       <c r="C493" s="8"/>
@@ -14551,7 +14553,7 @@
       <c r="Y493" s="8"/>
       <c r="Z493" s="8"/>
     </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A494" s="8"/>
       <c r="B494" s="15"/>
       <c r="C494" s="8"/>
@@ -14579,7 +14581,7 @@
       <c r="Y494" s="8"/>
       <c r="Z494" s="8"/>
     </row>
-    <row r="495" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="8"/>
       <c r="B495" s="15"/>
       <c r="C495" s="8"/>
@@ -14607,7 +14609,7 @@
       <c r="Y495" s="8"/>
       <c r="Z495" s="8"/>
     </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A496" s="8"/>
       <c r="B496" s="15"/>
       <c r="C496" s="8"/>
@@ -14635,7 +14637,7 @@
       <c r="Y496" s="8"/>
       <c r="Z496" s="8"/>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A497" s="8"/>
       <c r="B497" s="15"/>
       <c r="C497" s="8"/>
@@ -14663,7 +14665,7 @@
       <c r="Y497" s="8"/>
       <c r="Z497" s="8"/>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A498" s="8"/>
       <c r="B498" s="15"/>
       <c r="C498" s="8"/>
@@ -14691,7 +14693,7 @@
       <c r="Y498" s="8"/>
       <c r="Z498" s="8"/>
     </row>
-    <row r="499" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A499" s="8"/>
       <c r="B499" s="15"/>
       <c r="C499" s="8"/>
@@ -14719,7 +14721,7 @@
       <c r="Y499" s="8"/>
       <c r="Z499" s="8"/>
     </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A500" s="8"/>
       <c r="B500" s="15"/>
       <c r="C500" s="8"/>
@@ -14747,7 +14749,7 @@
       <c r="Y500" s="8"/>
       <c r="Z500" s="8"/>
     </row>
-    <row r="501" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A501" s="8"/>
       <c r="B501" s="15"/>
       <c r="C501" s="8"/>
@@ -14775,7 +14777,7 @@
       <c r="Y501" s="8"/>
       <c r="Z501" s="8"/>
     </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A502" s="8"/>
       <c r="B502" s="15"/>
       <c r="C502" s="8"/>
@@ -14803,7 +14805,7 @@
       <c r="Y502" s="8"/>
       <c r="Z502" s="8"/>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="8"/>
       <c r="B503" s="15"/>
       <c r="C503" s="8"/>
@@ -14831,7 +14833,7 @@
       <c r="Y503" s="8"/>
       <c r="Z503" s="8"/>
     </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A504" s="8"/>
       <c r="B504" s="15"/>
       <c r="C504" s="8"/>
@@ -14859,7 +14861,7 @@
       <c r="Y504" s="8"/>
       <c r="Z504" s="8"/>
     </row>
-    <row r="505" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A505" s="8"/>
       <c r="B505" s="15"/>
       <c r="C505" s="8"/>
@@ -14887,7 +14889,7 @@
       <c r="Y505" s="8"/>
       <c r="Z505" s="8"/>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="8"/>
       <c r="B506" s="15"/>
       <c r="C506" s="8"/>
@@ -14915,7 +14917,7 @@
       <c r="Y506" s="8"/>
       <c r="Z506" s="8"/>
     </row>
-    <row r="507" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A507" s="8"/>
       <c r="B507" s="15"/>
       <c r="C507" s="8"/>
@@ -14943,7 +14945,7 @@
       <c r="Y507" s="8"/>
       <c r="Z507" s="8"/>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="8"/>
       <c r="B508" s="15"/>
       <c r="C508" s="8"/>
@@ -14971,7 +14973,7 @@
       <c r="Y508" s="8"/>
       <c r="Z508" s="8"/>
     </row>
-    <row r="509" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A509" s="8"/>
       <c r="B509" s="15"/>
       <c r="C509" s="8"/>
@@ -14999,7 +15001,7 @@
       <c r="Y509" s="8"/>
       <c r="Z509" s="8"/>
     </row>
-    <row r="510" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A510" s="8"/>
       <c r="B510" s="15"/>
       <c r="C510" s="8"/>
@@ -15027,7 +15029,7 @@
       <c r="Y510" s="8"/>
       <c r="Z510" s="8"/>
     </row>
-    <row r="511" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A511" s="8"/>
       <c r="B511" s="15"/>
       <c r="C511" s="8"/>
@@ -15055,7 +15057,7 @@
       <c r="Y511" s="8"/>
       <c r="Z511" s="8"/>
     </row>
-    <row r="512" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A512" s="8"/>
       <c r="B512" s="15"/>
       <c r="C512" s="8"/>
@@ -15083,7 +15085,7 @@
       <c r="Y512" s="8"/>
       <c r="Z512" s="8"/>
     </row>
-    <row r="513" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A513" s="8"/>
       <c r="B513" s="15"/>
       <c r="C513" s="8"/>
@@ -15111,7 +15113,7 @@
       <c r="Y513" s="8"/>
       <c r="Z513" s="8"/>
     </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A514" s="8"/>
       <c r="B514" s="15"/>
       <c r="C514" s="8"/>
@@ -15139,7 +15141,7 @@
       <c r="Y514" s="8"/>
       <c r="Z514" s="8"/>
     </row>
-    <row r="515" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A515" s="8"/>
       <c r="B515" s="15"/>
       <c r="C515" s="8"/>
@@ -15167,7 +15169,7 @@
       <c r="Y515" s="8"/>
       <c r="Z515" s="8"/>
     </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A516" s="8"/>
       <c r="B516" s="15"/>
       <c r="C516" s="8"/>
@@ -15195,7 +15197,7 @@
       <c r="Y516" s="8"/>
       <c r="Z516" s="8"/>
     </row>
-    <row r="517" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A517" s="8"/>
       <c r="B517" s="15"/>
       <c r="C517" s="8"/>
@@ -15223,7 +15225,7 @@
       <c r="Y517" s="8"/>
       <c r="Z517" s="8"/>
     </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A518" s="8"/>
       <c r="B518" s="15"/>
       <c r="C518" s="8"/>
@@ -15251,7 +15253,7 @@
       <c r="Y518" s="8"/>
       <c r="Z518" s="8"/>
     </row>
-    <row r="519" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A519" s="8"/>
       <c r="B519" s="15"/>
       <c r="C519" s="8"/>
@@ -15279,7 +15281,7 @@
       <c r="Y519" s="8"/>
       <c r="Z519" s="8"/>
     </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A520" s="8"/>
       <c r="B520" s="15"/>
       <c r="C520" s="8"/>
@@ -15307,7 +15309,7 @@
       <c r="Y520" s="8"/>
       <c r="Z520" s="8"/>
     </row>
-    <row r="521" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A521" s="8"/>
       <c r="B521" s="15"/>
       <c r="C521" s="8"/>
@@ -15335,7 +15337,7 @@
       <c r="Y521" s="8"/>
       <c r="Z521" s="8"/>
     </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A522" s="8"/>
       <c r="B522" s="15"/>
       <c r="C522" s="8"/>
@@ -15363,7 +15365,7 @@
       <c r="Y522" s="8"/>
       <c r="Z522" s="8"/>
     </row>
-    <row r="523" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="8"/>
       <c r="B523" s="15"/>
       <c r="C523" s="8"/>
@@ -15391,7 +15393,7 @@
       <c r="Y523" s="8"/>
       <c r="Z523" s="8"/>
     </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="8"/>
       <c r="B524" s="15"/>
       <c r="C524" s="8"/>
@@ -15419,7 +15421,7 @@
       <c r="Y524" s="8"/>
       <c r="Z524" s="8"/>
     </row>
-    <row r="525" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="8"/>
       <c r="B525" s="15"/>
       <c r="C525" s="8"/>
@@ -15447,7 +15449,7 @@
       <c r="Y525" s="8"/>
       <c r="Z525" s="8"/>
     </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="8"/>
       <c r="B526" s="15"/>
       <c r="C526" s="8"/>
@@ -15475,7 +15477,7 @@
       <c r="Y526" s="8"/>
       <c r="Z526" s="8"/>
     </row>
-    <row r="527" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="8"/>
       <c r="B527" s="15"/>
       <c r="C527" s="8"/>
@@ -15503,7 +15505,7 @@
       <c r="Y527" s="8"/>
       <c r="Z527" s="8"/>
     </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="8"/>
       <c r="B528" s="15"/>
       <c r="C528" s="8"/>
@@ -15531,7 +15533,7 @@
       <c r="Y528" s="8"/>
       <c r="Z528" s="8"/>
     </row>
-    <row r="529" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="8"/>
       <c r="B529" s="15"/>
       <c r="C529" s="8"/>
@@ -15559,7 +15561,7 @@
       <c r="Y529" s="8"/>
       <c r="Z529" s="8"/>
     </row>
-    <row r="530" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A530" s="8"/>
       <c r="B530" s="15"/>
       <c r="C530" s="8"/>
@@ -15587,7 +15589,7 @@
       <c r="Y530" s="8"/>
       <c r="Z530" s="8"/>
     </row>
-    <row r="531" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="8"/>
       <c r="B531" s="15"/>
       <c r="C531" s="8"/>
@@ -15615,7 +15617,7 @@
       <c r="Y531" s="8"/>
       <c r="Z531" s="8"/>
     </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="8"/>
       <c r="B532" s="15"/>
       <c r="C532" s="8"/>
@@ -15643,7 +15645,7 @@
       <c r="Y532" s="8"/>
       <c r="Z532" s="8"/>
     </row>
-    <row r="533" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="8"/>
       <c r="B533" s="15"/>
       <c r="C533" s="8"/>
@@ -15671,7 +15673,7 @@
       <c r="Y533" s="8"/>
       <c r="Z533" s="8"/>
     </row>
-    <row r="534" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="8"/>
       <c r="B534" s="15"/>
       <c r="C534" s="8"/>
@@ -15699,7 +15701,7 @@
       <c r="Y534" s="8"/>
       <c r="Z534" s="8"/>
     </row>
-    <row r="535" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="8"/>
       <c r="B535" s="15"/>
       <c r="C535" s="8"/>
@@ -15727,7 +15729,7 @@
       <c r="Y535" s="8"/>
       <c r="Z535" s="8"/>
     </row>
-    <row r="536" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A536" s="8"/>
       <c r="B536" s="15"/>
       <c r="C536" s="8"/>
@@ -15755,7 +15757,7 @@
       <c r="Y536" s="8"/>
       <c r="Z536" s="8"/>
     </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A537" s="8"/>
       <c r="B537" s="15"/>
       <c r="C537" s="8"/>
@@ -15783,7 +15785,7 @@
       <c r="Y537" s="8"/>
       <c r="Z537" s="8"/>
     </row>
-    <row r="538" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A538" s="8"/>
       <c r="B538" s="15"/>
       <c r="C538" s="8"/>
@@ -15811,7 +15813,7 @@
       <c r="Y538" s="8"/>
       <c r="Z538" s="8"/>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A539" s="8"/>
       <c r="B539" s="15"/>
       <c r="C539" s="8"/>
@@ -15839,7 +15841,7 @@
       <c r="Y539" s="8"/>
       <c r="Z539" s="8"/>
     </row>
-    <row r="540" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A540" s="8"/>
       <c r="B540" s="15"/>
       <c r="C540" s="8"/>
@@ -15867,7 +15869,7 @@
       <c r="Y540" s="8"/>
       <c r="Z540" s="8"/>
     </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A541" s="8"/>
       <c r="B541" s="15"/>
       <c r="C541" s="8"/>
@@ -15895,7 +15897,7 @@
       <c r="Y541" s="8"/>
       <c r="Z541" s="8"/>
     </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A542" s="8"/>
       <c r="B542" s="15"/>
       <c r="C542" s="8"/>
@@ -15923,7 +15925,7 @@
       <c r="Y542" s="8"/>
       <c r="Z542" s="8"/>
     </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A543" s="8"/>
       <c r="B543" s="15"/>
       <c r="C543" s="8"/>
@@ -15951,7 +15953,7 @@
       <c r="Y543" s="8"/>
       <c r="Z543" s="8"/>
     </row>
-    <row r="544" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A544" s="8"/>
       <c r="B544" s="15"/>
       <c r="C544" s="8"/>
@@ -15979,7 +15981,7 @@
       <c r="Y544" s="8"/>
       <c r="Z544" s="8"/>
     </row>
-    <row r="545" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A545" s="8"/>
       <c r="B545" s="15"/>
       <c r="C545" s="8"/>
@@ -16007,7 +16009,7 @@
       <c r="Y545" s="8"/>
       <c r="Z545" s="8"/>
     </row>
-    <row r="546" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A546" s="8"/>
       <c r="B546" s="15"/>
       <c r="C546" s="8"/>
@@ -16035,7 +16037,7 @@
       <c r="Y546" s="8"/>
       <c r="Z546" s="8"/>
     </row>
-    <row r="547" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A547" s="8"/>
       <c r="B547" s="15"/>
       <c r="C547" s="8"/>
@@ -16063,7 +16065,7 @@
       <c r="Y547" s="8"/>
       <c r="Z547" s="8"/>
     </row>
-    <row r="548" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A548" s="8"/>
       <c r="B548" s="15"/>
       <c r="C548" s="8"/>
@@ -16091,7 +16093,7 @@
       <c r="Y548" s="8"/>
       <c r="Z548" s="8"/>
     </row>
-    <row r="549" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A549" s="8"/>
       <c r="B549" s="15"/>
       <c r="C549" s="8"/>
@@ -16119,7 +16121,7 @@
       <c r="Y549" s="8"/>
       <c r="Z549" s="8"/>
     </row>
-    <row r="550" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="8"/>
       <c r="B550" s="15"/>
       <c r="C550" s="8"/>
@@ -16147,7 +16149,7 @@
       <c r="Y550" s="8"/>
       <c r="Z550" s="8"/>
     </row>
-    <row r="551" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="8"/>
       <c r="B551" s="15"/>
       <c r="C551" s="8"/>
@@ -16175,7 +16177,7 @@
       <c r="Y551" s="8"/>
       <c r="Z551" s="8"/>
     </row>
-    <row r="552" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="8"/>
       <c r="B552" s="15"/>
       <c r="C552" s="8"/>
@@ -16203,7 +16205,7 @@
       <c r="Y552" s="8"/>
       <c r="Z552" s="8"/>
     </row>
-    <row r="553" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="8"/>
       <c r="B553" s="15"/>
       <c r="C553" s="8"/>
@@ -16231,7 +16233,7 @@
       <c r="Y553" s="8"/>
       <c r="Z553" s="8"/>
     </row>
-    <row r="554" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="8"/>
       <c r="B554" s="15"/>
       <c r="C554" s="8"/>
@@ -16259,7 +16261,7 @@
       <c r="Y554" s="8"/>
       <c r="Z554" s="8"/>
     </row>
-    <row r="555" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="8"/>
       <c r="B555" s="15"/>
       <c r="C555" s="8"/>
@@ -16287,7 +16289,7 @@
       <c r="Y555" s="8"/>
       <c r="Z555" s="8"/>
     </row>
-    <row r="556" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="8"/>
       <c r="B556" s="15"/>
       <c r="C556" s="8"/>
@@ -16315,7 +16317,7 @@
       <c r="Y556" s="8"/>
       <c r="Z556" s="8"/>
     </row>
-    <row r="557" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="8"/>
       <c r="B557" s="15"/>
       <c r="C557" s="8"/>
@@ -16343,7 +16345,7 @@
       <c r="Y557" s="8"/>
       <c r="Z557" s="8"/>
     </row>
-    <row r="558" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A558" s="8"/>
       <c r="B558" s="15"/>
       <c r="C558" s="8"/>
@@ -16371,7 +16373,7 @@
       <c r="Y558" s="8"/>
       <c r="Z558" s="8"/>
     </row>
-    <row r="559" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="8"/>
       <c r="B559" s="15"/>
       <c r="C559" s="8"/>
@@ -16399,7 +16401,7 @@
       <c r="Y559" s="8"/>
       <c r="Z559" s="8"/>
     </row>
-    <row r="560" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A560" s="8"/>
       <c r="B560" s="15"/>
       <c r="C560" s="8"/>
@@ -16427,7 +16429,7 @@
       <c r="Y560" s="8"/>
       <c r="Z560" s="8"/>
     </row>
-    <row r="561" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A561" s="8"/>
       <c r="B561" s="15"/>
       <c r="C561" s="8"/>
@@ -16455,7 +16457,7 @@
       <c r="Y561" s="8"/>
       <c r="Z561" s="8"/>
     </row>
-    <row r="562" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="8"/>
       <c r="B562" s="15"/>
       <c r="C562" s="8"/>
@@ -16483,7 +16485,7 @@
       <c r="Y562" s="8"/>
       <c r="Z562" s="8"/>
     </row>
-    <row r="563" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A563" s="8"/>
       <c r="B563" s="15"/>
       <c r="C563" s="8"/>
@@ -16511,7 +16513,7 @@
       <c r="Y563" s="8"/>
       <c r="Z563" s="8"/>
     </row>
-    <row r="564" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A564" s="8"/>
       <c r="B564" s="15"/>
       <c r="C564" s="8"/>
@@ -16539,7 +16541,7 @@
       <c r="Y564" s="8"/>
       <c r="Z564" s="8"/>
     </row>
-    <row r="565" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A565" s="8"/>
       <c r="B565" s="15"/>
       <c r="C565" s="8"/>
@@ -16567,7 +16569,7 @@
       <c r="Y565" s="8"/>
       <c r="Z565" s="8"/>
     </row>
-    <row r="566" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A566" s="8"/>
       <c r="B566" s="15"/>
       <c r="C566" s="8"/>
@@ -16595,7 +16597,7 @@
       <c r="Y566" s="8"/>
       <c r="Z566" s="8"/>
     </row>
-    <row r="567" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A567" s="8"/>
       <c r="B567" s="15"/>
       <c r="C567" s="8"/>
@@ -16623,7 +16625,7 @@
       <c r="Y567" s="8"/>
       <c r="Z567" s="8"/>
     </row>
-    <row r="568" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A568" s="8"/>
       <c r="B568" s="15"/>
       <c r="C568" s="8"/>
@@ -16651,7 +16653,7 @@
       <c r="Y568" s="8"/>
       <c r="Z568" s="8"/>
     </row>
-    <row r="569" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A569" s="8"/>
       <c r="B569" s="15"/>
       <c r="C569" s="8"/>
@@ -16679,7 +16681,7 @@
       <c r="Y569" s="8"/>
       <c r="Z569" s="8"/>
     </row>
-    <row r="570" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A570" s="8"/>
       <c r="B570" s="15"/>
       <c r="C570" s="8"/>
@@ -16707,7 +16709,7 @@
       <c r="Y570" s="8"/>
       <c r="Z570" s="8"/>
     </row>
-    <row r="571" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A571" s="8"/>
       <c r="B571" s="15"/>
       <c r="C571" s="8"/>
@@ -16735,7 +16737,7 @@
       <c r="Y571" s="8"/>
       <c r="Z571" s="8"/>
     </row>
-    <row r="572" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A572" s="8"/>
       <c r="B572" s="15"/>
       <c r="C572" s="8"/>
@@ -16763,7 +16765,7 @@
       <c r="Y572" s="8"/>
       <c r="Z572" s="8"/>
     </row>
-    <row r="573" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A573" s="8"/>
       <c r="B573" s="15"/>
       <c r="C573" s="8"/>
@@ -16791,7 +16793,7 @@
       <c r="Y573" s="8"/>
       <c r="Z573" s="8"/>
     </row>
-    <row r="574" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A574" s="8"/>
       <c r="B574" s="15"/>
       <c r="C574" s="8"/>
@@ -16819,7 +16821,7 @@
       <c r="Y574" s="8"/>
       <c r="Z574" s="8"/>
     </row>
-    <row r="575" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A575" s="8"/>
       <c r="B575" s="15"/>
       <c r="C575" s="8"/>
@@ -16847,7 +16849,7 @@
       <c r="Y575" s="8"/>
       <c r="Z575" s="8"/>
     </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A576" s="8"/>
       <c r="B576" s="15"/>
       <c r="C576" s="8"/>
@@ -16875,7 +16877,7 @@
       <c r="Y576" s="8"/>
       <c r="Z576" s="8"/>
     </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="8"/>
       <c r="B577" s="15"/>
       <c r="C577" s="8"/>
@@ -16903,7 +16905,7 @@
       <c r="Y577" s="8"/>
       <c r="Z577" s="8"/>
     </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="8"/>
       <c r="B578" s="15"/>
       <c r="C578" s="8"/>
@@ -16931,7 +16933,7 @@
       <c r="Y578" s="8"/>
       <c r="Z578" s="8"/>
     </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="8"/>
       <c r="B579" s="15"/>
       <c r="C579" s="8"/>
@@ -16959,7 +16961,7 @@
       <c r="Y579" s="8"/>
       <c r="Z579" s="8"/>
     </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="8"/>
       <c r="B580" s="15"/>
       <c r="C580" s="8"/>
@@ -16987,7 +16989,7 @@
       <c r="Y580" s="8"/>
       <c r="Z580" s="8"/>
     </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="8"/>
       <c r="B581" s="15"/>
       <c r="C581" s="8"/>
@@ -17015,7 +17017,7 @@
       <c r="Y581" s="8"/>
       <c r="Z581" s="8"/>
     </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="8"/>
       <c r="B582" s="15"/>
       <c r="C582" s="8"/>
@@ -17043,7 +17045,7 @@
       <c r="Y582" s="8"/>
       <c r="Z582" s="8"/>
     </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A583" s="8"/>
       <c r="B583" s="15"/>
       <c r="C583" s="8"/>
@@ -17071,7 +17073,7 @@
       <c r="Y583" s="8"/>
       <c r="Z583" s="8"/>
     </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="8"/>
       <c r="B584" s="15"/>
       <c r="C584" s="8"/>
@@ -17099,7 +17101,7 @@
       <c r="Y584" s="8"/>
       <c r="Z584" s="8"/>
     </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="8"/>
       <c r="B585" s="15"/>
       <c r="C585" s="8"/>
@@ -17127,7 +17129,7 @@
       <c r="Y585" s="8"/>
       <c r="Z585" s="8"/>
     </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A586" s="8"/>
       <c r="B586" s="15"/>
       <c r="C586" s="8"/>
@@ -17155,7 +17157,7 @@
       <c r="Y586" s="8"/>
       <c r="Z586" s="8"/>
     </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="8"/>
       <c r="B587" s="15"/>
       <c r="C587" s="8"/>
@@ -17183,7 +17185,7 @@
       <c r="Y587" s="8"/>
       <c r="Z587" s="8"/>
     </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A588" s="8"/>
       <c r="B588" s="15"/>
       <c r="C588" s="8"/>
@@ -17211,7 +17213,7 @@
       <c r="Y588" s="8"/>
       <c r="Z588" s="8"/>
     </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="8"/>
       <c r="B589" s="15"/>
       <c r="C589" s="8"/>
@@ -17239,7 +17241,7 @@
       <c r="Y589" s="8"/>
       <c r="Z589" s="8"/>
     </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A590" s="8"/>
       <c r="B590" s="15"/>
       <c r="C590" s="8"/>
@@ -17267,7 +17269,7 @@
       <c r="Y590" s="8"/>
       <c r="Z590" s="8"/>
     </row>
-    <row r="591" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A591" s="8"/>
       <c r="B591" s="15"/>
       <c r="C591" s="8"/>
@@ -17295,7 +17297,7 @@
       <c r="Y591" s="8"/>
       <c r="Z591" s="8"/>
     </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A592" s="8"/>
       <c r="B592" s="15"/>
       <c r="C592" s="8"/>
@@ -17323,7 +17325,7 @@
       <c r="Y592" s="8"/>
       <c r="Z592" s="8"/>
     </row>
-    <row r="593" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A593" s="8"/>
       <c r="B593" s="15"/>
       <c r="C593" s="8"/>
@@ -17351,7 +17353,7 @@
       <c r="Y593" s="8"/>
       <c r="Z593" s="8"/>
     </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A594" s="8"/>
       <c r="B594" s="15"/>
       <c r="C594" s="8"/>
@@ -17379,7 +17381,7 @@
       <c r="Y594" s="8"/>
       <c r="Z594" s="8"/>
     </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A595" s="8"/>
       <c r="B595" s="15"/>
       <c r="C595" s="8"/>
@@ -17407,7 +17409,7 @@
       <c r="Y595" s="8"/>
       <c r="Z595" s="8"/>
     </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A596" s="8"/>
       <c r="B596" s="15"/>
       <c r="C596" s="8"/>
@@ -17435,7 +17437,7 @@
       <c r="Y596" s="8"/>
       <c r="Z596" s="8"/>
     </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A597" s="8"/>
       <c r="B597" s="15"/>
       <c r="C597" s="8"/>
@@ -17463,7 +17465,7 @@
       <c r="Y597" s="8"/>
       <c r="Z597" s="8"/>
     </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A598" s="8"/>
       <c r="B598" s="15"/>
       <c r="C598" s="8"/>
@@ -17491,7 +17493,7 @@
       <c r="Y598" s="8"/>
       <c r="Z598" s="8"/>
     </row>
-    <row r="599" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A599" s="8"/>
       <c r="B599" s="15"/>
       <c r="C599" s="8"/>
@@ -17519,7 +17521,7 @@
       <c r="Y599" s="8"/>
       <c r="Z599" s="8"/>
     </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A600" s="8"/>
       <c r="B600" s="15"/>
       <c r="C600" s="8"/>
@@ -17547,7 +17549,7 @@
       <c r="Y600" s="8"/>
       <c r="Z600" s="8"/>
     </row>
-    <row r="601" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A601" s="8"/>
       <c r="B601" s="15"/>
       <c r="C601" s="8"/>
@@ -17575,7 +17577,7 @@
       <c r="Y601" s="8"/>
       <c r="Z601" s="8"/>
     </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A602" s="8"/>
       <c r="B602" s="15"/>
       <c r="C602" s="8"/>
@@ -17603,7 +17605,7 @@
       <c r="Y602" s="8"/>
       <c r="Z602" s="8"/>
     </row>
-    <row r="603" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A603" s="8"/>
       <c r="B603" s="15"/>
       <c r="C603" s="8"/>
@@ -17631,7 +17633,7 @@
       <c r="Y603" s="8"/>
       <c r="Z603" s="8"/>
     </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="8"/>
       <c r="B604" s="15"/>
       <c r="C604" s="8"/>
@@ -17659,7 +17661,7 @@
       <c r="Y604" s="8"/>
       <c r="Z604" s="8"/>
     </row>
-    <row r="605" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="8"/>
       <c r="B605" s="15"/>
       <c r="C605" s="8"/>
@@ -17687,7 +17689,7 @@
       <c r="Y605" s="8"/>
       <c r="Z605" s="8"/>
     </row>
-    <row r="606" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="8"/>
       <c r="B606" s="15"/>
       <c r="C606" s="8"/>
@@ -17715,7 +17717,7 @@
       <c r="Y606" s="8"/>
       <c r="Z606" s="8"/>
     </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="8"/>
       <c r="B607" s="15"/>
       <c r="C607" s="8"/>
@@ -17743,7 +17745,7 @@
       <c r="Y607" s="8"/>
       <c r="Z607" s="8"/>
     </row>
-    <row r="608" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="8"/>
       <c r="B608" s="15"/>
       <c r="C608" s="8"/>
@@ -17771,7 +17773,7 @@
       <c r="Y608" s="8"/>
       <c r="Z608" s="8"/>
     </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="8"/>
       <c r="B609" s="15"/>
       <c r="C609" s="8"/>
@@ -17799,7 +17801,7 @@
       <c r="Y609" s="8"/>
       <c r="Z609" s="8"/>
     </row>
-    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A610" s="8"/>
       <c r="B610" s="15"/>
       <c r="C610" s="8"/>
@@ -17827,7 +17829,7 @@
       <c r="Y610" s="8"/>
       <c r="Z610" s="8"/>
     </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A611" s="8"/>
       <c r="B611" s="15"/>
       <c r="C611" s="8"/>
@@ -17855,7 +17857,7 @@
       <c r="Y611" s="8"/>
       <c r="Z611" s="8"/>
     </row>
-    <row r="612" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="8"/>
       <c r="B612" s="15"/>
       <c r="C612" s="8"/>
@@ -17883,7 +17885,7 @@
       <c r="Y612" s="8"/>
       <c r="Z612" s="8"/>
     </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="8"/>
       <c r="B613" s="15"/>
       <c r="C613" s="8"/>
@@ -17911,7 +17913,7 @@
       <c r="Y613" s="8"/>
       <c r="Z613" s="8"/>
     </row>
-    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A614" s="8"/>
       <c r="B614" s="15"/>
       <c r="C614" s="8"/>
@@ -17939,7 +17941,7 @@
       <c r="Y614" s="8"/>
       <c r="Z614" s="8"/>
     </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="8"/>
       <c r="B615" s="15"/>
       <c r="C615" s="8"/>
@@ -17967,7 +17969,7 @@
       <c r="Y615" s="8"/>
       <c r="Z615" s="8"/>
     </row>
-    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="8"/>
       <c r="B616" s="15"/>
       <c r="C616" s="8"/>
@@ -17995,7 +17997,7 @@
       <c r="Y616" s="8"/>
       <c r="Z616" s="8"/>
     </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A617" s="8"/>
       <c r="B617" s="15"/>
       <c r="C617" s="8"/>
@@ -18023,7 +18025,7 @@
       <c r="Y617" s="8"/>
       <c r="Z617" s="8"/>
     </row>
-    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A618" s="8"/>
       <c r="B618" s="15"/>
       <c r="C618" s="8"/>
@@ -18051,7 +18053,7 @@
       <c r="Y618" s="8"/>
       <c r="Z618" s="8"/>
     </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A619" s="8"/>
       <c r="B619" s="15"/>
       <c r="C619" s="8"/>
@@ -18079,7 +18081,7 @@
       <c r="Y619" s="8"/>
       <c r="Z619" s="8"/>
     </row>
-    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A620" s="8"/>
       <c r="B620" s="15"/>
       <c r="C620" s="8"/>
@@ -18107,7 +18109,7 @@
       <c r="Y620" s="8"/>
       <c r="Z620" s="8"/>
     </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A621" s="8"/>
       <c r="B621" s="15"/>
       <c r="C621" s="8"/>
@@ -18135,7 +18137,7 @@
       <c r="Y621" s="8"/>
       <c r="Z621" s="8"/>
     </row>
-    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A622" s="8"/>
       <c r="B622" s="15"/>
       <c r="C622" s="8"/>
@@ -18163,7 +18165,7 @@
       <c r="Y622" s="8"/>
       <c r="Z622" s="8"/>
     </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A623" s="8"/>
       <c r="B623" s="15"/>
       <c r="C623" s="8"/>
@@ -18191,7 +18193,7 @@
       <c r="Y623" s="8"/>
       <c r="Z623" s="8"/>
     </row>
-    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A624" s="8"/>
       <c r="B624" s="15"/>
       <c r="C624" s="8"/>
@@ -18219,7 +18221,7 @@
       <c r="Y624" s="8"/>
       <c r="Z624" s="8"/>
     </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A625" s="8"/>
       <c r="B625" s="15"/>
       <c r="C625" s="8"/>
@@ -18247,7 +18249,7 @@
       <c r="Y625" s="8"/>
       <c r="Z625" s="8"/>
     </row>
-    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A626" s="8"/>
       <c r="B626" s="15"/>
       <c r="C626" s="8"/>
@@ -18275,7 +18277,7 @@
       <c r="Y626" s="8"/>
       <c r="Z626" s="8"/>
     </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A627" s="8"/>
       <c r="B627" s="15"/>
       <c r="C627" s="8"/>
@@ -18303,7 +18305,7 @@
       <c r="Y627" s="8"/>
       <c r="Z627" s="8"/>
     </row>
-    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A628" s="8"/>
       <c r="B628" s="15"/>
       <c r="C628" s="8"/>
@@ -18331,7 +18333,7 @@
       <c r="Y628" s="8"/>
       <c r="Z628" s="8"/>
     </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A629" s="8"/>
       <c r="B629" s="15"/>
       <c r="C629" s="8"/>
@@ -18359,7 +18361,7 @@
       <c r="Y629" s="8"/>
       <c r="Z629" s="8"/>
     </row>
-    <row r="630" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A630" s="8"/>
       <c r="B630" s="15"/>
       <c r="C630" s="8"/>
@@ -18387,7 +18389,7 @@
       <c r="Y630" s="8"/>
       <c r="Z630" s="8"/>
     </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="8"/>
       <c r="B631" s="15"/>
       <c r="C631" s="8"/>
@@ -18415,7 +18417,7 @@
       <c r="Y631" s="8"/>
       <c r="Z631" s="8"/>
     </row>
-    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="8"/>
       <c r="B632" s="15"/>
       <c r="C632" s="8"/>
@@ -18443,7 +18445,7 @@
       <c r="Y632" s="8"/>
       <c r="Z632" s="8"/>
     </row>
-    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="8"/>
       <c r="B633" s="15"/>
       <c r="C633" s="8"/>
@@ -18471,7 +18473,7 @@
       <c r="Y633" s="8"/>
       <c r="Z633" s="8"/>
     </row>
-    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="8"/>
       <c r="B634" s="15"/>
       <c r="C634" s="8"/>
@@ -18499,7 +18501,7 @@
       <c r="Y634" s="8"/>
       <c r="Z634" s="8"/>
     </row>
-    <row r="635" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="8"/>
       <c r="B635" s="15"/>
       <c r="C635" s="8"/>
@@ -18527,7 +18529,7 @@
       <c r="Y635" s="8"/>
       <c r="Z635" s="8"/>
     </row>
-    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="8"/>
       <c r="B636" s="15"/>
       <c r="C636" s="8"/>
@@ -18555,7 +18557,7 @@
       <c r="Y636" s="8"/>
       <c r="Z636" s="8"/>
     </row>
-    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A637" s="8"/>
       <c r="B637" s="15"/>
       <c r="C637" s="8"/>
@@ -18583,7 +18585,7 @@
       <c r="Y637" s="8"/>
       <c r="Z637" s="8"/>
     </row>
-    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A638" s="8"/>
       <c r="B638" s="15"/>
       <c r="C638" s="8"/>
@@ -18611,7 +18613,7 @@
       <c r="Y638" s="8"/>
       <c r="Z638" s="8"/>
     </row>
-    <row r="639" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A639" s="8"/>
       <c r="B639" s="15"/>
       <c r="C639" s="8"/>
@@ -18639,7 +18641,7 @@
       <c r="Y639" s="8"/>
       <c r="Z639" s="8"/>
     </row>
-    <row r="640" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="8"/>
       <c r="B640" s="15"/>
       <c r="C640" s="8"/>
@@ -18667,7 +18669,7 @@
       <c r="Y640" s="8"/>
       <c r="Z640" s="8"/>
     </row>
-    <row r="641" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="8"/>
       <c r="B641" s="15"/>
       <c r="C641" s="8"/>
@@ -18695,7 +18697,7 @@
       <c r="Y641" s="8"/>
       <c r="Z641" s="8"/>
     </row>
-    <row r="642" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A642" s="8"/>
       <c r="B642" s="15"/>
       <c r="C642" s="8"/>
@@ -18723,7 +18725,7 @@
       <c r="Y642" s="8"/>
       <c r="Z642" s="8"/>
     </row>
-    <row r="643" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="8"/>
       <c r="B643" s="15"/>
       <c r="C643" s="8"/>
@@ -18751,7 +18753,7 @@
       <c r="Y643" s="8"/>
       <c r="Z643" s="8"/>
     </row>
-    <row r="644" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A644" s="8"/>
       <c r="B644" s="15"/>
       <c r="C644" s="8"/>
@@ -18779,7 +18781,7 @@
       <c r="Y644" s="8"/>
       <c r="Z644" s="8"/>
     </row>
-    <row r="645" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A645" s="8"/>
       <c r="B645" s="15"/>
       <c r="C645" s="8"/>
@@ -18807,7 +18809,7 @@
       <c r="Y645" s="8"/>
       <c r="Z645" s="8"/>
     </row>
-    <row r="646" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A646" s="8"/>
       <c r="B646" s="15"/>
       <c r="C646" s="8"/>
@@ -18835,7 +18837,7 @@
       <c r="Y646" s="8"/>
       <c r="Z646" s="8"/>
     </row>
-    <row r="647" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A647" s="8"/>
       <c r="B647" s="15"/>
       <c r="C647" s="8"/>
@@ -18863,7 +18865,7 @@
       <c r="Y647" s="8"/>
       <c r="Z647" s="8"/>
     </row>
-    <row r="648" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A648" s="8"/>
       <c r="B648" s="15"/>
       <c r="C648" s="8"/>
@@ -18891,7 +18893,7 @@
       <c r="Y648" s="8"/>
       <c r="Z648" s="8"/>
     </row>
-    <row r="649" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A649" s="8"/>
       <c r="B649" s="15"/>
       <c r="C649" s="8"/>
@@ -18919,7 +18921,7 @@
       <c r="Y649" s="8"/>
       <c r="Z649" s="8"/>
     </row>
-    <row r="650" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A650" s="8"/>
       <c r="B650" s="15"/>
       <c r="C650" s="8"/>
@@ -18947,7 +18949,7 @@
       <c r="Y650" s="8"/>
       <c r="Z650" s="8"/>
     </row>
-    <row r="651" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A651" s="8"/>
       <c r="B651" s="15"/>
       <c r="C651" s="8"/>
@@ -18975,7 +18977,7 @@
       <c r="Y651" s="8"/>
       <c r="Z651" s="8"/>
     </row>
-    <row r="652" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A652" s="8"/>
       <c r="B652" s="15"/>
       <c r="C652" s="8"/>
@@ -19003,7 +19005,7 @@
       <c r="Y652" s="8"/>
       <c r="Z652" s="8"/>
     </row>
-    <row r="653" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A653" s="8"/>
       <c r="B653" s="15"/>
       <c r="C653" s="8"/>
@@ -19031,7 +19033,7 @@
       <c r="Y653" s="8"/>
       <c r="Z653" s="8"/>
     </row>
-    <row r="654" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A654" s="8"/>
       <c r="B654" s="15"/>
       <c r="C654" s="8"/>
@@ -19059,7 +19061,7 @@
       <c r="Y654" s="8"/>
       <c r="Z654" s="8"/>
     </row>
-    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A655" s="8"/>
       <c r="B655" s="15"/>
       <c r="C655" s="8"/>
@@ -19087,7 +19089,7 @@
       <c r="Y655" s="8"/>
       <c r="Z655" s="8"/>
     </row>
-    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A656" s="8"/>
       <c r="B656" s="15"/>
       <c r="C656" s="8"/>
@@ -19115,7 +19117,7 @@
       <c r="Y656" s="8"/>
       <c r="Z656" s="8"/>
     </row>
-    <row r="657" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="8"/>
       <c r="B657" s="15"/>
       <c r="C657" s="8"/>
@@ -19143,7 +19145,7 @@
       <c r="Y657" s="8"/>
       <c r="Z657" s="8"/>
     </row>
-    <row r="658" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="8"/>
       <c r="B658" s="15"/>
       <c r="C658" s="8"/>
@@ -19171,7 +19173,7 @@
       <c r="Y658" s="8"/>
       <c r="Z658" s="8"/>
     </row>
-    <row r="659" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="8"/>
       <c r="B659" s="15"/>
       <c r="C659" s="8"/>
@@ -19199,7 +19201,7 @@
       <c r="Y659" s="8"/>
       <c r="Z659" s="8"/>
     </row>
-    <row r="660" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="8"/>
       <c r="B660" s="15"/>
       <c r="C660" s="8"/>
@@ -19227,7 +19229,7 @@
       <c r="Y660" s="8"/>
       <c r="Z660" s="8"/>
     </row>
-    <row r="661" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="8"/>
       <c r="B661" s="15"/>
       <c r="C661" s="8"/>
@@ -19255,7 +19257,7 @@
       <c r="Y661" s="8"/>
       <c r="Z661" s="8"/>
     </row>
-    <row r="662" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="8"/>
       <c r="B662" s="15"/>
       <c r="C662" s="8"/>
@@ -19283,7 +19285,7 @@
       <c r="Y662" s="8"/>
       <c r="Z662" s="8"/>
     </row>
-    <row r="663" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="8"/>
       <c r="B663" s="15"/>
       <c r="C663" s="8"/>
@@ -19311,7 +19313,7 @@
       <c r="Y663" s="8"/>
       <c r="Z663" s="8"/>
     </row>
-    <row r="664" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A664" s="8"/>
       <c r="B664" s="15"/>
       <c r="C664" s="8"/>
@@ -19339,7 +19341,7 @@
       <c r="Y664" s="8"/>
       <c r="Z664" s="8"/>
     </row>
-    <row r="665" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A665" s="8"/>
       <c r="B665" s="15"/>
       <c r="C665" s="8"/>
@@ -19367,7 +19369,7 @@
       <c r="Y665" s="8"/>
       <c r="Z665" s="8"/>
     </row>
-    <row r="666" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A666" s="8"/>
       <c r="B666" s="15"/>
       <c r="C666" s="8"/>
@@ -19395,7 +19397,7 @@
       <c r="Y666" s="8"/>
       <c r="Z666" s="8"/>
     </row>
-    <row r="667" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A667" s="8"/>
       <c r="B667" s="15"/>
       <c r="C667" s="8"/>
@@ -19423,7 +19425,7 @@
       <c r="Y667" s="8"/>
       <c r="Z667" s="8"/>
     </row>
-    <row r="668" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="8"/>
       <c r="B668" s="15"/>
       <c r="C668" s="8"/>
@@ -19451,7 +19453,7 @@
       <c r="Y668" s="8"/>
       <c r="Z668" s="8"/>
     </row>
-    <row r="669" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="8"/>
       <c r="B669" s="15"/>
       <c r="C669" s="8"/>
@@ -19479,7 +19481,7 @@
       <c r="Y669" s="8"/>
       <c r="Z669" s="8"/>
     </row>
-    <row r="670" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="8"/>
       <c r="B670" s="15"/>
       <c r="C670" s="8"/>
@@ -19507,7 +19509,7 @@
       <c r="Y670" s="8"/>
       <c r="Z670" s="8"/>
     </row>
-    <row r="671" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="8"/>
       <c r="B671" s="15"/>
       <c r="C671" s="8"/>
@@ -19535,7 +19537,7 @@
       <c r="Y671" s="8"/>
       <c r="Z671" s="8"/>
     </row>
-    <row r="672" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A672" s="8"/>
       <c r="B672" s="15"/>
       <c r="C672" s="8"/>
@@ -19563,7 +19565,7 @@
       <c r="Y672" s="8"/>
       <c r="Z672" s="8"/>
     </row>
-    <row r="673" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A673" s="8"/>
       <c r="B673" s="15"/>
       <c r="C673" s="8"/>
@@ -19591,7 +19593,7 @@
       <c r="Y673" s="8"/>
       <c r="Z673" s="8"/>
     </row>
-    <row r="674" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A674" s="8"/>
       <c r="B674" s="15"/>
       <c r="C674" s="8"/>
@@ -19619,7 +19621,7 @@
       <c r="Y674" s="8"/>
       <c r="Z674" s="8"/>
     </row>
-    <row r="675" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A675" s="8"/>
       <c r="B675" s="15"/>
       <c r="C675" s="8"/>
@@ -19647,7 +19649,7 @@
       <c r="Y675" s="8"/>
       <c r="Z675" s="8"/>
     </row>
-    <row r="676" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A676" s="8"/>
       <c r="B676" s="15"/>
       <c r="C676" s="8"/>
@@ -19675,7 +19677,7 @@
       <c r="Y676" s="8"/>
       <c r="Z676" s="8"/>
     </row>
-    <row r="677" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A677" s="8"/>
       <c r="B677" s="15"/>
       <c r="C677" s="8"/>
@@ -19703,7 +19705,7 @@
       <c r="Y677" s="8"/>
       <c r="Z677" s="8"/>
     </row>
-    <row r="678" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A678" s="8"/>
       <c r="B678" s="15"/>
       <c r="C678" s="8"/>
@@ -19731,7 +19733,7 @@
       <c r="Y678" s="8"/>
       <c r="Z678" s="8"/>
     </row>
-    <row r="679" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A679" s="8"/>
       <c r="B679" s="15"/>
       <c r="C679" s="8"/>
@@ -19759,7 +19761,7 @@
       <c r="Y679" s="8"/>
       <c r="Z679" s="8"/>
     </row>
-    <row r="680" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A680" s="8"/>
       <c r="B680" s="15"/>
       <c r="C680" s="8"/>
@@ -19787,7 +19789,7 @@
       <c r="Y680" s="8"/>
       <c r="Z680" s="8"/>
     </row>
-    <row r="681" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A681" s="8"/>
       <c r="B681" s="15"/>
       <c r="C681" s="8"/>
@@ -19815,7 +19817,7 @@
       <c r="Y681" s="8"/>
       <c r="Z681" s="8"/>
     </row>
-    <row r="682" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A682" s="8"/>
       <c r="B682" s="15"/>
       <c r="C682" s="8"/>
@@ -19843,7 +19845,7 @@
       <c r="Y682" s="8"/>
       <c r="Z682" s="8"/>
     </row>
-    <row r="683" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="8"/>
       <c r="B683" s="15"/>
       <c r="C683" s="8"/>
@@ -19871,7 +19873,7 @@
       <c r="Y683" s="8"/>
       <c r="Z683" s="8"/>
     </row>
-    <row r="684" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A684" s="8"/>
       <c r="B684" s="15"/>
       <c r="C684" s="8"/>
@@ -19899,7 +19901,7 @@
       <c r="Y684" s="8"/>
       <c r="Z684" s="8"/>
     </row>
-    <row r="685" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="8"/>
       <c r="B685" s="15"/>
       <c r="C685" s="8"/>
@@ -19927,7 +19929,7 @@
       <c r="Y685" s="8"/>
       <c r="Z685" s="8"/>
     </row>
-    <row r="686" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="8"/>
       <c r="B686" s="15"/>
       <c r="C686" s="8"/>
@@ -19955,7 +19957,7 @@
       <c r="Y686" s="8"/>
       <c r="Z686" s="8"/>
     </row>
-    <row r="687" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="8"/>
       <c r="B687" s="15"/>
       <c r="C687" s="8"/>
@@ -19983,7 +19985,7 @@
       <c r="Y687" s="8"/>
       <c r="Z687" s="8"/>
     </row>
-    <row r="688" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="8"/>
       <c r="B688" s="15"/>
       <c r="C688" s="8"/>
@@ -20011,7 +20013,7 @@
       <c r="Y688" s="8"/>
       <c r="Z688" s="8"/>
     </row>
-    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="8"/>
       <c r="B689" s="15"/>
       <c r="C689" s="8"/>
@@ -20039,7 +20041,7 @@
       <c r="Y689" s="8"/>
       <c r="Z689" s="8"/>
     </row>
-    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="8"/>
       <c r="B690" s="15"/>
       <c r="C690" s="8"/>
@@ -20067,7 +20069,7 @@
       <c r="Y690" s="8"/>
       <c r="Z690" s="8"/>
     </row>
-    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A691" s="8"/>
       <c r="B691" s="15"/>
       <c r="C691" s="8"/>
@@ -20095,7 +20097,7 @@
       <c r="Y691" s="8"/>
       <c r="Z691" s="8"/>
     </row>
-    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A692" s="8"/>
       <c r="B692" s="15"/>
       <c r="C692" s="8"/>
@@ -20123,7 +20125,7 @@
       <c r="Y692" s="8"/>
       <c r="Z692" s="8"/>
     </row>
-    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A693" s="8"/>
       <c r="B693" s="15"/>
       <c r="C693" s="8"/>
@@ -20151,7 +20153,7 @@
       <c r="Y693" s="8"/>
       <c r="Z693" s="8"/>
     </row>
-    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A694" s="8"/>
       <c r="B694" s="15"/>
       <c r="C694" s="8"/>
@@ -20179,7 +20181,7 @@
       <c r="Y694" s="8"/>
       <c r="Z694" s="8"/>
     </row>
-    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A695" s="8"/>
       <c r="B695" s="15"/>
       <c r="C695" s="8"/>
@@ -20207,7 +20209,7 @@
       <c r="Y695" s="8"/>
       <c r="Z695" s="8"/>
     </row>
-    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="8"/>
       <c r="B696" s="15"/>
       <c r="C696" s="8"/>
@@ -20235,7 +20237,7 @@
       <c r="Y696" s="8"/>
       <c r="Z696" s="8"/>
     </row>
-    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="8"/>
       <c r="B697" s="15"/>
       <c r="C697" s="8"/>
@@ -20263,7 +20265,7 @@
       <c r="Y697" s="8"/>
       <c r="Z697" s="8"/>
     </row>
-    <row r="698" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A698" s="8"/>
       <c r="B698" s="15"/>
       <c r="C698" s="8"/>
@@ -20291,7 +20293,7 @@
       <c r="Y698" s="8"/>
       <c r="Z698" s="8"/>
     </row>
-    <row r="699" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="8"/>
       <c r="B699" s="15"/>
       <c r="C699" s="8"/>
@@ -20319,7 +20321,7 @@
       <c r="Y699" s="8"/>
       <c r="Z699" s="8"/>
     </row>
-    <row r="700" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A700" s="8"/>
       <c r="B700" s="15"/>
       <c r="C700" s="8"/>
@@ -20347,7 +20349,7 @@
       <c r="Y700" s="8"/>
       <c r="Z700" s="8"/>
     </row>
-    <row r="701" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A701" s="8"/>
       <c r="B701" s="15"/>
       <c r="C701" s="8"/>
@@ -20375,7 +20377,7 @@
       <c r="Y701" s="8"/>
       <c r="Z701" s="8"/>
     </row>
-    <row r="702" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A702" s="8"/>
       <c r="B702" s="15"/>
       <c r="C702" s="8"/>
@@ -20403,7 +20405,7 @@
       <c r="Y702" s="8"/>
       <c r="Z702" s="8"/>
     </row>
-    <row r="703" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A703" s="8"/>
       <c r="B703" s="15"/>
       <c r="C703" s="8"/>
@@ -20431,7 +20433,7 @@
       <c r="Y703" s="8"/>
       <c r="Z703" s="8"/>
     </row>
-    <row r="704" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A704" s="8"/>
       <c r="B704" s="15"/>
       <c r="C704" s="8"/>
@@ -20459,7 +20461,7 @@
       <c r="Y704" s="8"/>
       <c r="Z704" s="8"/>
     </row>
-    <row r="705" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A705" s="8"/>
       <c r="B705" s="15"/>
       <c r="C705" s="8"/>
@@ -20487,7 +20489,7 @@
       <c r="Y705" s="8"/>
       <c r="Z705" s="8"/>
     </row>
-    <row r="706" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A706" s="8"/>
       <c r="B706" s="15"/>
       <c r="C706" s="8"/>
@@ -20515,7 +20517,7 @@
       <c r="Y706" s="8"/>
       <c r="Z706" s="8"/>
     </row>
-    <row r="707" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A707" s="8"/>
       <c r="B707" s="15"/>
       <c r="C707" s="8"/>
@@ -20543,7 +20545,7 @@
       <c r="Y707" s="8"/>
       <c r="Z707" s="8"/>
     </row>
-    <row r="708" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A708" s="8"/>
       <c r="B708" s="15"/>
       <c r="C708" s="8"/>
@@ -20571,7 +20573,7 @@
       <c r="Y708" s="8"/>
       <c r="Z708" s="8"/>
     </row>
-    <row r="709" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="8"/>
       <c r="B709" s="15"/>
       <c r="C709" s="8"/>
@@ -20599,7 +20601,7 @@
       <c r="Y709" s="8"/>
       <c r="Z709" s="8"/>
     </row>
-    <row r="710" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A710" s="8"/>
       <c r="B710" s="15"/>
       <c r="C710" s="8"/>
@@ -20627,7 +20629,7 @@
       <c r="Y710" s="8"/>
       <c r="Z710" s="8"/>
     </row>
-    <row r="711" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A711" s="8"/>
       <c r="B711" s="15"/>
       <c r="C711" s="8"/>
@@ -20655,7 +20657,7 @@
       <c r="Y711" s="8"/>
       <c r="Z711" s="8"/>
     </row>
-    <row r="712" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="8"/>
       <c r="B712" s="15"/>
       <c r="C712" s="8"/>
@@ -20683,7 +20685,7 @@
       <c r="Y712" s="8"/>
       <c r="Z712" s="8"/>
     </row>
-    <row r="713" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="8"/>
       <c r="B713" s="15"/>
       <c r="C713" s="8"/>
@@ -20711,7 +20713,7 @@
       <c r="Y713" s="8"/>
       <c r="Z713" s="8"/>
     </row>
-    <row r="714" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="8"/>
       <c r="B714" s="15"/>
       <c r="C714" s="8"/>
@@ -20739,7 +20741,7 @@
       <c r="Y714" s="8"/>
       <c r="Z714" s="8"/>
     </row>
-    <row r="715" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="8"/>
       <c r="B715" s="15"/>
       <c r="C715" s="8"/>
@@ -20767,7 +20769,7 @@
       <c r="Y715" s="8"/>
       <c r="Z715" s="8"/>
     </row>
-    <row r="716" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="8"/>
       <c r="B716" s="15"/>
       <c r="C716" s="8"/>
@@ -20795,7 +20797,7 @@
       <c r="Y716" s="8"/>
       <c r="Z716" s="8"/>
     </row>
-    <row r="717" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="8"/>
       <c r="B717" s="15"/>
       <c r="C717" s="8"/>
@@ -20823,7 +20825,7 @@
       <c r="Y717" s="8"/>
       <c r="Z717" s="8"/>
     </row>
-    <row r="718" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A718" s="8"/>
       <c r="B718" s="15"/>
       <c r="C718" s="8"/>
@@ -20851,7 +20853,7 @@
       <c r="Y718" s="8"/>
       <c r="Z718" s="8"/>
     </row>
-    <row r="719" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A719" s="8"/>
       <c r="B719" s="15"/>
       <c r="C719" s="8"/>
@@ -20879,7 +20881,7 @@
       <c r="Y719" s="8"/>
       <c r="Z719" s="8"/>
     </row>
-    <row r="720" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A720" s="8"/>
       <c r="B720" s="15"/>
       <c r="C720" s="8"/>
@@ -20907,7 +20909,7 @@
       <c r="Y720" s="8"/>
       <c r="Z720" s="8"/>
     </row>
-    <row r="721" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A721" s="8"/>
       <c r="B721" s="15"/>
       <c r="C721" s="8"/>
@@ -20935,7 +20937,7 @@
       <c r="Y721" s="8"/>
       <c r="Z721" s="8"/>
     </row>
-    <row r="722" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A722" s="8"/>
       <c r="B722" s="15"/>
       <c r="C722" s="8"/>
@@ -20963,7 +20965,7 @@
       <c r="Y722" s="8"/>
       <c r="Z722" s="8"/>
     </row>
-    <row r="723" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A723" s="8"/>
       <c r="B723" s="15"/>
       <c r="C723" s="8"/>
@@ -20991,7 +20993,7 @@
       <c r="Y723" s="8"/>
       <c r="Z723" s="8"/>
     </row>
-    <row r="724" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="8"/>
       <c r="B724" s="15"/>
       <c r="C724" s="8"/>
@@ -21019,7 +21021,7 @@
       <c r="Y724" s="8"/>
       <c r="Z724" s="8"/>
     </row>
-    <row r="725" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="8"/>
       <c r="B725" s="15"/>
       <c r="C725" s="8"/>
@@ -21047,7 +21049,7 @@
       <c r="Y725" s="8"/>
       <c r="Z725" s="8"/>
     </row>
-    <row r="726" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A726" s="8"/>
       <c r="B726" s="15"/>
       <c r="C726" s="8"/>
@@ -21075,7 +21077,7 @@
       <c r="Y726" s="8"/>
       <c r="Z726" s="8"/>
     </row>
-    <row r="727" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="8"/>
       <c r="B727" s="15"/>
       <c r="C727" s="8"/>
@@ -21103,7 +21105,7 @@
       <c r="Y727" s="8"/>
       <c r="Z727" s="8"/>
     </row>
-    <row r="728" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A728" s="8"/>
       <c r="B728" s="15"/>
       <c r="C728" s="8"/>
@@ -21131,7 +21133,7 @@
       <c r="Y728" s="8"/>
       <c r="Z728" s="8"/>
     </row>
-    <row r="729" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A729" s="8"/>
       <c r="B729" s="15"/>
       <c r="C729" s="8"/>
@@ -21159,7 +21161,7 @@
       <c r="Y729" s="8"/>
       <c r="Z729" s="8"/>
     </row>
-    <row r="730" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A730" s="8"/>
       <c r="B730" s="15"/>
       <c r="C730" s="8"/>
@@ -21187,7 +21189,7 @@
       <c r="Y730" s="8"/>
       <c r="Z730" s="8"/>
     </row>
-    <row r="731" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A731" s="8"/>
       <c r="B731" s="15"/>
       <c r="C731" s="8"/>
@@ -21215,7 +21217,7 @@
       <c r="Y731" s="8"/>
       <c r="Z731" s="8"/>
     </row>
-    <row r="732" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A732" s="8"/>
       <c r="B732" s="15"/>
       <c r="C732" s="8"/>
@@ -21243,7 +21245,7 @@
       <c r="Y732" s="8"/>
       <c r="Z732" s="8"/>
     </row>
-    <row r="733" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A733" s="8"/>
       <c r="B733" s="15"/>
       <c r="C733" s="8"/>
@@ -21271,7 +21273,7 @@
       <c r="Y733" s="8"/>
       <c r="Z733" s="8"/>
     </row>
-    <row r="734" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A734" s="8"/>
       <c r="B734" s="15"/>
       <c r="C734" s="8"/>
@@ -21299,7 +21301,7 @@
       <c r="Y734" s="8"/>
       <c r="Z734" s="8"/>
     </row>
-    <row r="735" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="8"/>
       <c r="B735" s="15"/>
       <c r="C735" s="8"/>
@@ -21327,7 +21329,7 @@
       <c r="Y735" s="8"/>
       <c r="Z735" s="8"/>
     </row>
-    <row r="736" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A736" s="8"/>
       <c r="B736" s="15"/>
       <c r="C736" s="8"/>
@@ -21355,7 +21357,7 @@
       <c r="Y736" s="8"/>
       <c r="Z736" s="8"/>
     </row>
-    <row r="737" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A737" s="8"/>
       <c r="B737" s="15"/>
       <c r="C737" s="8"/>
@@ -21383,7 +21385,7 @@
       <c r="Y737" s="8"/>
       <c r="Z737" s="8"/>
     </row>
-    <row r="738" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A738" s="8"/>
       <c r="B738" s="15"/>
       <c r="C738" s="8"/>
@@ -21411,7 +21413,7 @@
       <c r="Y738" s="8"/>
       <c r="Z738" s="8"/>
     </row>
-    <row r="739" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="8"/>
       <c r="B739" s="15"/>
       <c r="C739" s="8"/>
@@ -21439,7 +21441,7 @@
       <c r="Y739" s="8"/>
       <c r="Z739" s="8"/>
     </row>
-    <row r="740" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="8"/>
       <c r="B740" s="15"/>
       <c r="C740" s="8"/>
@@ -21467,7 +21469,7 @@
       <c r="Y740" s="8"/>
       <c r="Z740" s="8"/>
     </row>
-    <row r="741" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="8"/>
       <c r="B741" s="15"/>
       <c r="C741" s="8"/>
@@ -21495,7 +21497,7 @@
       <c r="Y741" s="8"/>
       <c r="Z741" s="8"/>
     </row>
-    <row r="742" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="8"/>
       <c r="B742" s="15"/>
       <c r="C742" s="8"/>
@@ -21523,7 +21525,7 @@
       <c r="Y742" s="8"/>
       <c r="Z742" s="8"/>
     </row>
-    <row r="743" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="8"/>
       <c r="B743" s="15"/>
       <c r="C743" s="8"/>
@@ -21551,7 +21553,7 @@
       <c r="Y743" s="8"/>
       <c r="Z743" s="8"/>
     </row>
-    <row r="744" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="8"/>
       <c r="B744" s="15"/>
       <c r="C744" s="8"/>
@@ -21579,7 +21581,7 @@
       <c r="Y744" s="8"/>
       <c r="Z744" s="8"/>
     </row>
-    <row r="745" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A745" s="8"/>
       <c r="B745" s="15"/>
       <c r="C745" s="8"/>
@@ -21607,7 +21609,7 @@
       <c r="Y745" s="8"/>
       <c r="Z745" s="8"/>
     </row>
-    <row r="746" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A746" s="8"/>
       <c r="B746" s="15"/>
       <c r="C746" s="8"/>
@@ -21635,7 +21637,7 @@
       <c r="Y746" s="8"/>
       <c r="Z746" s="8"/>
     </row>
-    <row r="747" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A747" s="8"/>
       <c r="B747" s="15"/>
       <c r="C747" s="8"/>
@@ -21663,7 +21665,7 @@
       <c r="Y747" s="8"/>
       <c r="Z747" s="8"/>
     </row>
-    <row r="748" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A748" s="8"/>
       <c r="B748" s="15"/>
       <c r="C748" s="8"/>
@@ -21691,7 +21693,7 @@
       <c r="Y748" s="8"/>
       <c r="Z748" s="8"/>
     </row>
-    <row r="749" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A749" s="8"/>
       <c r="B749" s="15"/>
       <c r="C749" s="8"/>
@@ -21719,7 +21721,7 @@
       <c r="Y749" s="8"/>
       <c r="Z749" s="8"/>
     </row>
-    <row r="750" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A750" s="8"/>
       <c r="B750" s="15"/>
       <c r="C750" s="8"/>
@@ -21747,7 +21749,7 @@
       <c r="Y750" s="8"/>
       <c r="Z750" s="8"/>
     </row>
-    <row r="751" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="8"/>
       <c r="B751" s="15"/>
       <c r="C751" s="8"/>
@@ -21775,7 +21777,7 @@
       <c r="Y751" s="8"/>
       <c r="Z751" s="8"/>
     </row>
-    <row r="752" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="8"/>
       <c r="B752" s="15"/>
       <c r="C752" s="8"/>
@@ -21803,7 +21805,7 @@
       <c r="Y752" s="8"/>
       <c r="Z752" s="8"/>
     </row>
-    <row r="753" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="8"/>
       <c r="B753" s="15"/>
       <c r="C753" s="8"/>
@@ -21831,7 +21833,7 @@
       <c r="Y753" s="8"/>
       <c r="Z753" s="8"/>
     </row>
-    <row r="754" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A754" s="8"/>
       <c r="B754" s="15"/>
       <c r="C754" s="8"/>
@@ -21859,7 +21861,7 @@
       <c r="Y754" s="8"/>
       <c r="Z754" s="8"/>
     </row>
-    <row r="755" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="8"/>
       <c r="B755" s="15"/>
       <c r="C755" s="8"/>
@@ -21887,7 +21889,7 @@
       <c r="Y755" s="8"/>
       <c r="Z755" s="8"/>
     </row>
-    <row r="756" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A756" s="8"/>
       <c r="B756" s="15"/>
       <c r="C756" s="8"/>
@@ -21915,7 +21917,7 @@
       <c r="Y756" s="8"/>
       <c r="Z756" s="8"/>
     </row>
-    <row r="757" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="8"/>
       <c r="B757" s="15"/>
       <c r="C757" s="8"/>
@@ -21943,7 +21945,7 @@
       <c r="Y757" s="8"/>
       <c r="Z757" s="8"/>
     </row>
-    <row r="758" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="8"/>
       <c r="B758" s="15"/>
       <c r="C758" s="8"/>
@@ -21971,7 +21973,7 @@
       <c r="Y758" s="8"/>
       <c r="Z758" s="8"/>
     </row>
-    <row r="759" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="8"/>
       <c r="B759" s="15"/>
       <c r="C759" s="8"/>
@@ -21999,7 +22001,7 @@
       <c r="Y759" s="8"/>
       <c r="Z759" s="8"/>
     </row>
-    <row r="760" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="8"/>
       <c r="B760" s="15"/>
       <c r="C760" s="8"/>
@@ -22027,7 +22029,7 @@
       <c r="Y760" s="8"/>
       <c r="Z760" s="8"/>
     </row>
-    <row r="761" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="8"/>
       <c r="B761" s="15"/>
       <c r="C761" s="8"/>
@@ -22055,7 +22057,7 @@
       <c r="Y761" s="8"/>
       <c r="Z761" s="8"/>
     </row>
-    <row r="762" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A762" s="8"/>
       <c r="B762" s="15"/>
       <c r="C762" s="8"/>
@@ -22083,7 +22085,7 @@
       <c r="Y762" s="8"/>
       <c r="Z762" s="8"/>
     </row>
-    <row r="763" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A763" s="8"/>
       <c r="B763" s="15"/>
       <c r="C763" s="8"/>
@@ -22111,7 +22113,7 @@
       <c r="Y763" s="8"/>
       <c r="Z763" s="8"/>
     </row>
-    <row r="764" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A764" s="8"/>
       <c r="B764" s="15"/>
       <c r="C764" s="8"/>
@@ -22139,7 +22141,7 @@
       <c r="Y764" s="8"/>
       <c r="Z764" s="8"/>
     </row>
-    <row r="765" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A765" s="8"/>
       <c r="B765" s="15"/>
       <c r="C765" s="8"/>
@@ -22167,7 +22169,7 @@
       <c r="Y765" s="8"/>
       <c r="Z765" s="8"/>
     </row>
-    <row r="766" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="8"/>
       <c r="B766" s="15"/>
       <c r="C766" s="8"/>
@@ -22195,7 +22197,7 @@
       <c r="Y766" s="8"/>
       <c r="Z766" s="8"/>
     </row>
-    <row r="767" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="8"/>
       <c r="B767" s="15"/>
       <c r="C767" s="8"/>
@@ -22223,7 +22225,7 @@
       <c r="Y767" s="8"/>
       <c r="Z767" s="8"/>
     </row>
-    <row r="768" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="8"/>
       <c r="B768" s="15"/>
       <c r="C768" s="8"/>
@@ -22251,7 +22253,7 @@
       <c r="Y768" s="8"/>
       <c r="Z768" s="8"/>
     </row>
-    <row r="769" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="8"/>
       <c r="B769" s="15"/>
       <c r="C769" s="8"/>
@@ -22279,7 +22281,7 @@
       <c r="Y769" s="8"/>
       <c r="Z769" s="8"/>
     </row>
-    <row r="770" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="8"/>
       <c r="B770" s="15"/>
       <c r="C770" s="8"/>
@@ -22307,7 +22309,7 @@
       <c r="Y770" s="8"/>
       <c r="Z770" s="8"/>
     </row>
-    <row r="771" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="8"/>
       <c r="B771" s="15"/>
       <c r="C771" s="8"/>
@@ -22335,7 +22337,7 @@
       <c r="Y771" s="8"/>
       <c r="Z771" s="8"/>
     </row>
-    <row r="772" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A772" s="8"/>
       <c r="B772" s="15"/>
       <c r="C772" s="8"/>
@@ -22363,7 +22365,7 @@
       <c r="Y772" s="8"/>
       <c r="Z772" s="8"/>
     </row>
-    <row r="773" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A773" s="8"/>
       <c r="B773" s="15"/>
       <c r="C773" s="8"/>
@@ -22391,7 +22393,7 @@
       <c r="Y773" s="8"/>
       <c r="Z773" s="8"/>
     </row>
-    <row r="774" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A774" s="8"/>
       <c r="B774" s="15"/>
       <c r="C774" s="8"/>
@@ -22419,7 +22421,7 @@
       <c r="Y774" s="8"/>
       <c r="Z774" s="8"/>
     </row>
-    <row r="775" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A775" s="8"/>
       <c r="B775" s="15"/>
       <c r="C775" s="8"/>
@@ -22447,7 +22449,7 @@
       <c r="Y775" s="8"/>
       <c r="Z775" s="8"/>
     </row>
-    <row r="776" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="8"/>
       <c r="B776" s="15"/>
       <c r="C776" s="8"/>
@@ -22475,7 +22477,7 @@
       <c r="Y776" s="8"/>
       <c r="Z776" s="8"/>
     </row>
-    <row r="777" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A777" s="8"/>
       <c r="B777" s="15"/>
       <c r="C777" s="8"/>
@@ -22503,7 +22505,7 @@
       <c r="Y777" s="8"/>
       <c r="Z777" s="8"/>
     </row>
-    <row r="778" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="8"/>
       <c r="B778" s="15"/>
       <c r="C778" s="8"/>
@@ -22531,7 +22533,7 @@
       <c r="Y778" s="8"/>
       <c r="Z778" s="8"/>
     </row>
-    <row r="779" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A779" s="8"/>
       <c r="B779" s="15"/>
       <c r="C779" s="8"/>
@@ -22559,7 +22561,7 @@
       <c r="Y779" s="8"/>
       <c r="Z779" s="8"/>
     </row>
-    <row r="780" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="8"/>
       <c r="B780" s="15"/>
       <c r="C780" s="8"/>
@@ -22587,7 +22589,7 @@
       <c r="Y780" s="8"/>
       <c r="Z780" s="8"/>
     </row>
-    <row r="781" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="8"/>
       <c r="B781" s="15"/>
       <c r="C781" s="8"/>
@@ -22615,7 +22617,7 @@
       <c r="Y781" s="8"/>
       <c r="Z781" s="8"/>
     </row>
-    <row r="782" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A782" s="8"/>
       <c r="B782" s="15"/>
       <c r="C782" s="8"/>
@@ -22643,7 +22645,7 @@
       <c r="Y782" s="8"/>
       <c r="Z782" s="8"/>
     </row>
-    <row r="783" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="8"/>
       <c r="B783" s="15"/>
       <c r="C783" s="8"/>
@@ -22671,7 +22673,7 @@
       <c r="Y783" s="8"/>
       <c r="Z783" s="8"/>
     </row>
-    <row r="784" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A784" s="8"/>
       <c r="B784" s="15"/>
       <c r="C784" s="8"/>
@@ -22699,7 +22701,7 @@
       <c r="Y784" s="8"/>
       <c r="Z784" s="8"/>
     </row>
-    <row r="785" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A785" s="8"/>
       <c r="B785" s="15"/>
       <c r="C785" s="8"/>
@@ -22727,7 +22729,7 @@
       <c r="Y785" s="8"/>
       <c r="Z785" s="8"/>
     </row>
-    <row r="786" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A786" s="8"/>
       <c r="B786" s="15"/>
       <c r="C786" s="8"/>
@@ -22755,7 +22757,7 @@
       <c r="Y786" s="8"/>
       <c r="Z786" s="8"/>
     </row>
-    <row r="787" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A787" s="8"/>
       <c r="B787" s="15"/>
       <c r="C787" s="8"/>
@@ -22783,7 +22785,7 @@
       <c r="Y787" s="8"/>
       <c r="Z787" s="8"/>
     </row>
-    <row r="788" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A788" s="8"/>
       <c r="B788" s="15"/>
       <c r="C788" s="8"/>
@@ -22811,7 +22813,7 @@
       <c r="Y788" s="8"/>
       <c r="Z788" s="8"/>
     </row>
-    <row r="789" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="8"/>
       <c r="B789" s="15"/>
       <c r="C789" s="8"/>
@@ -22839,7 +22841,7 @@
       <c r="Y789" s="8"/>
       <c r="Z789" s="8"/>
     </row>
-    <row r="790" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="8"/>
       <c r="B790" s="15"/>
       <c r="C790" s="8"/>
@@ -22867,7 +22869,7 @@
       <c r="Y790" s="8"/>
       <c r="Z790" s="8"/>
     </row>
-    <row r="791" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A791" s="8"/>
       <c r="B791" s="15"/>
       <c r="C791" s="8"/>
@@ -22895,7 +22897,7 @@
       <c r="Y791" s="8"/>
       <c r="Z791" s="8"/>
     </row>
-    <row r="792" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="8"/>
       <c r="B792" s="15"/>
       <c r="C792" s="8"/>
@@ -22923,7 +22925,7 @@
       <c r="Y792" s="8"/>
       <c r="Z792" s="8"/>
     </row>
-    <row r="793" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="8"/>
       <c r="B793" s="15"/>
       <c r="C793" s="8"/>
@@ -22951,7 +22953,7 @@
       <c r="Y793" s="8"/>
       <c r="Z793" s="8"/>
     </row>
-    <row r="794" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="8"/>
       <c r="B794" s="15"/>
       <c r="C794" s="8"/>
@@ -22979,7 +22981,7 @@
       <c r="Y794" s="8"/>
       <c r="Z794" s="8"/>
     </row>
-    <row r="795" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="8"/>
       <c r="B795" s="15"/>
       <c r="C795" s="8"/>
@@ -23007,7 +23009,7 @@
       <c r="Y795" s="8"/>
       <c r="Z795" s="8"/>
     </row>
-    <row r="796" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="8"/>
       <c r="B796" s="15"/>
       <c r="C796" s="8"/>
@@ -23035,7 +23037,7 @@
       <c r="Y796" s="8"/>
       <c r="Z796" s="8"/>
     </row>
-    <row r="797" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="8"/>
       <c r="B797" s="15"/>
       <c r="C797" s="8"/>
@@ -23063,7 +23065,7 @@
       <c r="Y797" s="8"/>
       <c r="Z797" s="8"/>
     </row>
-    <row r="798" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="8"/>
       <c r="B798" s="15"/>
       <c r="C798" s="8"/>
@@ -23091,7 +23093,7 @@
       <c r="Y798" s="8"/>
       <c r="Z798" s="8"/>
     </row>
-    <row r="799" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A799" s="8"/>
       <c r="B799" s="15"/>
       <c r="C799" s="8"/>
@@ -23119,7 +23121,7 @@
       <c r="Y799" s="8"/>
       <c r="Z799" s="8"/>
     </row>
-    <row r="800" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A800" s="8"/>
       <c r="B800" s="15"/>
       <c r="C800" s="8"/>
@@ -23147,7 +23149,7 @@
       <c r="Y800" s="8"/>
       <c r="Z800" s="8"/>
     </row>
-    <row r="801" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A801" s="8"/>
       <c r="B801" s="15"/>
       <c r="C801" s="8"/>
@@ -23175,7 +23177,7 @@
       <c r="Y801" s="8"/>
       <c r="Z801" s="8"/>
     </row>
-    <row r="802" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A802" s="8"/>
       <c r="B802" s="15"/>
       <c r="C802" s="8"/>
@@ -23203,7 +23205,7 @@
       <c r="Y802" s="8"/>
       <c r="Z802" s="8"/>
     </row>
-    <row r="803" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="8"/>
       <c r="B803" s="15"/>
       <c r="C803" s="8"/>
@@ -23231,7 +23233,7 @@
       <c r="Y803" s="8"/>
       <c r="Z803" s="8"/>
     </row>
-    <row r="804" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A804" s="8"/>
       <c r="B804" s="15"/>
       <c r="C804" s="8"/>
@@ -23259,7 +23261,7 @@
       <c r="Y804" s="8"/>
       <c r="Z804" s="8"/>
     </row>
-    <row r="805" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="8"/>
       <c r="B805" s="15"/>
       <c r="C805" s="8"/>
@@ -23287,7 +23289,7 @@
       <c r="Y805" s="8"/>
       <c r="Z805" s="8"/>
     </row>
-    <row r="806" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A806" s="8"/>
       <c r="B806" s="15"/>
       <c r="C806" s="8"/>
@@ -23315,7 +23317,7 @@
       <c r="Y806" s="8"/>
       <c r="Z806" s="8"/>
     </row>
-    <row r="807" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A807" s="8"/>
       <c r="B807" s="15"/>
       <c r="C807" s="8"/>
@@ -23343,7 +23345,7 @@
       <c r="Y807" s="8"/>
       <c r="Z807" s="8"/>
     </row>
-    <row r="808" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="8"/>
       <c r="B808" s="15"/>
       <c r="C808" s="8"/>
@@ -23371,7 +23373,7 @@
       <c r="Y808" s="8"/>
       <c r="Z808" s="8"/>
     </row>
-    <row r="809" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="8"/>
       <c r="B809" s="15"/>
       <c r="C809" s="8"/>
@@ -23399,7 +23401,7 @@
       <c r="Y809" s="8"/>
       <c r="Z809" s="8"/>
     </row>
-    <row r="810" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A810" s="8"/>
       <c r="B810" s="15"/>
       <c r="C810" s="8"/>
@@ -23427,7 +23429,7 @@
       <c r="Y810" s="8"/>
       <c r="Z810" s="8"/>
     </row>
-    <row r="811" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A811" s="8"/>
       <c r="B811" s="15"/>
       <c r="C811" s="8"/>
@@ -23455,7 +23457,7 @@
       <c r="Y811" s="8"/>
       <c r="Z811" s="8"/>
     </row>
-    <row r="812" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A812" s="8"/>
       <c r="B812" s="15"/>
       <c r="C812" s="8"/>
@@ -23483,7 +23485,7 @@
       <c r="Y812" s="8"/>
       <c r="Z812" s="8"/>
     </row>
-    <row r="813" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="8"/>
       <c r="B813" s="15"/>
       <c r="C813" s="8"/>
@@ -23511,7 +23513,7 @@
       <c r="Y813" s="8"/>
       <c r="Z813" s="8"/>
     </row>
-    <row r="814" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="8"/>
       <c r="B814" s="15"/>
       <c r="C814" s="8"/>
@@ -23539,7 +23541,7 @@
       <c r="Y814" s="8"/>
       <c r="Z814" s="8"/>
     </row>
-    <row r="815" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A815" s="8"/>
       <c r="B815" s="15"/>
       <c r="C815" s="8"/>
@@ -23567,7 +23569,7 @@
       <c r="Y815" s="8"/>
       <c r="Z815" s="8"/>
     </row>
-    <row r="816" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A816" s="8"/>
       <c r="B816" s="15"/>
       <c r="C816" s="8"/>
@@ -23595,7 +23597,7 @@
       <c r="Y816" s="8"/>
       <c r="Z816" s="8"/>
     </row>
-    <row r="817" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A817" s="8"/>
       <c r="B817" s="15"/>
       <c r="C817" s="8"/>
@@ -23623,7 +23625,7 @@
       <c r="Y817" s="8"/>
       <c r="Z817" s="8"/>
     </row>
-    <row r="818" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A818" s="8"/>
       <c r="B818" s="15"/>
       <c r="C818" s="8"/>
@@ -23651,7 +23653,7 @@
       <c r="Y818" s="8"/>
       <c r="Z818" s="8"/>
     </row>
-    <row r="819" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A819" s="8"/>
       <c r="B819" s="15"/>
       <c r="C819" s="8"/>
@@ -23679,7 +23681,7 @@
       <c r="Y819" s="8"/>
       <c r="Z819" s="8"/>
     </row>
-    <row r="820" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="8"/>
       <c r="B820" s="15"/>
       <c r="C820" s="8"/>
@@ -23707,7 +23709,7 @@
       <c r="Y820" s="8"/>
       <c r="Z820" s="8"/>
     </row>
-    <row r="821" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="8"/>
       <c r="B821" s="15"/>
       <c r="C821" s="8"/>
@@ -23735,7 +23737,7 @@
       <c r="Y821" s="8"/>
       <c r="Z821" s="8"/>
     </row>
-    <row r="822" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="8"/>
       <c r="B822" s="15"/>
       <c r="C822" s="8"/>
@@ -23763,7 +23765,7 @@
       <c r="Y822" s="8"/>
       <c r="Z822" s="8"/>
     </row>
-    <row r="823" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="8"/>
       <c r="B823" s="15"/>
       <c r="C823" s="8"/>
@@ -23791,7 +23793,7 @@
       <c r="Y823" s="8"/>
       <c r="Z823" s="8"/>
     </row>
-    <row r="824" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="8"/>
       <c r="B824" s="15"/>
       <c r="C824" s="8"/>
@@ -23819,7 +23821,7 @@
       <c r="Y824" s="8"/>
       <c r="Z824" s="8"/>
     </row>
-    <row r="825" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="8"/>
       <c r="B825" s="15"/>
       <c r="C825" s="8"/>
@@ -23847,7 +23849,7 @@
       <c r="Y825" s="8"/>
       <c r="Z825" s="8"/>
     </row>
-    <row r="826" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A826" s="8"/>
       <c r="B826" s="15"/>
       <c r="C826" s="8"/>
@@ -23875,7 +23877,7 @@
       <c r="Y826" s="8"/>
       <c r="Z826" s="8"/>
     </row>
-    <row r="827" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A827" s="8"/>
       <c r="B827" s="15"/>
       <c r="C827" s="8"/>
@@ -23903,7 +23905,7 @@
       <c r="Y827" s="8"/>
       <c r="Z827" s="8"/>
     </row>
-    <row r="828" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A828" s="8"/>
       <c r="B828" s="15"/>
       <c r="C828" s="8"/>
@@ -23931,7 +23933,7 @@
       <c r="Y828" s="8"/>
       <c r="Z828" s="8"/>
     </row>
-    <row r="829" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A829" s="8"/>
       <c r="B829" s="15"/>
       <c r="C829" s="8"/>
@@ -23959,7 +23961,7 @@
       <c r="Y829" s="8"/>
       <c r="Z829" s="8"/>
     </row>
-    <row r="830" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="8"/>
       <c r="B830" s="15"/>
       <c r="C830" s="8"/>
@@ -23987,7 +23989,7 @@
       <c r="Y830" s="8"/>
       <c r="Z830" s="8"/>
     </row>
-    <row r="831" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A831" s="8"/>
       <c r="B831" s="15"/>
       <c r="C831" s="8"/>
@@ -24015,7 +24017,7 @@
       <c r="Y831" s="8"/>
       <c r="Z831" s="8"/>
     </row>
-    <row r="832" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="8"/>
       <c r="B832" s="15"/>
       <c r="C832" s="8"/>
@@ -24043,7 +24045,7 @@
       <c r="Y832" s="8"/>
       <c r="Z832" s="8"/>
     </row>
-    <row r="833" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A833" s="8"/>
       <c r="B833" s="15"/>
       <c r="C833" s="8"/>
@@ -24071,7 +24073,7 @@
       <c r="Y833" s="8"/>
       <c r="Z833" s="8"/>
     </row>
-    <row r="834" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A834" s="8"/>
       <c r="B834" s="15"/>
       <c r="C834" s="8"/>
@@ -24099,7 +24101,7 @@
       <c r="Y834" s="8"/>
       <c r="Z834" s="8"/>
     </row>
-    <row r="835" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A835" s="8"/>
       <c r="B835" s="15"/>
       <c r="C835" s="8"/>
@@ -24127,7 +24129,7 @@
       <c r="Y835" s="8"/>
       <c r="Z835" s="8"/>
     </row>
-    <row r="836" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A836" s="8"/>
       <c r="B836" s="15"/>
       <c r="C836" s="8"/>
@@ -24155,7 +24157,7 @@
       <c r="Y836" s="8"/>
       <c r="Z836" s="8"/>
     </row>
-    <row r="837" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="8"/>
       <c r="B837" s="15"/>
       <c r="C837" s="8"/>
@@ -24183,7 +24185,7 @@
       <c r="Y837" s="8"/>
       <c r="Z837" s="8"/>
     </row>
-    <row r="838" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A838" s="8"/>
       <c r="B838" s="15"/>
       <c r="C838" s="8"/>
@@ -24211,7 +24213,7 @@
       <c r="Y838" s="8"/>
       <c r="Z838" s="8"/>
     </row>
-    <row r="839" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A839" s="8"/>
       <c r="B839" s="15"/>
       <c r="C839" s="8"/>
@@ -24239,7 +24241,7 @@
       <c r="Y839" s="8"/>
       <c r="Z839" s="8"/>
     </row>
-    <row r="840" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A840" s="8"/>
       <c r="B840" s="15"/>
       <c r="C840" s="8"/>
@@ -24267,7 +24269,7 @@
       <c r="Y840" s="8"/>
       <c r="Z840" s="8"/>
     </row>
-    <row r="841" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A841" s="8"/>
       <c r="B841" s="15"/>
       <c r="C841" s="8"/>
@@ -24295,7 +24297,7 @@
       <c r="Y841" s="8"/>
       <c r="Z841" s="8"/>
     </row>
-    <row r="842" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="8"/>
       <c r="B842" s="15"/>
       <c r="C842" s="8"/>
@@ -24323,7 +24325,7 @@
       <c r="Y842" s="8"/>
       <c r="Z842" s="8"/>
     </row>
-    <row r="843" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A843" s="8"/>
       <c r="B843" s="15"/>
       <c r="C843" s="8"/>
@@ -24351,7 +24353,7 @@
       <c r="Y843" s="8"/>
       <c r="Z843" s="8"/>
     </row>
-    <row r="844" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="8"/>
       <c r="B844" s="15"/>
       <c r="C844" s="8"/>
@@ -24379,7 +24381,7 @@
       <c r="Y844" s="8"/>
       <c r="Z844" s="8"/>
     </row>
-    <row r="845" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A845" s="8"/>
       <c r="B845" s="15"/>
       <c r="C845" s="8"/>
@@ -24407,7 +24409,7 @@
       <c r="Y845" s="8"/>
       <c r="Z845" s="8"/>
     </row>
-    <row r="846" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A846" s="8"/>
       <c r="B846" s="15"/>
       <c r="C846" s="8"/>
@@ -24435,7 +24437,7 @@
       <c r="Y846" s="8"/>
       <c r="Z846" s="8"/>
     </row>
-    <row r="847" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="8"/>
       <c r="B847" s="15"/>
       <c r="C847" s="8"/>
@@ -24463,7 +24465,7 @@
       <c r="Y847" s="8"/>
       <c r="Z847" s="8"/>
     </row>
-    <row r="848" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="8"/>
       <c r="B848" s="15"/>
       <c r="C848" s="8"/>
@@ -24491,7 +24493,7 @@
       <c r="Y848" s="8"/>
       <c r="Z848" s="8"/>
     </row>
-    <row r="849" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="8"/>
       <c r="B849" s="15"/>
       <c r="C849" s="8"/>
@@ -24519,7 +24521,7 @@
       <c r="Y849" s="8"/>
       <c r="Z849" s="8"/>
     </row>
-    <row r="850" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="8"/>
       <c r="B850" s="15"/>
       <c r="C850" s="8"/>
@@ -24547,7 +24549,7 @@
       <c r="Y850" s="8"/>
       <c r="Z850" s="8"/>
     </row>
-    <row r="851" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="8"/>
       <c r="B851" s="15"/>
       <c r="C851" s="8"/>
@@ -24575,7 +24577,7 @@
       <c r="Y851" s="8"/>
       <c r="Z851" s="8"/>
     </row>
-    <row r="852" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="8"/>
       <c r="B852" s="15"/>
       <c r="C852" s="8"/>
@@ -24603,7 +24605,7 @@
       <c r="Y852" s="8"/>
       <c r="Z852" s="8"/>
     </row>
-    <row r="853" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A853" s="8"/>
       <c r="B853" s="15"/>
       <c r="C853" s="8"/>
@@ -24631,7 +24633,7 @@
       <c r="Y853" s="8"/>
       <c r="Z853" s="8"/>
     </row>
-    <row r="854" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A854" s="8"/>
       <c r="B854" s="15"/>
       <c r="C854" s="8"/>
@@ -24659,7 +24661,7 @@
       <c r="Y854" s="8"/>
       <c r="Z854" s="8"/>
     </row>
-    <row r="855" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A855" s="8"/>
       <c r="B855" s="15"/>
       <c r="C855" s="8"/>
@@ -24687,7 +24689,7 @@
       <c r="Y855" s="8"/>
       <c r="Z855" s="8"/>
     </row>
-    <row r="856" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A856" s="8"/>
       <c r="B856" s="15"/>
       <c r="C856" s="8"/>
@@ -24715,7 +24717,7 @@
       <c r="Y856" s="8"/>
       <c r="Z856" s="8"/>
     </row>
-    <row r="857" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="8"/>
       <c r="B857" s="15"/>
       <c r="C857" s="8"/>
@@ -24743,7 +24745,7 @@
       <c r="Y857" s="8"/>
       <c r="Z857" s="8"/>
     </row>
-    <row r="858" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A858" s="8"/>
       <c r="B858" s="15"/>
       <c r="C858" s="8"/>
@@ -24771,7 +24773,7 @@
       <c r="Y858" s="8"/>
       <c r="Z858" s="8"/>
     </row>
-    <row r="859" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="8"/>
       <c r="B859" s="15"/>
       <c r="C859" s="8"/>
@@ -24799,7 +24801,7 @@
       <c r="Y859" s="8"/>
       <c r="Z859" s="8"/>
     </row>
-    <row r="860" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="8"/>
       <c r="B860" s="15"/>
       <c r="C860" s="8"/>
@@ -24827,7 +24829,7 @@
       <c r="Y860" s="8"/>
       <c r="Z860" s="8"/>
     </row>
-    <row r="861" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="8"/>
       <c r="B861" s="15"/>
       <c r="C861" s="8"/>
@@ -24855,7 +24857,7 @@
       <c r="Y861" s="8"/>
       <c r="Z861" s="8"/>
     </row>
-    <row r="862" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="8"/>
       <c r="B862" s="15"/>
       <c r="C862" s="8"/>
@@ -24883,7 +24885,7 @@
       <c r="Y862" s="8"/>
       <c r="Z862" s="8"/>
     </row>
-    <row r="863" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="8"/>
       <c r="B863" s="15"/>
       <c r="C863" s="8"/>
@@ -24911,7 +24913,7 @@
       <c r="Y863" s="8"/>
       <c r="Z863" s="8"/>
     </row>
-    <row r="864" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="8"/>
       <c r="B864" s="15"/>
       <c r="C864" s="8"/>
@@ -24939,7 +24941,7 @@
       <c r="Y864" s="8"/>
       <c r="Z864" s="8"/>
     </row>
-    <row r="865" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="8"/>
       <c r="B865" s="15"/>
       <c r="C865" s="8"/>
@@ -24967,7 +24969,7 @@
       <c r="Y865" s="8"/>
       <c r="Z865" s="8"/>
     </row>
-    <row r="866" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A866" s="8"/>
       <c r="B866" s="15"/>
       <c r="C866" s="8"/>
@@ -24995,7 +24997,7 @@
       <c r="Y866" s="8"/>
       <c r="Z866" s="8"/>
     </row>
-    <row r="867" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="8"/>
       <c r="B867" s="15"/>
       <c r="C867" s="8"/>
@@ -25023,7 +25025,7 @@
       <c r="Y867" s="8"/>
       <c r="Z867" s="8"/>
     </row>
-    <row r="868" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A868" s="8"/>
       <c r="B868" s="15"/>
       <c r="C868" s="8"/>
@@ -25051,7 +25053,7 @@
       <c r="Y868" s="8"/>
       <c r="Z868" s="8"/>
     </row>
-    <row r="869" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A869" s="8"/>
       <c r="B869" s="15"/>
       <c r="C869" s="8"/>
@@ -25079,7 +25081,7 @@
       <c r="Y869" s="8"/>
       <c r="Z869" s="8"/>
     </row>
-    <row r="870" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="8"/>
       <c r="B870" s="15"/>
       <c r="C870" s="8"/>
@@ -25107,7 +25109,7 @@
       <c r="Y870" s="8"/>
       <c r="Z870" s="8"/>
     </row>
-    <row r="871" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A871" s="8"/>
       <c r="B871" s="15"/>
       <c r="C871" s="8"/>
@@ -25135,7 +25137,7 @@
       <c r="Y871" s="8"/>
       <c r="Z871" s="8"/>
     </row>
-    <row r="872" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A872" s="8"/>
       <c r="B872" s="15"/>
       <c r="C872" s="8"/>
@@ -25163,7 +25165,7 @@
       <c r="Y872" s="8"/>
       <c r="Z872" s="8"/>
     </row>
-    <row r="873" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A873" s="8"/>
       <c r="B873" s="15"/>
       <c r="C873" s="8"/>
@@ -25191,7 +25193,7 @@
       <c r="Y873" s="8"/>
       <c r="Z873" s="8"/>
     </row>
-    <row r="874" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="8"/>
       <c r="B874" s="15"/>
       <c r="C874" s="8"/>
@@ -25219,7 +25221,7 @@
       <c r="Y874" s="8"/>
       <c r="Z874" s="8"/>
     </row>
-    <row r="875" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="8"/>
       <c r="B875" s="15"/>
       <c r="C875" s="8"/>
@@ -25247,7 +25249,7 @@
       <c r="Y875" s="8"/>
       <c r="Z875" s="8"/>
     </row>
-    <row r="876" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="8"/>
       <c r="B876" s="15"/>
       <c r="C876" s="8"/>
@@ -25275,7 +25277,7 @@
       <c r="Y876" s="8"/>
       <c r="Z876" s="8"/>
     </row>
-    <row r="877" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="8"/>
       <c r="B877" s="15"/>
       <c r="C877" s="8"/>
@@ -25303,7 +25305,7 @@
       <c r="Y877" s="8"/>
       <c r="Z877" s="8"/>
     </row>
-    <row r="878" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="8"/>
       <c r="B878" s="15"/>
       <c r="C878" s="8"/>
@@ -25331,7 +25333,7 @@
       <c r="Y878" s="8"/>
       <c r="Z878" s="8"/>
     </row>
-    <row r="879" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="8"/>
       <c r="B879" s="15"/>
       <c r="C879" s="8"/>
@@ -25359,7 +25361,7 @@
       <c r="Y879" s="8"/>
       <c r="Z879" s="8"/>
     </row>
-    <row r="880" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A880" s="8"/>
       <c r="B880" s="15"/>
       <c r="C880" s="8"/>
@@ -25387,7 +25389,7 @@
       <c r="Y880" s="8"/>
       <c r="Z880" s="8"/>
     </row>
-    <row r="881" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A881" s="8"/>
       <c r="B881" s="15"/>
       <c r="C881" s="8"/>
@@ -25415,7 +25417,7 @@
       <c r="Y881" s="8"/>
       <c r="Z881" s="8"/>
     </row>
-    <row r="882" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A882" s="8"/>
       <c r="B882" s="15"/>
       <c r="C882" s="8"/>
@@ -25443,7 +25445,7 @@
       <c r="Y882" s="8"/>
       <c r="Z882" s="8"/>
     </row>
-    <row r="883" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A883" s="8"/>
       <c r="B883" s="15"/>
       <c r="C883" s="8"/>
@@ -25471,7 +25473,7 @@
       <c r="Y883" s="8"/>
       <c r="Z883" s="8"/>
     </row>
-    <row r="884" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="8"/>
       <c r="B884" s="15"/>
       <c r="C884" s="8"/>
@@ -25499,7 +25501,7 @@
       <c r="Y884" s="8"/>
       <c r="Z884" s="8"/>
     </row>
-    <row r="885" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A885" s="8"/>
       <c r="B885" s="15"/>
       <c r="C885" s="8"/>
@@ -25527,7 +25529,7 @@
       <c r="Y885" s="8"/>
       <c r="Z885" s="8"/>
     </row>
-    <row r="886" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="8"/>
       <c r="B886" s="15"/>
       <c r="C886" s="8"/>
@@ -25555,7 +25557,7 @@
       <c r="Y886" s="8"/>
       <c r="Z886" s="8"/>
     </row>
-    <row r="887" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A887" s="8"/>
       <c r="B887" s="15"/>
       <c r="C887" s="8"/>
@@ -25583,7 +25585,7 @@
       <c r="Y887" s="8"/>
       <c r="Z887" s="8"/>
     </row>
-    <row r="888" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A888" s="8"/>
       <c r="B888" s="15"/>
       <c r="C888" s="8"/>
@@ -25611,7 +25613,7 @@
       <c r="Y888" s="8"/>
       <c r="Z888" s="8"/>
     </row>
-    <row r="889" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A889" s="8"/>
       <c r="B889" s="15"/>
       <c r="C889" s="8"/>
@@ -25639,7 +25641,7 @@
       <c r="Y889" s="8"/>
       <c r="Z889" s="8"/>
     </row>
-    <row r="890" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A890" s="8"/>
       <c r="B890" s="15"/>
       <c r="C890" s="8"/>
@@ -25667,7 +25669,7 @@
       <c r="Y890" s="8"/>
       <c r="Z890" s="8"/>
     </row>
-    <row r="891" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="8"/>
       <c r="B891" s="15"/>
       <c r="C891" s="8"/>
@@ -25695,7 +25697,7 @@
       <c r="Y891" s="8"/>
       <c r="Z891" s="8"/>
     </row>
-    <row r="892" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="8"/>
       <c r="B892" s="15"/>
       <c r="C892" s="8"/>
@@ -25723,7 +25725,7 @@
       <c r="Y892" s="8"/>
       <c r="Z892" s="8"/>
     </row>
-    <row r="893" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="8"/>
       <c r="B893" s="15"/>
       <c r="C893" s="8"/>
@@ -25751,7 +25753,7 @@
       <c r="Y893" s="8"/>
       <c r="Z893" s="8"/>
     </row>
-    <row r="894" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A894" s="8"/>
       <c r="B894" s="15"/>
       <c r="C894" s="8"/>
@@ -25779,7 +25781,7 @@
       <c r="Y894" s="8"/>
       <c r="Z894" s="8"/>
     </row>
-    <row r="895" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="8"/>
       <c r="B895" s="15"/>
       <c r="C895" s="8"/>
@@ -25807,7 +25809,7 @@
       <c r="Y895" s="8"/>
       <c r="Z895" s="8"/>
     </row>
-    <row r="896" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A896" s="8"/>
       <c r="B896" s="15"/>
       <c r="C896" s="8"/>
@@ -25835,7 +25837,7 @@
       <c r="Y896" s="8"/>
       <c r="Z896" s="8"/>
     </row>
-    <row r="897" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A897" s="8"/>
       <c r="B897" s="15"/>
       <c r="C897" s="8"/>
@@ -25863,7 +25865,7 @@
       <c r="Y897" s="8"/>
       <c r="Z897" s="8"/>
     </row>
-    <row r="898" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="8"/>
       <c r="B898" s="15"/>
       <c r="C898" s="8"/>
@@ -25891,7 +25893,7 @@
       <c r="Y898" s="8"/>
       <c r="Z898" s="8"/>
     </row>
-    <row r="899" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A899" s="8"/>
       <c r="B899" s="15"/>
       <c r="C899" s="8"/>
@@ -25919,7 +25921,7 @@
       <c r="Y899" s="8"/>
       <c r="Z899" s="8"/>
     </row>
-    <row r="900" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A900" s="8"/>
       <c r="B900" s="15"/>
       <c r="C900" s="8"/>
@@ -25947,7 +25949,7 @@
       <c r="Y900" s="8"/>
       <c r="Z900" s="8"/>
     </row>
-    <row r="901" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="8"/>
       <c r="B901" s="15"/>
       <c r="C901" s="8"/>
@@ -25975,7 +25977,7 @@
       <c r="Y901" s="8"/>
       <c r="Z901" s="8"/>
     </row>
-    <row r="902" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="8"/>
       <c r="B902" s="15"/>
       <c r="C902" s="8"/>
@@ -26003,7 +26005,7 @@
       <c r="Y902" s="8"/>
       <c r="Z902" s="8"/>
     </row>
-    <row r="903" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="8"/>
       <c r="B903" s="15"/>
       <c r="C903" s="8"/>
@@ -26031,7 +26033,7 @@
       <c r="Y903" s="8"/>
       <c r="Z903" s="8"/>
     </row>
-    <row r="904" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="8"/>
       <c r="B904" s="15"/>
       <c r="C904" s="8"/>
@@ -26059,7 +26061,7 @@
       <c r="Y904" s="8"/>
       <c r="Z904" s="8"/>
     </row>
-    <row r="905" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="8"/>
       <c r="B905" s="15"/>
       <c r="C905" s="8"/>
@@ -26087,7 +26089,7 @@
       <c r="Y905" s="8"/>
       <c r="Z905" s="8"/>
     </row>
-    <row r="906" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="8"/>
       <c r="B906" s="15"/>
       <c r="C906" s="8"/>
@@ -26115,7 +26117,7 @@
       <c r="Y906" s="8"/>
       <c r="Z906" s="8"/>
     </row>
-    <row r="907" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A907" s="8"/>
       <c r="B907" s="15"/>
       <c r="C907" s="8"/>
@@ -26143,7 +26145,7 @@
       <c r="Y907" s="8"/>
       <c r="Z907" s="8"/>
     </row>
-    <row r="908" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A908" s="8"/>
       <c r="B908" s="15"/>
       <c r="C908" s="8"/>
@@ -26171,7 +26173,7 @@
       <c r="Y908" s="8"/>
       <c r="Z908" s="8"/>
     </row>
-    <row r="909" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A909" s="8"/>
       <c r="B909" s="15"/>
       <c r="C909" s="8"/>
@@ -26199,7 +26201,7 @@
       <c r="Y909" s="8"/>
       <c r="Z909" s="8"/>
     </row>
-    <row r="910" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A910" s="8"/>
       <c r="B910" s="15"/>
       <c r="C910" s="8"/>
@@ -26227,7 +26229,7 @@
       <c r="Y910" s="8"/>
       <c r="Z910" s="8"/>
     </row>
-    <row r="911" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A911" s="8"/>
       <c r="B911" s="15"/>
       <c r="C911" s="8"/>
@@ -26255,7 +26257,7 @@
       <c r="Y911" s="8"/>
       <c r="Z911" s="8"/>
     </row>
-    <row r="912" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A912" s="8"/>
       <c r="B912" s="15"/>
       <c r="C912" s="8"/>
@@ -26283,7 +26285,7 @@
       <c r="Y912" s="8"/>
       <c r="Z912" s="8"/>
     </row>
-    <row r="913" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A913" s="8"/>
       <c r="B913" s="15"/>
       <c r="C913" s="8"/>
@@ -26311,7 +26313,7 @@
       <c r="Y913" s="8"/>
       <c r="Z913" s="8"/>
     </row>
-    <row r="914" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A914" s="8"/>
       <c r="B914" s="15"/>
       <c r="C914" s="8"/>
@@ -26339,7 +26341,7 @@
       <c r="Y914" s="8"/>
       <c r="Z914" s="8"/>
     </row>
-    <row r="915" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A915" s="8"/>
       <c r="B915" s="15"/>
       <c r="C915" s="8"/>
@@ -26367,7 +26369,7 @@
       <c r="Y915" s="8"/>
       <c r="Z915" s="8"/>
     </row>
-    <row r="916" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A916" s="8"/>
       <c r="B916" s="15"/>
       <c r="C916" s="8"/>
@@ -26395,7 +26397,7 @@
       <c r="Y916" s="8"/>
       <c r="Z916" s="8"/>
     </row>
-    <row r="917" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A917" s="8"/>
       <c r="B917" s="15"/>
       <c r="C917" s="8"/>
@@ -26423,7 +26425,7 @@
       <c r="Y917" s="8"/>
       <c r="Z917" s="8"/>
     </row>
-    <row r="918" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A918" s="8"/>
       <c r="B918" s="15"/>
       <c r="C918" s="8"/>
@@ -26451,7 +26453,7 @@
       <c r="Y918" s="8"/>
       <c r="Z918" s="8"/>
     </row>
-    <row r="919" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A919" s="8"/>
       <c r="B919" s="15"/>
       <c r="C919" s="8"/>
@@ -26479,7 +26481,7 @@
       <c r="Y919" s="8"/>
       <c r="Z919" s="8"/>
     </row>
-    <row r="920" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="8"/>
       <c r="B920" s="15"/>
       <c r="C920" s="8"/>
@@ -26507,7 +26509,7 @@
       <c r="Y920" s="8"/>
       <c r="Z920" s="8"/>
     </row>
-    <row r="921" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="8"/>
       <c r="B921" s="15"/>
       <c r="C921" s="8"/>
@@ -26535,7 +26537,7 @@
       <c r="Y921" s="8"/>
       <c r="Z921" s="8"/>
     </row>
-    <row r="922" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A922" s="8"/>
       <c r="B922" s="15"/>
       <c r="C922" s="8"/>
@@ -26563,7 +26565,7 @@
       <c r="Y922" s="8"/>
       <c r="Z922" s="8"/>
     </row>
-    <row r="923" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="8"/>
       <c r="B923" s="15"/>
       <c r="C923" s="8"/>
@@ -26591,7 +26593,7 @@
       <c r="Y923" s="8"/>
       <c r="Z923" s="8"/>
     </row>
-    <row r="924" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A924" s="8"/>
       <c r="B924" s="15"/>
       <c r="C924" s="8"/>
@@ -26619,7 +26621,7 @@
       <c r="Y924" s="8"/>
       <c r="Z924" s="8"/>
     </row>
-    <row r="925" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A925" s="8"/>
       <c r="B925" s="15"/>
       <c r="C925" s="8"/>
@@ -26647,7 +26649,7 @@
       <c r="Y925" s="8"/>
       <c r="Z925" s="8"/>
     </row>
-    <row r="926" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="8"/>
       <c r="B926" s="15"/>
       <c r="C926" s="8"/>
@@ -26675,7 +26677,7 @@
       <c r="Y926" s="8"/>
       <c r="Z926" s="8"/>
     </row>
-    <row r="927" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A927" s="8"/>
       <c r="B927" s="15"/>
       <c r="C927" s="8"/>
@@ -26703,7 +26705,7 @@
       <c r="Y927" s="8"/>
       <c r="Z927" s="8"/>
     </row>
-    <row r="928" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A928" s="8"/>
       <c r="B928" s="15"/>
       <c r="C928" s="8"/>
@@ -26731,7 +26733,7 @@
       <c r="Y928" s="8"/>
       <c r="Z928" s="8"/>
     </row>
-    <row r="929" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A929" s="8"/>
       <c r="B929" s="15"/>
       <c r="C929" s="8"/>
@@ -26759,7 +26761,7 @@
       <c r="Y929" s="8"/>
       <c r="Z929" s="8"/>
     </row>
-    <row r="930" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A930" s="8"/>
       <c r="B930" s="15"/>
       <c r="C930" s="8"/>
@@ -26787,7 +26789,7 @@
       <c r="Y930" s="8"/>
       <c r="Z930" s="8"/>
     </row>
-    <row r="931" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A931" s="8"/>
       <c r="B931" s="15"/>
       <c r="C931" s="8"/>
@@ -26815,7 +26817,7 @@
       <c r="Y931" s="8"/>
       <c r="Z931" s="8"/>
     </row>
-    <row r="932" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A932" s="8"/>
       <c r="B932" s="15"/>
       <c r="C932" s="8"/>
@@ -26843,7 +26845,7 @@
       <c r="Y932" s="8"/>
       <c r="Z932" s="8"/>
     </row>
-    <row r="933" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A933" s="8"/>
       <c r="B933" s="15"/>
       <c r="C933" s="8"/>
@@ -26871,7 +26873,7 @@
       <c r="Y933" s="8"/>
       <c r="Z933" s="8"/>
     </row>
-    <row r="934" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A934" s="8"/>
       <c r="B934" s="15"/>
       <c r="C934" s="8"/>
@@ -26899,7 +26901,7 @@
       <c r="Y934" s="8"/>
       <c r="Z934" s="8"/>
     </row>
-    <row r="935" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A935" s="8"/>
       <c r="B935" s="15"/>
       <c r="C935" s="8"/>
@@ -26927,7 +26929,7 @@
       <c r="Y935" s="8"/>
       <c r="Z935" s="8"/>
     </row>
-    <row r="936" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A936" s="8"/>
       <c r="B936" s="15"/>
       <c r="C936" s="8"/>
@@ -26955,7 +26957,7 @@
       <c r="Y936" s="8"/>
       <c r="Z936" s="8"/>
     </row>
-    <row r="937" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A937" s="8"/>
       <c r="B937" s="15"/>
       <c r="C937" s="8"/>
@@ -26983,7 +26985,7 @@
       <c r="Y937" s="8"/>
       <c r="Z937" s="8"/>
     </row>
-    <row r="938" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A938" s="8"/>
       <c r="B938" s="15"/>
       <c r="C938" s="8"/>
@@ -27011,7 +27013,7 @@
       <c r="Y938" s="8"/>
       <c r="Z938" s="8"/>
     </row>
-    <row r="939" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A939" s="8"/>
       <c r="B939" s="15"/>
       <c r="C939" s="8"/>
@@ -27039,7 +27041,7 @@
       <c r="Y939" s="8"/>
       <c r="Z939" s="8"/>
     </row>
-    <row r="940" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A940" s="8"/>
       <c r="B940" s="15"/>
       <c r="C940" s="8"/>
@@ -27067,7 +27069,7 @@
       <c r="Y940" s="8"/>
       <c r="Z940" s="8"/>
     </row>
-    <row r="941" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A941" s="8"/>
       <c r="B941" s="15"/>
       <c r="C941" s="8"/>
@@ -27095,7 +27097,7 @@
       <c r="Y941" s="8"/>
       <c r="Z941" s="8"/>
     </row>
-    <row r="942" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A942" s="8"/>
       <c r="B942" s="15"/>
       <c r="C942" s="8"/>
@@ -27123,7 +27125,7 @@
       <c r="Y942" s="8"/>
       <c r="Z942" s="8"/>
     </row>
-    <row r="943" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A943" s="8"/>
       <c r="B943" s="15"/>
       <c r="C943" s="8"/>
@@ -27151,7 +27153,7 @@
       <c r="Y943" s="8"/>
       <c r="Z943" s="8"/>
     </row>
-    <row r="944" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A944" s="8"/>
       <c r="B944" s="15"/>
       <c r="C944" s="8"/>
@@ -27179,7 +27181,7 @@
       <c r="Y944" s="8"/>
       <c r="Z944" s="8"/>
     </row>
-    <row r="945" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A945" s="8"/>
       <c r="B945" s="15"/>
       <c r="C945" s="8"/>
@@ -27207,7 +27209,7 @@
       <c r="Y945" s="8"/>
       <c r="Z945" s="8"/>
     </row>
-    <row r="946" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A946" s="8"/>
       <c r="B946" s="15"/>
       <c r="C946" s="8"/>
@@ -27235,7 +27237,7 @@
       <c r="Y946" s="8"/>
       <c r="Z946" s="8"/>
     </row>
-    <row r="947" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A947" s="8"/>
       <c r="B947" s="15"/>
       <c r="C947" s="8"/>
@@ -27263,7 +27265,7 @@
       <c r="Y947" s="8"/>
       <c r="Z947" s="8"/>
     </row>
-    <row r="948" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="8"/>
       <c r="B948" s="15"/>
       <c r="C948" s="8"/>
@@ -27291,7 +27293,7 @@
       <c r="Y948" s="8"/>
       <c r="Z948" s="8"/>
     </row>
-    <row r="949" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="8"/>
       <c r="B949" s="15"/>
       <c r="C949" s="8"/>
@@ -27319,7 +27321,7 @@
       <c r="Y949" s="8"/>
       <c r="Z949" s="8"/>
     </row>
-    <row r="950" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A950" s="8"/>
       <c r="B950" s="15"/>
       <c r="C950" s="8"/>
@@ -27347,7 +27349,7 @@
       <c r="Y950" s="8"/>
       <c r="Z950" s="8"/>
     </row>
-    <row r="951" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A951" s="8"/>
       <c r="B951" s="15"/>
       <c r="C951" s="8"/>
@@ -27375,7 +27377,7 @@
       <c r="Y951" s="8"/>
       <c r="Z951" s="8"/>
     </row>
-    <row r="952" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A952" s="8"/>
       <c r="B952" s="15"/>
       <c r="C952" s="8"/>
@@ -27403,7 +27405,7 @@
       <c r="Y952" s="8"/>
       <c r="Z952" s="8"/>
     </row>
-    <row r="953" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A953" s="8"/>
       <c r="B953" s="15"/>
       <c r="C953" s="8"/>
@@ -27431,7 +27433,7 @@
       <c r="Y953" s="8"/>
       <c r="Z953" s="8"/>
     </row>
-    <row r="954" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A954" s="8"/>
       <c r="B954" s="15"/>
       <c r="C954" s="8"/>
@@ -27459,7 +27461,7 @@
       <c r="Y954" s="8"/>
       <c r="Z954" s="8"/>
     </row>
-    <row r="955" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A955" s="8"/>
       <c r="B955" s="15"/>
       <c r="C955" s="8"/>
@@ -27487,7 +27489,7 @@
       <c r="Y955" s="8"/>
       <c r="Z955" s="8"/>
     </row>
-    <row r="956" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A956" s="8"/>
       <c r="B956" s="15"/>
       <c r="C956" s="8"/>
@@ -27515,7 +27517,7 @@
       <c r="Y956" s="8"/>
       <c r="Z956" s="8"/>
     </row>
-    <row r="957" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A957" s="8"/>
       <c r="B957" s="15"/>
       <c r="C957" s="8"/>
@@ -27543,7 +27545,7 @@
       <c r="Y957" s="8"/>
       <c r="Z957" s="8"/>
     </row>
-    <row r="958" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A958" s="8"/>
       <c r="B958" s="15"/>
       <c r="C958" s="8"/>
@@ -27571,7 +27573,7 @@
       <c r="Y958" s="8"/>
       <c r="Z958" s="8"/>
     </row>
-    <row r="959" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A959" s="8"/>
       <c r="B959" s="15"/>
       <c r="C959" s="8"/>
@@ -27599,7 +27601,7 @@
       <c r="Y959" s="8"/>
       <c r="Z959" s="8"/>
     </row>
-    <row r="960" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A960" s="8"/>
       <c r="B960" s="15"/>
       <c r="C960" s="8"/>
@@ -27627,7 +27629,7 @@
       <c r="Y960" s="8"/>
       <c r="Z960" s="8"/>
     </row>
-    <row r="961" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A961" s="8"/>
       <c r="B961" s="15"/>
       <c r="C961" s="8"/>
@@ -27655,7 +27657,7 @@
       <c r="Y961" s="8"/>
       <c r="Z961" s="8"/>
     </row>
-    <row r="962" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A962" s="8"/>
       <c r="B962" s="15"/>
       <c r="C962" s="8"/>
@@ -27683,7 +27685,7 @@
       <c r="Y962" s="8"/>
       <c r="Z962" s="8"/>
     </row>
-    <row r="963" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A963" s="8"/>
       <c r="B963" s="15"/>
       <c r="C963" s="8"/>
@@ -27711,7 +27713,7 @@
       <c r="Y963" s="8"/>
       <c r="Z963" s="8"/>
     </row>
-    <row r="964" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A964" s="8"/>
       <c r="B964" s="15"/>
       <c r="C964" s="8"/>
@@ -27739,7 +27741,7 @@
       <c r="Y964" s="8"/>
       <c r="Z964" s="8"/>
     </row>
-    <row r="965" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A965" s="8"/>
       <c r="B965" s="15"/>
       <c r="C965" s="8"/>
@@ -27767,7 +27769,7 @@
       <c r="Y965" s="8"/>
       <c r="Z965" s="8"/>
     </row>
-    <row r="966" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A966" s="8"/>
       <c r="B966" s="15"/>
       <c r="C966" s="8"/>
@@ -27795,7 +27797,7 @@
       <c r="Y966" s="8"/>
       <c r="Z966" s="8"/>
     </row>
-    <row r="967" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A967" s="8"/>
       <c r="B967" s="15"/>
       <c r="C967" s="8"/>
@@ -27823,7 +27825,7 @@
       <c r="Y967" s="8"/>
       <c r="Z967" s="8"/>
     </row>
-    <row r="968" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A968" s="8"/>
       <c r="B968" s="15"/>
       <c r="C968" s="8"/>
@@ -27851,7 +27853,7 @@
       <c r="Y968" s="8"/>
       <c r="Z968" s="8"/>
     </row>
-    <row r="969" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A969" s="8"/>
       <c r="B969" s="15"/>
       <c r="C969" s="8"/>
@@ -27879,7 +27881,7 @@
       <c r="Y969" s="8"/>
       <c r="Z969" s="8"/>
     </row>
-    <row r="970" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A970" s="8"/>
       <c r="B970" s="15"/>
       <c r="C970" s="8"/>
@@ -27907,7 +27909,7 @@
       <c r="Y970" s="8"/>
       <c r="Z970" s="8"/>
     </row>
-    <row r="971" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A971" s="8"/>
       <c r="B971" s="15"/>
       <c r="C971" s="8"/>
@@ -27935,7 +27937,7 @@
       <c r="Y971" s="8"/>
       <c r="Z971" s="8"/>
     </row>
-    <row r="972" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A972" s="8"/>
       <c r="B972" s="15"/>
       <c r="C972" s="8"/>
@@ -27963,7 +27965,7 @@
       <c r="Y972" s="8"/>
       <c r="Z972" s="8"/>
     </row>
-    <row r="973" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A973" s="8"/>
       <c r="B973" s="15"/>
       <c r="C973" s="8"/>
@@ -27991,7 +27993,7 @@
       <c r="Y973" s="8"/>
       <c r="Z973" s="8"/>
     </row>
-    <row r="974" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A974" s="8"/>
       <c r="B974" s="15"/>
       <c r="C974" s="8"/>
@@ -28019,7 +28021,7 @@
       <c r="Y974" s="8"/>
       <c r="Z974" s="8"/>
     </row>
-    <row r="975" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A975" s="8"/>
       <c r="B975" s="15"/>
       <c r="C975" s="8"/>
@@ -28047,7 +28049,7 @@
       <c r="Y975" s="8"/>
       <c r="Z975" s="8"/>
     </row>
-    <row r="976" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A976" s="8"/>
       <c r="B976" s="15"/>
       <c r="C976" s="8"/>
@@ -28075,7 +28077,7 @@
       <c r="Y976" s="8"/>
       <c r="Z976" s="8"/>
     </row>
-    <row r="977" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="8"/>
       <c r="B977" s="15"/>
       <c r="C977" s="8"/>
@@ -28103,7 +28105,7 @@
       <c r="Y977" s="8"/>
       <c r="Z977" s="8"/>
     </row>
-    <row r="978" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="8"/>
       <c r="B978" s="15"/>
       <c r="C978" s="8"/>
@@ -28131,7 +28133,7 @@
       <c r="Y978" s="8"/>
       <c r="Z978" s="8"/>
     </row>
-    <row r="979" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="8"/>
       <c r="B979" s="15"/>
       <c r="C979" s="8"/>
@@ -28159,7 +28161,7 @@
       <c r="Y979" s="8"/>
       <c r="Z979" s="8"/>
     </row>
-    <row r="980" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="8"/>
       <c r="B980" s="15"/>
       <c r="C980" s="8"/>
@@ -28187,7 +28189,7 @@
       <c r="Y980" s="8"/>
       <c r="Z980" s="8"/>
     </row>
-    <row r="981" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="8"/>
       <c r="B981" s="15"/>
       <c r="C981" s="8"/>
@@ -28215,7 +28217,7 @@
       <c r="Y981" s="8"/>
       <c r="Z981" s="8"/>
     </row>
-    <row r="982" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="8"/>
       <c r="B982" s="15"/>
       <c r="C982" s="8"/>
@@ -28243,7 +28245,7 @@
       <c r="Y982" s="8"/>
       <c r="Z982" s="8"/>
     </row>
-    <row r="983" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="8"/>
       <c r="B983" s="15"/>
       <c r="C983" s="8"/>
@@ -28271,7 +28273,7 @@
       <c r="Y983" s="8"/>
       <c r="Z983" s="8"/>
     </row>
-    <row r="984" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="8"/>
       <c r="B984" s="15"/>
       <c r="C984" s="8"/>
@@ -28299,7 +28301,7 @@
       <c r="Y984" s="8"/>
       <c r="Z984" s="8"/>
     </row>
-    <row r="985" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="8"/>
       <c r="B985" s="15"/>
       <c r="C985" s="8"/>
@@ -28327,7 +28329,7 @@
       <c r="Y985" s="8"/>
       <c r="Z985" s="8"/>
     </row>
-    <row r="986" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="8"/>
       <c r="B986" s="15"/>
       <c r="C986" s="8"/>
@@ -28355,7 +28357,7 @@
       <c r="Y986" s="8"/>
       <c r="Z986" s="8"/>
     </row>
-    <row r="987" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="8"/>
       <c r="B987" s="15"/>
       <c r="C987" s="8"/>
@@ -28383,7 +28385,7 @@
       <c r="Y987" s="8"/>
       <c r="Z987" s="8"/>
     </row>
-    <row r="988" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="8"/>
       <c r="B988" s="15"/>
       <c r="C988" s="8"/>
@@ -28411,7 +28413,7 @@
       <c r="Y988" s="8"/>
       <c r="Z988" s="8"/>
     </row>
-    <row r="989" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A989" s="8"/>
       <c r="B989" s="15"/>
       <c r="C989" s="8"/>
@@ -28439,7 +28441,7 @@
       <c r="Y989" s="8"/>
       <c r="Z989" s="8"/>
     </row>
-    <row r="990" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A990" s="8"/>
       <c r="B990" s="15"/>
       <c r="C990" s="8"/>
@@ -28467,7 +28469,7 @@
       <c r="Y990" s="8"/>
       <c r="Z990" s="8"/>
     </row>
-    <row r="991" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A991" s="8"/>
       <c r="B991" s="15"/>
       <c r="C991" s="8"/>
@@ -28495,7 +28497,7 @@
       <c r="Y991" s="8"/>
       <c r="Z991" s="8"/>
     </row>
-    <row r="992" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A992" s="8"/>
       <c r="B992" s="15"/>
       <c r="C992" s="8"/>
@@ -28523,7 +28525,7 @@
       <c r="Y992" s="8"/>
       <c r="Z992" s="8"/>
     </row>
-    <row r="993" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A993" s="8"/>
       <c r="B993" s="15"/>
       <c r="C993" s="8"/>
@@ -28551,7 +28553,7 @@
       <c r="Y993" s="8"/>
       <c r="Z993" s="8"/>
     </row>
-    <row r="994" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A994" s="8"/>
       <c r="B994" s="15"/>
       <c r="C994" s="8"/>
@@ -28579,7 +28581,7 @@
       <c r="Y994" s="8"/>
       <c r="Z994" s="8"/>
     </row>
-    <row r="995" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A995" s="8"/>
       <c r="B995" s="15"/>
       <c r="C995" s="8"/>
@@ -28607,7 +28609,7 @@
       <c r="Y995" s="8"/>
       <c r="Z995" s="8"/>
     </row>
-    <row r="996" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A996" s="8"/>
       <c r="B996" s="15"/>
       <c r="C996" s="8"/>
@@ -28635,7 +28637,7 @@
       <c r="Y996" s="8"/>
       <c r="Z996" s="8"/>
     </row>
-    <row r="997" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A997" s="8"/>
       <c r="B997" s="15"/>
       <c r="C997" s="8"/>
@@ -28663,7 +28665,7 @@
       <c r="Y997" s="8"/>
       <c r="Z997" s="8"/>
     </row>
-    <row r="998" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A998" s="8"/>
       <c r="B998" s="15"/>
       <c r="C998" s="8"/>
@@ -28691,7 +28693,7 @@
       <c r="Y998" s="8"/>
       <c r="Z998" s="8"/>
     </row>
-    <row r="999" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A999" s="8"/>
       <c r="B999" s="15"/>
       <c r="C999" s="8"/>
@@ -28719,7 +28721,7 @@
       <c r="Y999" s="8"/>
       <c r="Z999" s="8"/>
     </row>
-    <row r="1000" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1000" s="8"/>
       <c r="B1000" s="15"/>
       <c r="C1000" s="8"/>
@@ -28747,7 +28749,7 @@
       <c r="Y1000" s="8"/>
       <c r="Z1000" s="8"/>
     </row>
-    <row r="1001" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1001" s="8"/>
       <c r="B1001" s="15"/>
       <c r="C1001" s="8"/>
@@ -28788,23 +28790,23 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
@@ -28816,10 +28818,10 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>29</v>
       </c>
@@ -28831,7 +28833,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="18"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -28839,7 +28841,7 @@
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>10</v>
       </c>
@@ -28859,7 +28861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
@@ -28879,7 +28881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
@@ -28896,7 +28898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -28913,7 +28915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
@@ -28933,7 +28935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>43</v>
       </c>
@@ -28953,7 +28955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
@@ -28970,7 +28972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>47</v>
       </c>
@@ -28990,7 +28992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>48</v>
       </c>
@@ -29007,7 +29009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
@@ -29024,21 +29026,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
     </row>
   </sheetData>
